--- a/data/microscopy/microscopy.xlsx
+++ b/data/microscopy/microscopy.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="GW-May" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,9 +25,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1957" uniqueCount="441">
-  <si>
-    <t xml:space="preserve">TUBE_ID</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1957" uniqueCount="440">
+  <si>
+    <t xml:space="preserve">TUBE ID</t>
   </si>
   <si>
     <t xml:space="preserve">DATE</t>
@@ -313,9 +313,6 @@
   </si>
   <si>
     <t xml:space="preserve">Eurycercus_sp.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TUBE ID</t>
   </si>
   <si>
     <t xml:space="preserve">WB101</t>
@@ -1477,18 +1474,19 @@
   </sheetPr>
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="10.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="23.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="23.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="8.52"/>
   </cols>
   <sheetData>
@@ -2698,7 +2696,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>1</v>
@@ -2724,13 +2722,13 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>42873</v>
+      </c>
+      <c r="C2" s="0" t="s">
         <v>97</v>
-      </c>
-      <c r="B2" s="1" t="n">
-        <v>42873</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>98</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>1</v>
@@ -2750,25 +2748,25 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>42873</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="B3" s="1" t="n">
-        <v>42873</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" s="0" t="s">
+      <c r="F3" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="G3" s="0" t="s">
         <v>101</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>102</v>
       </c>
       <c r="H3" s="0" t="n">
         <v>1</v>
@@ -2776,19 +2774,19 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>42873</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>103</v>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>42873</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>104</v>
       </c>
       <c r="F4" s="0" t="s">
         <v>18</v>
@@ -2802,25 +2800,25 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F5" s="0" t="s">
         <v>18</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H5" s="0" t="n">
         <v>2</v>
@@ -2828,19 +2826,19 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F6" s="0" t="s">
         <v>18</v>
@@ -2854,19 +2852,19 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F7" s="0" t="s">
         <v>18</v>
@@ -2880,13 +2878,13 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>1</v>
@@ -2906,13 +2904,13 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>1</v>
@@ -2924,7 +2922,7 @@
         <v>47</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H9" s="0" t="n">
         <v>1</v>
@@ -2932,25 +2930,25 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>42873</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="0" t="s">
         <v>112</v>
       </c>
-      <c r="B10" s="1" t="n">
-        <v>42873</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="0" t="s">
+      <c r="G10" s="0" t="s">
         <v>113</v>
-      </c>
-      <c r="G10" s="0" t="s">
-        <v>114</v>
       </c>
       <c r="H10" s="0" t="n">
         <v>3</v>
@@ -2958,25 +2956,25 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>42873</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="B11" s="1" t="n">
-        <v>42873</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" s="0" t="s">
+      <c r="G11" s="0" t="s">
         <v>116</v>
-      </c>
-      <c r="G11" s="0" t="s">
-        <v>117</v>
       </c>
       <c r="H11" s="0" t="n">
         <v>1</v>
@@ -2984,22 +2982,22 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>42873</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="0" t="s">
         <v>118</v>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>42873</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12" s="0" t="s">
-        <v>119</v>
       </c>
       <c r="G12" s="0" t="s">
         <v>43</v>
@@ -3010,25 +3008,25 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F13" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="G13" s="0" t="s">
         <v>121</v>
-      </c>
-      <c r="G13" s="0" t="s">
-        <v>122</v>
       </c>
       <c r="H13" s="0" t="n">
         <v>2</v>
@@ -3036,19 +3034,19 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F14" s="0" t="s">
         <v>18</v>
@@ -3062,13 +3060,13 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B15" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>2</v>
@@ -3077,10 +3075,10 @@
         <v>32</v>
       </c>
       <c r="F15" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="G15" s="0" t="s">
         <v>113</v>
-      </c>
-      <c r="G15" s="0" t="s">
-        <v>114</v>
       </c>
       <c r="H15" s="0" t="n">
         <v>1</v>
@@ -3088,13 +3086,13 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B16" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>2</v>
@@ -3103,10 +3101,10 @@
         <v>32</v>
       </c>
       <c r="F16" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="G16" s="0" t="s">
         <v>116</v>
-      </c>
-      <c r="G16" s="0" t="s">
-        <v>117</v>
       </c>
       <c r="H16" s="0" t="n">
         <v>1</v>
@@ -3114,13 +3112,13 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B17" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>2</v>
@@ -3140,19 +3138,19 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B18" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>3</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F18" s="0" t="s">
         <v>18</v>
@@ -3166,13 +3164,13 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B19" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D19" s="0" t="n">
         <v>3</v>
@@ -3181,10 +3179,10 @@
         <v>32</v>
       </c>
       <c r="F19" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="G19" s="0" t="s">
         <v>116</v>
-      </c>
-      <c r="G19" s="0" t="s">
-        <v>117</v>
       </c>
       <c r="H19" s="0" t="n">
         <v>2</v>
@@ -3192,13 +3190,13 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B20" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D20" s="0" t="n">
         <v>3</v>
@@ -3218,13 +3216,13 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B21" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>3</v>
@@ -3233,10 +3231,10 @@
         <v>10</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H21" s="0" t="n">
         <v>9</v>
@@ -3244,25 +3242,25 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B22" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D22" s="0" t="n">
         <v>3</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H22" s="0" t="n">
         <v>3</v>
@@ -3270,13 +3268,13 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B23" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D23" s="0" t="n">
         <v>3</v>
@@ -3288,7 +3286,7 @@
         <v>61</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H23" s="0" t="n">
         <v>10</v>
@@ -3296,13 +3294,13 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B24" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D24" s="0" t="n">
         <v>3</v>
@@ -3311,10 +3309,10 @@
         <v>60</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H24" s="0" t="n">
         <v>1</v>
@@ -3322,13 +3320,13 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B25" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D25" s="0" t="n">
         <v>3</v>
@@ -3348,19 +3346,19 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B26" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D26" s="0" t="n">
         <v>4</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F26" s="0" t="s">
         <v>18</v>
@@ -3374,13 +3372,13 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B27" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D27" s="0" t="n">
         <v>4</v>
@@ -3400,13 +3398,13 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B28" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D28" s="0" t="n">
         <v>4</v>
@@ -3415,10 +3413,10 @@
         <v>10</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H28" s="0" t="n">
         <v>13</v>
@@ -3426,13 +3424,13 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B29" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D29" s="0" t="n">
         <v>4</v>
@@ -3444,7 +3442,7 @@
         <v>61</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H29" s="0" t="n">
         <v>1</v>
@@ -3452,25 +3450,25 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B30" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D30" s="0" t="n">
         <v>4</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F30" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="G30" s="0" t="s">
         <v>121</v>
-      </c>
-      <c r="G30" s="0" t="s">
-        <v>122</v>
       </c>
       <c r="H30" s="0" t="n">
         <v>1</v>
@@ -3478,19 +3476,19 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B31" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D31" s="0" t="n">
         <v>4</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F31" s="0" t="s">
         <v>18</v>
@@ -3504,19 +3502,19 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B32" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D32" s="0" t="n">
         <v>4</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F32" s="0" t="s">
         <v>18</v>
@@ -3530,19 +3528,19 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B33" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D33" s="0" t="n">
         <v>5</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F33" s="0" t="s">
         <v>18</v>
@@ -3556,13 +3554,13 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B34" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D34" s="0" t="n">
         <v>5</v>
@@ -3582,13 +3580,13 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B35" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D35" s="0" t="n">
         <v>5</v>
@@ -3600,7 +3598,7 @@
         <v>61</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H35" s="0" t="n">
         <v>10</v>
@@ -3608,13 +3606,13 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B36" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D36" s="0" t="n">
         <v>5</v>
@@ -3634,13 +3632,13 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B37" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D37" s="0" t="n">
         <v>5</v>
@@ -3649,10 +3647,10 @@
         <v>10</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H37" s="0" t="n">
         <v>1</v>
@@ -3660,13 +3658,13 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B38" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D38" s="0" t="n">
         <v>5</v>
@@ -3675,10 +3673,10 @@
         <v>10</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H38" s="0" t="n">
         <v>3</v>
@@ -3686,19 +3684,19 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B39" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D39" s="0" t="n">
         <v>6</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F39" s="0" t="s">
         <v>18</v>
@@ -3712,25 +3710,25 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B40" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D40" s="0" t="n">
         <v>6</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H40" s="0" t="n">
         <v>2</v>
@@ -3738,13 +3736,13 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B41" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D41" s="0" t="n">
         <v>6</v>
@@ -3764,13 +3762,13 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B42" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D42" s="0" t="n">
         <v>6</v>
@@ -3782,7 +3780,7 @@
         <v>61</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H42" s="0" t="n">
         <v>143</v>
@@ -3790,13 +3788,13 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B43" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D43" s="0" t="n">
         <v>6</v>
@@ -3808,7 +3806,7 @@
         <v>69</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H43" s="0" t="n">
         <v>1</v>
@@ -3816,13 +3814,13 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B44" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D44" s="0" t="n">
         <v>6</v>
@@ -3842,13 +3840,13 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B45" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D45" s="0" t="n">
         <v>6</v>
@@ -3857,10 +3855,10 @@
         <v>32</v>
       </c>
       <c r="F45" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="G45" s="0" t="s">
         <v>162</v>
-      </c>
-      <c r="G45" s="0" t="s">
-        <v>163</v>
       </c>
       <c r="H45" s="0" t="n">
         <v>1</v>
@@ -3868,25 +3866,25 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B46" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D46" s="0" t="n">
         <v>6</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H46" s="0" t="n">
         <v>1</v>
@@ -3894,13 +3892,13 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B47" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D47" s="0" t="n">
         <v>6</v>
@@ -3909,10 +3907,10 @@
         <v>32</v>
       </c>
       <c r="F47" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="G47" s="0" t="s">
         <v>116</v>
-      </c>
-      <c r="G47" s="0" t="s">
-        <v>117</v>
       </c>
       <c r="H47" s="0" t="n">
         <v>1</v>
@@ -3920,13 +3918,13 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B48" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D48" s="0" t="n">
         <v>6</v>
@@ -3935,10 +3933,10 @@
         <v>46</v>
       </c>
       <c r="F48" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="G48" s="0" t="s">
         <v>168</v>
-      </c>
-      <c r="G48" s="0" t="s">
-        <v>169</v>
       </c>
       <c r="H48" s="0" t="n">
         <v>1</v>
@@ -3946,13 +3944,13 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B49" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D49" s="0" t="n">
         <v>6</v>
@@ -3961,7 +3959,7 @@
         <v>32</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G49" s="0" t="s">
         <v>72</v>
@@ -3972,13 +3970,13 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B50" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D50" s="0" t="n">
         <v>6</v>
@@ -3987,10 +3985,10 @@
         <v>10</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H50" s="0" t="n">
         <v>1</v>
@@ -3998,13 +3996,13 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B51" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D51" s="0" t="n">
         <v>6</v>
@@ -4013,10 +4011,10 @@
         <v>60</v>
       </c>
       <c r="F51" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="G51" s="0" t="s">
         <v>173</v>
-      </c>
-      <c r="G51" s="0" t="s">
-        <v>174</v>
       </c>
       <c r="H51" s="0" t="n">
         <v>1</v>
@@ -4024,13 +4022,13 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B52" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D52" s="0" t="n">
         <v>6</v>
@@ -4039,10 +4037,10 @@
         <v>60</v>
       </c>
       <c r="F52" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="G52" s="0" t="s">
         <v>176</v>
-      </c>
-      <c r="G52" s="0" t="s">
-        <v>177</v>
       </c>
       <c r="H52" s="0" t="n">
         <v>2</v>
@@ -4050,19 +4048,19 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B53" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D53" s="0" t="n">
         <v>6</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F53" s="0" t="s">
         <v>18</v>
@@ -4108,7 +4106,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="14.28"/>
@@ -4119,7 +4117,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>1</v>
@@ -4137,10 +4135,10 @@
         <v>5</v>
       </c>
       <c r="G1" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="H1" s="0" t="s">
         <v>179</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>180</v>
       </c>
       <c r="I1" s="0" t="s">
         <v>6</v>
@@ -4151,13 +4149,13 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>1</v>
@@ -4169,10 +4167,10 @@
         <v>47</v>
       </c>
       <c r="G2" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="H2" s="0" t="s">
         <v>183</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>184</v>
       </c>
       <c r="I2" s="0" t="s">
         <v>48</v>
@@ -4183,13 +4181,13 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>1</v>
@@ -4212,13 +4210,13 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>1</v>
@@ -4241,31 +4239,31 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>42873</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="0" t="s">
         <v>187</v>
       </c>
-      <c r="B5" s="1" t="n">
-        <v>42873</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>182</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="0" t="s">
+      <c r="G5" s="0" t="s">
         <v>188</v>
       </c>
-      <c r="G5" s="0" t="s">
+      <c r="H5" s="0" t="s">
         <v>189</v>
       </c>
-      <c r="H5" s="0" t="s">
+      <c r="I5" s="0" t="s">
         <v>190</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>191</v>
       </c>
       <c r="J5" s="0" t="n">
         <v>1</v>
@@ -4273,28 +4271,28 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>42873</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="F6" s="0" t="s">
         <v>192</v>
       </c>
-      <c r="B6" s="1" t="n">
-        <v>42873</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>182</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>193</v>
-      </c>
       <c r="G6" s="0" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J6" s="0" t="n">
         <v>1</v>
@@ -4302,28 +4300,28 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J7" s="0" t="n">
         <v>1</v>
@@ -4331,31 +4329,31 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>42873</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="G8" s="0" t="s">
         <v>195</v>
       </c>
-      <c r="B8" s="1" t="n">
-        <v>42873</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>182</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="G8" s="0" t="s">
+      <c r="H8" s="0" t="s">
         <v>196</v>
       </c>
-      <c r="H8" s="0" t="s">
+      <c r="I8" s="0" t="s">
         <v>197</v>
-      </c>
-      <c r="I8" s="0" t="s">
-        <v>198</v>
       </c>
       <c r="J8" s="0" t="n">
         <v>1</v>
@@ -4363,28 +4361,28 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F9" s="0" t="s">
         <v>14</v>
       </c>
       <c r="G9" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="H9" s="0" t="s">
         <v>200</v>
-      </c>
-      <c r="H9" s="0" t="s">
-        <v>201</v>
       </c>
       <c r="I9" s="0" t="s">
         <v>15</v>
@@ -4395,31 +4393,31 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F10" s="0" t="s">
         <v>18</v>
       </c>
       <c r="G10" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="H10" s="0" t="s">
         <v>203</v>
       </c>
-      <c r="H10" s="0" t="s">
+      <c r="I10" s="0" t="s">
         <v>204</v>
-      </c>
-      <c r="I10" s="0" t="s">
-        <v>205</v>
       </c>
       <c r="J10" s="0" t="n">
         <v>8</v>
@@ -4427,28 +4425,28 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F11" s="0" t="s">
         <v>18</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I11" s="0" t="s">
         <v>88</v>
@@ -4459,31 +4457,31 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>42873</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="G12" s="0" t="s">
         <v>207</v>
       </c>
-      <c r="B12" s="1" t="n">
-        <v>42873</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>182</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="F12" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="G12" s="0" t="s">
+      <c r="H12" s="0" t="s">
         <v>208</v>
       </c>
-      <c r="H12" s="0" t="s">
+      <c r="I12" s="0" t="s">
         <v>209</v>
-      </c>
-      <c r="I12" s="0" t="s">
-        <v>210</v>
       </c>
       <c r="J12" s="0" t="n">
         <v>1</v>
@@ -4491,13 +4489,13 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>2</v>
@@ -4520,31 +4518,31 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E14" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="F14" s="0" t="s">
         <v>213</v>
       </c>
-      <c r="F14" s="0" t="s">
+      <c r="G14" s="0" t="s">
         <v>214</v>
       </c>
-      <c r="G14" s="0" t="s">
+      <c r="H14" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="I14" s="0" t="s">
         <v>215</v>
-      </c>
-      <c r="H14" s="0" t="s">
-        <v>197</v>
-      </c>
-      <c r="I14" s="0" t="s">
-        <v>216</v>
       </c>
       <c r="J14" s="0" t="n">
         <v>3</v>
@@ -4552,31 +4550,31 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B15" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F15" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="I15" s="0" t="s">
         <v>121</v>
-      </c>
-      <c r="G15" s="0" t="s">
-        <v>196</v>
-      </c>
-      <c r="H15" s="0" t="s">
-        <v>209</v>
-      </c>
-      <c r="I15" s="0" t="s">
-        <v>122</v>
       </c>
       <c r="J15" s="0" t="n">
         <v>6</v>
@@ -4584,31 +4582,31 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B16" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F16" s="0" t="s">
         <v>18</v>
       </c>
       <c r="G16" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="H16" s="0" t="s">
         <v>203</v>
       </c>
-      <c r="H16" s="0" t="s">
+      <c r="I16" s="0" t="s">
         <v>204</v>
-      </c>
-      <c r="I16" s="0" t="s">
-        <v>205</v>
       </c>
       <c r="J16" s="0" t="n">
         <v>2</v>
@@ -4616,31 +4614,31 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B17" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G17" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="H17" s="0" t="s">
         <v>196</v>
       </c>
-      <c r="H17" s="0" t="s">
+      <c r="I17" s="0" t="s">
         <v>197</v>
-      </c>
-      <c r="I17" s="0" t="s">
-        <v>198</v>
       </c>
       <c r="J17" s="0" t="n">
         <v>1</v>
@@ -4648,13 +4646,13 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B18" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>2</v>
@@ -4677,13 +4675,13 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B19" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D19" s="0" t="n">
         <v>2</v>
@@ -4695,13 +4693,13 @@
         <v>78</v>
       </c>
       <c r="G19" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="H19" s="0" t="s">
         <v>222</v>
       </c>
-      <c r="H19" s="0" t="s">
+      <c r="I19" s="0" t="s">
         <v>223</v>
-      </c>
-      <c r="I19" s="0" t="s">
-        <v>224</v>
       </c>
       <c r="J19" s="0" t="n">
         <v>1</v>
@@ -4709,13 +4707,13 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B20" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D20" s="0" t="n">
         <v>2</v>
@@ -4724,13 +4722,13 @@
         <v>32</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I20" s="0" t="s">
         <v>54</v>
@@ -4741,13 +4739,13 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B21" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>2</v>
@@ -4770,13 +4768,13 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B22" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D22" s="0" t="n">
         <v>2</v>
@@ -4788,10 +4786,10 @@
         <v>33</v>
       </c>
       <c r="G22" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="H22" s="0" t="s">
         <v>229</v>
-      </c>
-      <c r="H22" s="0" t="s">
-        <v>230</v>
       </c>
       <c r="I22" s="0" t="s">
         <v>34</v>
@@ -4802,28 +4800,28 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B23" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D23" s="0" t="n">
         <v>3</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J23" s="0" t="n">
         <v>3</v>
@@ -4831,13 +4829,13 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B24" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D24" s="0" t="n">
         <v>3</v>
@@ -4846,16 +4844,16 @@
         <v>77</v>
       </c>
       <c r="F24" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="G24" s="0" t="s">
         <v>233</v>
       </c>
-      <c r="G24" s="0" t="s">
+      <c r="H24" s="0" t="s">
         <v>234</v>
       </c>
-      <c r="H24" s="0" t="s">
+      <c r="I24" s="0" t="s">
         <v>235</v>
-      </c>
-      <c r="I24" s="0" t="s">
-        <v>236</v>
       </c>
       <c r="J24" s="0" t="n">
         <v>2</v>
@@ -4863,13 +4861,13 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B25" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D25" s="0" t="n">
         <v>3</v>
@@ -4892,31 +4890,31 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B26" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D26" s="0" t="n">
         <v>3</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F26" s="0" t="s">
         <v>18</v>
       </c>
       <c r="G26" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="H26" s="0" t="s">
         <v>203</v>
       </c>
-      <c r="H26" s="0" t="s">
+      <c r="I26" s="0" t="s">
         <v>204</v>
-      </c>
-      <c r="I26" s="0" t="s">
-        <v>205</v>
       </c>
       <c r="J26" s="0" t="n">
         <v>32</v>
@@ -4924,31 +4922,31 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B27" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D27" s="0" t="n">
         <v>3</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F27" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="G27" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="H27" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="I27" s="0" t="s">
         <v>121</v>
-      </c>
-      <c r="G27" s="0" t="s">
-        <v>196</v>
-      </c>
-      <c r="H27" s="0" t="s">
-        <v>209</v>
-      </c>
-      <c r="I27" s="0" t="s">
-        <v>122</v>
       </c>
       <c r="J27" s="0" t="n">
         <v>33</v>
@@ -4956,31 +4954,31 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B28" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D28" s="0" t="n">
         <v>3</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F28" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="G28" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="H28" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="I28" s="0" t="s">
         <v>121</v>
-      </c>
-      <c r="G28" s="0" t="s">
-        <v>196</v>
-      </c>
-      <c r="H28" s="0" t="s">
-        <v>209</v>
-      </c>
-      <c r="I28" s="0" t="s">
-        <v>122</v>
       </c>
       <c r="J28" s="0" t="n">
         <v>28</v>
@@ -4988,31 +4986,31 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B29" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D29" s="0" t="n">
         <v>3</v>
       </c>
       <c r="E29" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="F29" s="0" t="s">
         <v>213</v>
       </c>
-      <c r="F29" s="0" t="s">
+      <c r="G29" s="0" t="s">
         <v>214</v>
       </c>
-      <c r="G29" s="0" t="s">
+      <c r="H29" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="I29" s="0" t="s">
         <v>215</v>
-      </c>
-      <c r="H29" s="0" t="s">
-        <v>197</v>
-      </c>
-      <c r="I29" s="0" t="s">
-        <v>216</v>
       </c>
       <c r="J29" s="0" t="n">
         <v>1</v>
@@ -5020,13 +5018,13 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B30" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D30" s="0" t="n">
         <v>3</v>
@@ -5049,13 +5047,13 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B31" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D31" s="0" t="n">
         <v>3</v>
@@ -5078,13 +5076,13 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B32" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D32" s="0" t="n">
         <v>3</v>
@@ -5096,13 +5094,13 @@
         <v>78</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I32" s="0" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J32" s="0" t="n">
         <v>1</v>
@@ -5110,13 +5108,13 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B33" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D33" s="0" t="n">
         <v>3</v>
@@ -5128,13 +5126,13 @@
         <v>78</v>
       </c>
       <c r="G33" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="H33" s="0" t="s">
         <v>247</v>
       </c>
-      <c r="H33" s="0" t="s">
+      <c r="I33" s="0" t="s">
         <v>248</v>
-      </c>
-      <c r="I33" s="0" t="s">
-        <v>249</v>
       </c>
       <c r="J33" s="0" t="n">
         <v>1</v>
@@ -5142,28 +5140,28 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B34" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D34" s="0" t="n">
         <v>3</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I34" s="0" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J34" s="0" t="n">
         <v>1</v>
@@ -5171,13 +5169,13 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B35" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D35" s="0" t="n">
         <v>3</v>
@@ -5200,13 +5198,13 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B36" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D36" s="0" t="n">
         <v>3</v>
@@ -5215,16 +5213,16 @@
         <v>32</v>
       </c>
       <c r="F36" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="G36" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="H36" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="I36" s="0" t="s">
         <v>116</v>
-      </c>
-      <c r="G36" s="0" t="s">
-        <v>253</v>
-      </c>
-      <c r="H36" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="I36" s="0" t="s">
-        <v>117</v>
       </c>
       <c r="J36" s="0" t="n">
         <v>2</v>
@@ -5232,13 +5230,13 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B37" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D37" s="0" t="n">
         <v>3</v>
@@ -5250,13 +5248,13 @@
         <v>42</v>
       </c>
       <c r="G37" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="H37" s="0" t="s">
         <v>256</v>
       </c>
-      <c r="H37" s="0" t="s">
+      <c r="I37" s="0" t="s">
         <v>257</v>
-      </c>
-      <c r="I37" s="0" t="s">
-        <v>258</v>
       </c>
       <c r="J37" s="0" t="n">
         <v>3</v>
@@ -5264,13 +5262,13 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B38" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D38" s="0" t="n">
         <v>3</v>
@@ -5279,16 +5277,16 @@
         <v>32</v>
       </c>
       <c r="F38" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="G38" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="H38" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="I38" s="0" t="s">
         <v>113</v>
-      </c>
-      <c r="G38" s="0" t="s">
-        <v>260</v>
-      </c>
-      <c r="H38" s="0" t="s">
-        <v>261</v>
-      </c>
-      <c r="I38" s="0" t="s">
-        <v>114</v>
       </c>
       <c r="J38" s="0" t="n">
         <v>13</v>
@@ -5296,13 +5294,13 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B39" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D39" s="0" t="n">
         <v>3</v>
@@ -5314,10 +5312,10 @@
         <v>36</v>
       </c>
       <c r="G39" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="H39" s="0" t="s">
         <v>263</v>
-      </c>
-      <c r="H39" s="0" t="s">
-        <v>264</v>
       </c>
       <c r="I39" s="0" t="s">
         <v>37</v>
@@ -5328,13 +5326,13 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B40" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D40" s="0" t="n">
         <v>3</v>
@@ -5343,13 +5341,13 @@
         <v>32</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I40" s="0" t="s">
         <v>54</v>
@@ -5360,28 +5358,28 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B41" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D41" s="0" t="n">
         <v>4</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F41" s="0" t="s">
         <v>14</v>
       </c>
       <c r="G41" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="H41" s="0" t="s">
         <v>200</v>
-      </c>
-      <c r="H41" s="0" t="s">
-        <v>201</v>
       </c>
       <c r="I41" s="0" t="s">
         <v>15</v>
@@ -5392,31 +5390,31 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B42" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D42" s="0" t="n">
         <v>4</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F42" s="0" t="s">
         <v>18</v>
       </c>
       <c r="G42" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="H42" s="0" t="s">
         <v>203</v>
       </c>
-      <c r="H42" s="0" t="s">
+      <c r="I42" s="0" t="s">
         <v>204</v>
-      </c>
-      <c r="I42" s="0" t="s">
-        <v>205</v>
       </c>
       <c r="J42" s="0" t="n">
         <v>2</v>
@@ -5424,28 +5422,28 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B43" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D43" s="0" t="n">
         <v>4</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I43" s="0" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J43" s="0" t="n">
         <v>2</v>
@@ -5453,13 +5451,13 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B44" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D44" s="0" t="n">
         <v>4</v>
@@ -5468,13 +5466,13 @@
         <v>32</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I44" s="0" t="s">
         <v>54</v>
@@ -5485,13 +5483,13 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B45" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D45" s="0" t="n">
         <v>4</v>
@@ -5503,13 +5501,13 @@
         <v>39</v>
       </c>
       <c r="G45" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="H45" s="0" t="s">
         <v>271</v>
       </c>
-      <c r="H45" s="0" t="s">
+      <c r="I45" s="0" t="s">
         <v>272</v>
-      </c>
-      <c r="I45" s="0" t="s">
-        <v>273</v>
       </c>
       <c r="J45" s="0" t="n">
         <v>2</v>
@@ -5517,13 +5515,13 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B46" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D46" s="0" t="n">
         <v>4</v>
@@ -5535,13 +5533,13 @@
         <v>39</v>
       </c>
       <c r="G46" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="H46" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="I46" s="0" t="s">
         <v>275</v>
-      </c>
-      <c r="H46" s="0" t="s">
-        <v>197</v>
-      </c>
-      <c r="I46" s="0" t="s">
-        <v>276</v>
       </c>
       <c r="J46" s="0" t="n">
         <v>1</v>
@@ -5549,13 +5547,13 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B47" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D47" s="0" t="n">
         <v>4</v>
@@ -5564,16 +5562,16 @@
         <v>32</v>
       </c>
       <c r="F47" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="G47" s="0" t="s">
         <v>278</v>
       </c>
-      <c r="G47" s="0" t="s">
+      <c r="H47" s="0" t="s">
         <v>279</v>
       </c>
-      <c r="H47" s="0" t="s">
+      <c r="I47" s="0" t="s">
         <v>280</v>
-      </c>
-      <c r="I47" s="0" t="s">
-        <v>281</v>
       </c>
       <c r="J47" s="0" t="n">
         <v>1</v>
@@ -5581,13 +5579,13 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B48" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D48" s="0" t="n">
         <v>4</v>
@@ -5599,13 +5597,13 @@
         <v>83</v>
       </c>
       <c r="G48" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="H48" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="I48" s="0" t="s">
         <v>283</v>
-      </c>
-      <c r="H48" s="0" t="s">
-        <v>257</v>
-      </c>
-      <c r="I48" s="0" t="s">
-        <v>284</v>
       </c>
       <c r="J48" s="0" t="n">
         <v>3</v>
@@ -5613,13 +5611,13 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B49" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D49" s="0" t="n">
         <v>4</v>
@@ -5631,13 +5629,13 @@
         <v>83</v>
       </c>
       <c r="G49" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="H49" s="0" t="s">
         <v>286</v>
       </c>
-      <c r="H49" s="0" t="s">
+      <c r="I49" s="0" t="s">
         <v>287</v>
-      </c>
-      <c r="I49" s="0" t="s">
-        <v>288</v>
       </c>
       <c r="J49" s="0" t="n">
         <v>1</v>
@@ -5645,13 +5643,13 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B50" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D50" s="0" t="n">
         <v>4</v>
@@ -5674,13 +5672,13 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B51" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D51" s="0" t="n">
         <v>4</v>
@@ -5689,16 +5687,16 @@
         <v>51</v>
       </c>
       <c r="F51" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="G51" s="0" t="s">
         <v>291</v>
       </c>
-      <c r="G51" s="0" t="s">
+      <c r="H51" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="I51" s="0" t="s">
         <v>292</v>
-      </c>
-      <c r="H51" s="0" t="s">
-        <v>197</v>
-      </c>
-      <c r="I51" s="0" t="s">
-        <v>293</v>
       </c>
       <c r="J51" s="0" t="n">
         <v>1</v>
@@ -5706,31 +5704,31 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B52" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D52" s="0" t="n">
         <v>5</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G52" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="H52" s="0" t="s">
         <v>196</v>
       </c>
-      <c r="H52" s="0" t="s">
+      <c r="I52" s="0" t="s">
         <v>197</v>
-      </c>
-      <c r="I52" s="0" t="s">
-        <v>198</v>
       </c>
       <c r="J52" s="0" t="n">
         <v>1</v>
@@ -5738,31 +5736,31 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B53" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D53" s="0" t="n">
         <v>5</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F53" s="0" t="s">
         <v>18</v>
       </c>
       <c r="G53" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="H53" s="0" t="s">
         <v>203</v>
       </c>
-      <c r="H53" s="0" t="s">
+      <c r="I53" s="0" t="s">
         <v>204</v>
-      </c>
-      <c r="I53" s="0" t="s">
-        <v>205</v>
       </c>
       <c r="J53" s="0" t="n">
         <v>16</v>
@@ -5770,31 +5768,31 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B54" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D54" s="0" t="n">
         <v>5</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F54" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="G54" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="H54" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="I54" s="0" t="s">
         <v>121</v>
-      </c>
-      <c r="G54" s="0" t="s">
-        <v>196</v>
-      </c>
-      <c r="H54" s="0" t="s">
-        <v>209</v>
-      </c>
-      <c r="I54" s="0" t="s">
-        <v>122</v>
       </c>
       <c r="J54" s="0" t="n">
         <v>1</v>
@@ -5802,28 +5800,28 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B55" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D55" s="0" t="n">
         <v>5</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F55" s="0" t="s">
         <v>14</v>
       </c>
       <c r="G55" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="H55" s="0" t="s">
         <v>200</v>
-      </c>
-      <c r="H55" s="0" t="s">
-        <v>201</v>
       </c>
       <c r="I55" s="0" t="s">
         <v>15</v>
@@ -5834,13 +5832,13 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B56" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D56" s="0" t="n">
         <v>5</v>
@@ -5852,10 +5850,10 @@
         <v>33</v>
       </c>
       <c r="G56" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="H56" s="0" t="s">
         <v>229</v>
-      </c>
-      <c r="H56" s="0" t="s">
-        <v>230</v>
       </c>
       <c r="I56" s="0" t="s">
         <v>34</v>
@@ -5866,13 +5864,13 @@
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B57" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D57" s="0" t="n">
         <v>5</v>
@@ -5884,13 +5882,13 @@
         <v>42</v>
       </c>
       <c r="G57" s="0" t="s">
+        <v>299</v>
+      </c>
+      <c r="H57" s="0" t="s">
         <v>300</v>
       </c>
-      <c r="H57" s="0" t="s">
+      <c r="I57" s="0" t="s">
         <v>301</v>
-      </c>
-      <c r="I57" s="0" t="s">
-        <v>302</v>
       </c>
       <c r="J57" s="0" t="n">
         <v>1</v>
@@ -5898,13 +5896,13 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B58" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D58" s="0" t="n">
         <v>5</v>
@@ -5913,13 +5911,13 @@
         <v>51</v>
       </c>
       <c r="F58" s="0" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G58" s="0" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I58" s="0" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="J58" s="0" t="n">
         <v>3</v>
@@ -5927,13 +5925,13 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B59" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D59" s="0" t="n">
         <v>5</v>
@@ -5956,13 +5954,13 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B60" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D60" s="0" t="n">
         <v>5</v>
@@ -5974,13 +5972,13 @@
         <v>78</v>
       </c>
       <c r="G60" s="0" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H60" s="0" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I60" s="0" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J60" s="0" t="n">
         <v>1</v>
@@ -5988,13 +5986,13 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B61" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D61" s="0" t="n">
         <v>5</v>
@@ -6003,16 +6001,16 @@
         <v>32</v>
       </c>
       <c r="F61" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="G61" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="H61" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="I61" s="0" t="s">
         <v>113</v>
-      </c>
-      <c r="G61" s="0" t="s">
-        <v>260</v>
-      </c>
-      <c r="H61" s="0" t="s">
-        <v>261</v>
-      </c>
-      <c r="I61" s="0" t="s">
-        <v>114</v>
       </c>
       <c r="J61" s="0" t="n">
         <v>1</v>
@@ -6020,13 +6018,13 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B62" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D62" s="0" t="n">
         <v>5</v>
@@ -6038,13 +6036,13 @@
         <v>42</v>
       </c>
       <c r="G62" s="0" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H62" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="I62" s="0" t="s">
         <v>310</v>
-      </c>
-      <c r="I62" s="0" t="s">
-        <v>311</v>
       </c>
       <c r="J62" s="0" t="n">
         <v>2</v>
@@ -6052,13 +6050,13 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B63" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D63" s="0" t="n">
         <v>5</v>
@@ -6070,13 +6068,13 @@
         <v>39</v>
       </c>
       <c r="G63" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="H63" s="0" t="s">
         <v>271</v>
       </c>
-      <c r="H63" s="0" t="s">
+      <c r="I63" s="0" t="s">
         <v>272</v>
-      </c>
-      <c r="I63" s="0" t="s">
-        <v>273</v>
       </c>
       <c r="J63" s="0" t="n">
         <v>1</v>
@@ -6084,13 +6082,13 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B64" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D64" s="0" t="n">
         <v>5</v>
@@ -6099,16 +6097,16 @@
         <v>32</v>
       </c>
       <c r="F64" s="0" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G64" s="0" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H64" s="0" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I64" s="0" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="J64" s="0" t="n">
         <v>17</v>
@@ -6116,13 +6114,13 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B65" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D65" s="0" t="n">
         <v>5</v>
@@ -6145,13 +6143,13 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B66" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D66" s="0" t="n">
         <v>6</v>
@@ -6160,16 +6158,16 @@
         <v>60</v>
       </c>
       <c r="F66" s="0" t="s">
+        <v>316</v>
+      </c>
+      <c r="G66" s="0" t="s">
         <v>317</v>
       </c>
-      <c r="G66" s="0" t="s">
+      <c r="H66" s="0" t="s">
         <v>318</v>
       </c>
-      <c r="H66" s="0" t="s">
+      <c r="I66" s="0" t="s">
         <v>319</v>
-      </c>
-      <c r="I66" s="0" t="s">
-        <v>320</v>
       </c>
       <c r="J66" s="0" t="n">
         <v>1</v>
@@ -6177,13 +6175,13 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B67" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D67" s="0" t="n">
         <v>6</v>
@@ -6192,16 +6190,16 @@
         <v>60</v>
       </c>
       <c r="F67" s="0" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G67" s="0" t="s">
+        <v>321</v>
+      </c>
+      <c r="H67" s="0" t="s">
         <v>322</v>
       </c>
-      <c r="H67" s="0" t="s">
+      <c r="I67" s="0" t="s">
         <v>323</v>
-      </c>
-      <c r="I67" s="0" t="s">
-        <v>324</v>
       </c>
       <c r="J67" s="0" t="n">
         <v>1</v>
@@ -6209,13 +6207,13 @@
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B68" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D68" s="0" t="n">
         <v>6</v>
@@ -6224,13 +6222,13 @@
         <v>51</v>
       </c>
       <c r="F68" s="0" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G68" s="0" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I68" s="0" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="J68" s="0" t="n">
         <v>1</v>
@@ -6238,28 +6236,28 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B69" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D69" s="0" t="n">
         <v>6</v>
       </c>
       <c r="E69" s="0" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F69" s="0" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G69" s="0" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I69" s="0" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J69" s="0" t="n">
         <v>1</v>
@@ -6267,13 +6265,13 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B70" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D70" s="0" t="n">
         <v>6</v>
@@ -6296,28 +6294,28 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B71" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D71" s="0" t="n">
         <v>6</v>
       </c>
       <c r="E71" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F71" s="0" t="s">
         <v>14</v>
       </c>
       <c r="G71" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="H71" s="0" t="s">
         <v>200</v>
-      </c>
-      <c r="H71" s="0" t="s">
-        <v>201</v>
       </c>
       <c r="I71" s="0" t="s">
         <v>15</v>
@@ -6328,31 +6326,31 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B72" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D72" s="0" t="n">
         <v>6</v>
       </c>
       <c r="E72" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F72" s="0" t="s">
         <v>18</v>
       </c>
       <c r="G72" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="H72" s="0" t="s">
         <v>203</v>
       </c>
-      <c r="H72" s="0" t="s">
+      <c r="I72" s="0" t="s">
         <v>204</v>
-      </c>
-      <c r="I72" s="0" t="s">
-        <v>205</v>
       </c>
       <c r="J72" s="0" t="n">
         <v>10</v>
@@ -6360,31 +6358,31 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B73" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D73" s="0" t="n">
         <v>6</v>
       </c>
       <c r="E73" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F73" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="G73" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="H73" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="I73" s="0" t="s">
         <v>121</v>
-      </c>
-      <c r="G73" s="0" t="s">
-        <v>196</v>
-      </c>
-      <c r="H73" s="0" t="s">
-        <v>209</v>
-      </c>
-      <c r="I73" s="0" t="s">
-        <v>122</v>
       </c>
       <c r="J73" s="0" t="n">
         <v>15</v>
@@ -6392,28 +6390,28 @@
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B74" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D74" s="0" t="n">
         <v>6</v>
       </c>
       <c r="E74" s="0" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F74" s="0" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G74" s="0" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I74" s="0" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J74" s="0" t="n">
         <v>1</v>
@@ -6421,13 +6419,13 @@
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B75" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D75" s="0" t="n">
         <v>6</v>
@@ -6439,13 +6437,13 @@
         <v>83</v>
       </c>
       <c r="G75" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="H75" s="0" t="s">
         <v>333</v>
       </c>
-      <c r="H75" s="0" t="s">
+      <c r="I75" s="0" t="s">
         <v>334</v>
-      </c>
-      <c r="I75" s="0" t="s">
-        <v>335</v>
       </c>
       <c r="J75" s="0" t="n">
         <v>1</v>
@@ -6453,13 +6451,13 @@
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B76" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D76" s="0" t="n">
         <v>6</v>
@@ -6468,13 +6466,13 @@
         <v>51</v>
       </c>
       <c r="F76" s="0" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G76" s="0" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I76" s="0" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="J76" s="0" t="n">
         <v>5</v>
@@ -6482,31 +6480,31 @@
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B77" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D77" s="0" t="n">
         <v>6</v>
       </c>
       <c r="E77" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="F77" s="0" t="s">
         <v>213</v>
       </c>
-      <c r="F77" s="0" t="s">
+      <c r="G77" s="0" t="s">
         <v>214</v>
       </c>
-      <c r="G77" s="0" t="s">
+      <c r="H77" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="I77" s="0" t="s">
         <v>215</v>
-      </c>
-      <c r="H77" s="0" t="s">
-        <v>197</v>
-      </c>
-      <c r="I77" s="0" t="s">
-        <v>216</v>
       </c>
       <c r="J77" s="0" t="n">
         <v>2</v>
@@ -6514,13 +6512,13 @@
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B78" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D78" s="0" t="n">
         <v>6</v>
@@ -6543,28 +6541,28 @@
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B79" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D79" s="0" t="n">
         <v>6</v>
       </c>
       <c r="E79" s="0" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F79" s="0" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G79" s="0" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I79" s="0" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="J79" s="0" t="n">
         <v>1</v>
@@ -6572,13 +6570,13 @@
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B80" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D80" s="0" t="n">
         <v>6</v>
@@ -6590,10 +6588,10 @@
         <v>36</v>
       </c>
       <c r="G80" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="H80" s="0" t="s">
         <v>263</v>
-      </c>
-      <c r="H80" s="0" t="s">
-        <v>264</v>
       </c>
       <c r="I80" s="0" t="s">
         <v>37</v>
@@ -6604,13 +6602,13 @@
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B81" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D81" s="0" t="n">
         <v>6</v>
@@ -6622,13 +6620,13 @@
         <v>42</v>
       </c>
       <c r="G81" s="0" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H81" s="0" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I81" s="0" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="J81" s="0" t="n">
         <v>7</v>
@@ -6636,13 +6634,13 @@
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B82" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D82" s="0" t="n">
         <v>6</v>
@@ -6651,16 +6649,16 @@
         <v>32</v>
       </c>
       <c r="F82" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="G82" s="0" t="s">
         <v>278</v>
       </c>
-      <c r="G82" s="0" t="s">
+      <c r="H82" s="0" t="s">
         <v>279</v>
       </c>
-      <c r="H82" s="0" t="s">
+      <c r="I82" s="0" t="s">
         <v>280</v>
-      </c>
-      <c r="I82" s="0" t="s">
-        <v>281</v>
       </c>
       <c r="J82" s="0" t="n">
         <v>6</v>
@@ -6701,7 +6699,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>1</v>
@@ -6739,10 +6737,10 @@
         <v>32</v>
       </c>
       <c r="F2" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="G2" s="0" t="s">
         <v>116</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>117</v>
       </c>
       <c r="H2" s="0" t="n">
         <v>4</v>
@@ -6762,10 +6760,10 @@
         <v>32</v>
       </c>
       <c r="F3" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="G3" s="0" t="s">
         <v>345</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>346</v>
       </c>
       <c r="H3" s="0" t="n">
         <v>14</v>
@@ -6785,10 +6783,10 @@
         <v>32</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H4" s="0" t="n">
         <v>2</v>
@@ -6796,7 +6794,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>43010</v>
@@ -6819,7 +6817,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>43010</v>
@@ -6834,7 +6832,7 @@
         <v>42</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H6" s="0" t="n">
         <v>3</v>
@@ -6851,7 +6849,7 @@
         <v>9</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F7" s="0" t="s">
         <v>18</v>
@@ -6874,7 +6872,7 @@
         <v>9</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F8" s="0" t="s">
         <v>18</v>
@@ -6897,13 +6895,13 @@
         <v>9</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F9" s="0" t="s">
         <v>18</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H9" s="0" t="n">
         <v>50</v>
@@ -6911,7 +6909,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>43010</v>
@@ -6920,13 +6918,13 @@
         <v>9</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F10" s="0" t="s">
         <v>18</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H10" s="0" t="n">
         <v>24</v>
@@ -6934,7 +6932,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>43010</v>
@@ -6946,7 +6944,7 @@
         <v>32</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G11" s="0" t="s">
         <v>34</v>
@@ -6957,7 +6955,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>43010</v>
@@ -6969,10 +6967,10 @@
         <v>32</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H12" s="0" t="n">
         <v>2</v>
@@ -6980,7 +6978,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>43010</v>
@@ -6995,7 +6993,7 @@
         <v>83</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H13" s="0" t="n">
         <v>1</v>
@@ -7035,7 +7033,7 @@
         <v>9</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F15" s="0" t="s">
         <v>14</v>
@@ -7049,7 +7047,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B16" s="1" t="n">
         <v>43010</v>
@@ -7064,7 +7062,7 @@
         <v>83</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H16" s="0" t="n">
         <v>9</v>
@@ -7087,7 +7085,7 @@
         <v>83</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H17" s="0" t="n">
         <v>3</v>
@@ -7107,10 +7105,10 @@
         <v>32</v>
       </c>
       <c r="F18" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="G18" s="0" t="s">
         <v>345</v>
-      </c>
-      <c r="G18" s="0" t="s">
-        <v>346</v>
       </c>
       <c r="H18" s="0" t="n">
         <v>24</v>
@@ -7130,10 +7128,10 @@
         <v>32</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H19" s="0" t="n">
         <v>12</v>
@@ -7164,7 +7162,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B21" s="1" t="n">
         <v>43010</v>
@@ -7176,7 +7174,7 @@
         <v>32</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G21" s="0" t="s">
         <v>37</v>
@@ -7219,13 +7217,13 @@
         <v>9</v>
       </c>
       <c r="E23" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="F23" s="0" t="s">
         <v>213</v>
       </c>
-      <c r="F23" s="0" t="s">
-        <v>214</v>
-      </c>
       <c r="G23" s="0" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H23" s="0" t="n">
         <v>1</v>
@@ -7242,7 +7240,7 @@
         <v>9</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F24" s="0" t="s">
         <v>18</v>
@@ -7265,7 +7263,7 @@
         <v>9</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F25" s="0" t="s">
         <v>18</v>
@@ -7288,7 +7286,7 @@
         <v>9</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F26" s="0" t="s">
         <v>18</v>
@@ -7311,7 +7309,7 @@
         <v>9</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F27" s="0" t="s">
         <v>18</v>
@@ -7340,7 +7338,7 @@
         <v>83</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H28" s="0" t="n">
         <v>14</v>
@@ -7386,7 +7384,7 @@
         <v>83</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H30" s="0" t="n">
         <v>1</v>
@@ -7426,7 +7424,7 @@
         <v>9</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F32" s="0" t="s">
         <v>18</v>
@@ -7452,10 +7450,10 @@
         <v>32</v>
       </c>
       <c r="F33" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="G33" s="0" t="s">
         <v>345</v>
-      </c>
-      <c r="G33" s="0" t="s">
-        <v>346</v>
       </c>
       <c r="H33" s="0" t="n">
         <v>2</v>
@@ -7472,13 +7470,13 @@
         <v>9</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H34" s="0" t="n">
         <v>2</v>
@@ -7495,7 +7493,7 @@
         <v>9</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F35" s="0" t="s">
         <v>14</v>
@@ -7509,7 +7507,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B36" s="1" t="n">
         <v>43010</v>
@@ -7521,10 +7519,10 @@
         <v>51</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H36" s="0" t="n">
         <v>1</v>
@@ -7532,7 +7530,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B37" s="1" t="n">
         <v>43010</v>
@@ -7544,10 +7542,10 @@
         <v>10</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H37" s="0" t="n">
         <v>1</v>
@@ -7555,7 +7553,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B38" s="1" t="n">
         <v>43010</v>
@@ -7567,10 +7565,10 @@
         <v>32</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H38" s="0" t="n">
         <v>6</v>
@@ -7578,7 +7576,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B39" s="1" t="n">
         <v>43010</v>
@@ -7587,7 +7585,7 @@
         <v>9</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F39" s="0" t="s">
         <v>18</v>
@@ -7601,7 +7599,7 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B40" s="1" t="n">
         <v>43010</v>
@@ -7624,7 +7622,7 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B41" s="1" t="n">
         <v>43010</v>
@@ -7659,10 +7657,10 @@
         <v>51</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H42" s="0" t="n">
         <v>1</v>
@@ -7685,7 +7683,7 @@
         <v>42</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H43" s="0" t="n">
         <v>1</v>
@@ -7705,10 +7703,10 @@
         <v>32</v>
       </c>
       <c r="F44" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="G44" s="0" t="s">
         <v>345</v>
-      </c>
-      <c r="G44" s="0" t="s">
-        <v>346</v>
       </c>
       <c r="H44" s="0" t="n">
         <v>5</v>
@@ -7728,10 +7726,10 @@
         <v>32</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H45" s="0" t="n">
         <v>3</v>
@@ -7771,13 +7769,13 @@
         <v>9</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H47" s="0" t="n">
         <v>5</v>
@@ -7785,7 +7783,7 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B48" s="1" t="n">
         <v>43010</v>
@@ -7794,7 +7792,7 @@
         <v>9</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F48" s="0" t="s">
         <v>18</v>
@@ -7808,7 +7806,7 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B49" s="1" t="n">
         <v>43010</v>
@@ -7817,13 +7815,13 @@
         <v>9</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F49" s="0" t="s">
         <v>18</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H49" s="0" t="n">
         <v>4</v>
@@ -7831,7 +7829,7 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B50" s="1" t="n">
         <v>43010</v>
@@ -7854,7 +7852,7 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B51" s="1" t="n">
         <v>43010</v>
@@ -7866,10 +7864,10 @@
         <v>32</v>
       </c>
       <c r="F51" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="G51" s="0" t="s">
         <v>345</v>
-      </c>
-      <c r="G51" s="0" t="s">
-        <v>346</v>
       </c>
       <c r="H51" s="0" t="n">
         <v>2</v>
@@ -7877,7 +7875,7 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B52" s="1" t="n">
         <v>43010</v>
@@ -7900,7 +7898,7 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B53" s="1" t="n">
         <v>43010</v>
@@ -7923,7 +7921,7 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B54" s="1" t="n">
         <v>43010</v>
@@ -7935,10 +7933,10 @@
         <v>82</v>
       </c>
       <c r="F54" s="0" t="s">
+        <v>373</v>
+      </c>
+      <c r="G54" s="0" t="s">
         <v>374</v>
-      </c>
-      <c r="G54" s="0" t="s">
-        <v>375</v>
       </c>
       <c r="H54" s="0" t="n">
         <v>1</v>
@@ -7946,7 +7944,7 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B55" s="1" t="n">
         <v>43010</v>
@@ -7955,13 +7953,13 @@
         <v>9</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F55" s="0" t="s">
         <v>18</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H55" s="0" t="n">
         <v>17</v>
@@ -7969,7 +7967,7 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B56" s="1" t="n">
         <v>43010</v>
@@ -7978,7 +7976,7 @@
         <v>9</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F56" s="0" t="s">
         <v>18</v>
@@ -8025,7 +8023,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>1</v>
@@ -8051,13 +8049,13 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>43012</v>
+      </c>
+      <c r="C2" s="0" t="s">
         <v>97</v>
-      </c>
-      <c r="B2" s="1" t="n">
-        <v>43012</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>98</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>1</v>
@@ -8077,13 +8075,13 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>43012</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>1</v>
@@ -8103,13 +8101,13 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>43012</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>1</v>
@@ -8129,19 +8127,19 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>43012</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F5" s="0" t="s">
         <v>18</v>
@@ -8155,13 +8153,13 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>43012</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>1</v>
@@ -8170,10 +8168,10 @@
         <v>10</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H6" s="0" t="n">
         <v>1</v>
@@ -8181,13 +8179,13 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>43012</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>1</v>
@@ -8199,7 +8197,7 @@
         <v>33</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H7" s="0" t="n">
         <v>1</v>
@@ -8207,13 +8205,13 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>43012</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>1</v>
@@ -8222,10 +8220,10 @@
         <v>32</v>
       </c>
       <c r="F8" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="G8" s="0" t="s">
         <v>116</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>117</v>
       </c>
       <c r="H8" s="0" t="n">
         <v>2</v>
@@ -8233,13 +8231,13 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>43012</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>1</v>
@@ -8248,10 +8246,10 @@
         <v>32</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H9" s="0" t="n">
         <v>1</v>
@@ -8259,13 +8257,13 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>43012</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>1</v>
@@ -8277,7 +8275,7 @@
         <v>83</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H10" s="0" t="n">
         <v>1</v>
@@ -8285,13 +8283,13 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>43012</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>1</v>
@@ -8303,7 +8301,7 @@
         <v>42</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H11" s="0" t="n">
         <v>2</v>
@@ -8311,13 +8309,13 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>43012</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>2</v>
@@ -8337,13 +8335,13 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>43012</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>2</v>
@@ -8355,7 +8353,7 @@
         <v>33</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H13" s="0" t="n">
         <v>1</v>
@@ -8363,13 +8361,13 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>43012</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>2</v>
@@ -8389,25 +8387,25 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B15" s="1" t="n">
         <v>43012</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F15" s="0" t="s">
+        <v>382</v>
+      </c>
+      <c r="G15" s="0" t="s">
         <v>383</v>
-      </c>
-      <c r="G15" s="0" t="s">
-        <v>384</v>
       </c>
       <c r="H15" s="0" t="n">
         <v>1</v>
@@ -8415,19 +8413,19 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B16" s="1" t="n">
         <v>43012</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F16" s="0" t="s">
         <v>18</v>
@@ -8441,25 +8439,25 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B17" s="1" t="n">
         <v>43012</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>3</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H17" s="0" t="n">
         <v>27</v>
@@ -8467,19 +8465,19 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B18" s="1" t="n">
         <v>43012</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>3</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F18" s="0" t="s">
         <v>18</v>
@@ -8493,13 +8491,13 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B19" s="1" t="n">
         <v>43012</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D19" s="0" t="n">
         <v>3</v>
@@ -8519,25 +8517,25 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B20" s="1" t="n">
         <v>43012</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D20" s="0" t="n">
         <v>3</v>
       </c>
       <c r="E20" s="0" t="s">
+        <v>387</v>
+      </c>
+      <c r="F20" s="0" t="s">
         <v>388</v>
       </c>
-      <c r="F20" s="0" t="s">
-        <v>389</v>
-      </c>
       <c r="G20" s="0" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H20" s="0" t="n">
         <v>1</v>
@@ -8545,13 +8543,13 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B21" s="1" t="n">
         <v>43012</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>3</v>
@@ -8560,10 +8558,10 @@
         <v>32</v>
       </c>
       <c r="F21" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="G21" s="0" t="s">
         <v>116</v>
-      </c>
-      <c r="G21" s="0" t="s">
-        <v>117</v>
       </c>
       <c r="H21" s="0" t="n">
         <v>1</v>
@@ -8571,13 +8569,13 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B22" s="1" t="n">
         <v>43012</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D22" s="0" t="n">
         <v>4</v>
@@ -8586,7 +8584,7 @@
         <v>32</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G22" s="0" t="s">
         <v>37</v>
@@ -8597,13 +8595,13 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B23" s="1" t="n">
         <v>43012</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D23" s="0" t="n">
         <v>4</v>
@@ -8612,10 +8610,10 @@
         <v>32</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H23" s="0" t="n">
         <v>15</v>
@@ -8623,13 +8621,13 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B24" s="1" t="n">
         <v>43012</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D24" s="0" t="n">
         <v>4</v>
@@ -8641,7 +8639,7 @@
         <v>33</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H24" s="0" t="n">
         <v>1</v>
@@ -8649,13 +8647,13 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B25" s="1" t="n">
         <v>43012</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D25" s="0" t="n">
         <v>4</v>
@@ -8675,25 +8673,25 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B26" s="1" t="n">
         <v>43012</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D26" s="0" t="n">
         <v>4</v>
       </c>
       <c r="E26" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="F26" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="F26" s="0" t="s">
-        <v>101</v>
-      </c>
       <c r="G26" s="0" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H26" s="0" t="n">
         <v>6</v>
@@ -8701,13 +8699,13 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B27" s="1" t="n">
         <v>43012</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D27" s="0" t="n">
         <v>4</v>
@@ -8719,7 +8717,7 @@
         <v>83</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H27" s="0" t="n">
         <v>1</v>
@@ -8727,13 +8725,13 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B28" s="1" t="n">
         <v>43012</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D28" s="0" t="n">
         <v>4</v>
@@ -8742,10 +8740,10 @@
         <v>32</v>
       </c>
       <c r="F28" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="G28" s="0" t="s">
         <v>116</v>
-      </c>
-      <c r="G28" s="0" t="s">
-        <v>117</v>
       </c>
       <c r="H28" s="0" t="n">
         <v>7</v>
@@ -8753,25 +8751,25 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B29" s="1" t="n">
         <v>43012</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D29" s="0" t="n">
         <v>4</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H29" s="0" t="n">
         <v>52</v>
@@ -8779,19 +8777,19 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B30" s="1" t="n">
         <v>43012</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D30" s="0" t="n">
         <v>4</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F30" s="0" t="s">
         <v>18</v>
@@ -8805,13 +8803,13 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B31" s="1" t="n">
         <v>43012</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D31" s="0" t="n">
         <v>4</v>
@@ -8820,10 +8818,10 @@
         <v>32</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H31" s="0" t="n">
         <v>23</v>
@@ -8831,13 +8829,13 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B32" s="1" t="n">
         <v>43012</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D32" s="0" t="n">
         <v>4</v>
@@ -8849,7 +8847,7 @@
         <v>42</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H32" s="0" t="n">
         <v>3</v>
@@ -8857,13 +8855,13 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B33" s="1" t="n">
         <v>43012</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D33" s="0" t="n">
         <v>4</v>
@@ -8872,10 +8870,10 @@
         <v>32</v>
       </c>
       <c r="F33" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="G33" s="0" t="s">
         <v>113</v>
-      </c>
-      <c r="G33" s="0" t="s">
-        <v>114</v>
       </c>
       <c r="H33" s="0" t="n">
         <v>3</v>
@@ -8883,13 +8881,13 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B34" s="1" t="n">
         <v>43012</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D34" s="0" t="n">
         <v>4</v>
@@ -8909,25 +8907,25 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B35" s="1" t="n">
         <v>43012</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D35" s="0" t="n">
         <v>4</v>
       </c>
       <c r="E35" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="F35" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="F35" s="0" t="s">
-        <v>101</v>
-      </c>
       <c r="G35" s="0" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H35" s="0" t="n">
         <v>4</v>
@@ -8935,19 +8933,19 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B36" s="1" t="n">
         <v>43012</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D36" s="0" t="n">
         <v>4</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F36" s="0" t="s">
         <v>18</v>
@@ -8961,13 +8959,13 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B37" s="1" t="n">
         <v>43012</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D37" s="0" t="n">
         <v>4</v>
@@ -8987,13 +8985,13 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B38" s="1" t="n">
         <v>43012</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D38" s="0" t="n">
         <v>4</v>
@@ -9005,7 +9003,7 @@
         <v>42</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H38" s="0" t="n">
         <v>1</v>
@@ -9013,13 +9011,13 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B39" s="1" t="n">
         <v>43012</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D39" s="0" t="n">
         <v>4</v>
@@ -9028,10 +9026,10 @@
         <v>32</v>
       </c>
       <c r="F39" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="G39" s="0" t="s">
         <v>116</v>
-      </c>
-      <c r="G39" s="0" t="s">
-        <v>117</v>
       </c>
       <c r="H39" s="0" t="n">
         <v>17</v>
@@ -9039,13 +9037,13 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B40" s="1" t="n">
         <v>43012</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D40" s="0" t="n">
         <v>5</v>
@@ -9054,10 +9052,10 @@
         <v>32</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H40" s="0" t="n">
         <v>4</v>
@@ -9065,13 +9063,13 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B41" s="1" t="n">
         <v>43012</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D41" s="0" t="n">
         <v>5</v>
@@ -9080,10 +9078,10 @@
         <v>32</v>
       </c>
       <c r="F41" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="G41" s="0" t="s">
         <v>116</v>
-      </c>
-      <c r="G41" s="0" t="s">
-        <v>117</v>
       </c>
       <c r="H41" s="0" t="n">
         <v>2</v>
@@ -9091,25 +9089,25 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B42" s="1" t="n">
         <v>43012</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D42" s="0" t="n">
         <v>5</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H42" s="0" t="n">
         <v>49</v>
@@ -9117,13 +9115,13 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B43" s="1" t="n">
         <v>43012</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D43" s="0" t="n">
         <v>5</v>
@@ -9143,19 +9141,19 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B44" s="1" t="n">
         <v>43012</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D44" s="0" t="n">
         <v>5</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F44" s="0" t="s">
         <v>18</v>
@@ -9169,13 +9167,13 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B45" s="1" t="n">
         <v>43012</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D45" s="0" t="n">
         <v>5</v>
@@ -9195,13 +9193,13 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B46" s="1" t="n">
         <v>43012</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D46" s="0" t="n">
         <v>6</v>
@@ -9210,10 +9208,10 @@
         <v>32</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H46" s="0" t="n">
         <v>5</v>
@@ -9221,13 +9219,13 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B47" s="1" t="n">
         <v>43012</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D47" s="0" t="n">
         <v>6</v>
@@ -9236,10 +9234,10 @@
         <v>32</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H47" s="0" t="n">
         <v>5</v>
@@ -9247,19 +9245,19 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B48" s="1" t="n">
         <v>43012</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D48" s="0" t="n">
         <v>6</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F48" s="0" t="s">
         <v>18</v>
@@ -9273,13 +9271,13 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B49" s="1" t="n">
         <v>43012</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D49" s="0" t="n">
         <v>6</v>
@@ -9299,25 +9297,25 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B50" s="1" t="n">
         <v>43012</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D50" s="0" t="n">
         <v>6</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H50" s="0" t="n">
         <v>48</v>
@@ -9325,19 +9323,19 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B51" s="1" t="n">
         <v>43012</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D51" s="0" t="n">
         <v>6</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F51" s="0" t="s">
         <v>18</v>
@@ -9351,19 +9349,19 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B52" s="1" t="n">
         <v>43012</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D52" s="0" t="n">
         <v>6</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F52" s="0" t="s">
         <v>18</v>
@@ -9377,13 +9375,13 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B53" s="1" t="n">
         <v>43012</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D53" s="0" t="n">
         <v>6</v>
@@ -9392,7 +9390,7 @@
         <v>32</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G53" s="0" t="s">
         <v>54</v>
@@ -9403,13 +9401,13 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B54" s="1" t="n">
         <v>43012</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D54" s="0" t="n">
         <v>6</v>
@@ -9418,10 +9416,10 @@
         <v>32</v>
       </c>
       <c r="F54" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="G54" s="0" t="s">
         <v>116</v>
-      </c>
-      <c r="G54" s="0" t="s">
-        <v>117</v>
       </c>
       <c r="H54" s="0" t="n">
         <v>6</v>
@@ -9429,13 +9427,13 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B55" s="1" t="n">
         <v>43012</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D55" s="0" t="n">
         <v>6</v>
@@ -9444,10 +9442,10 @@
         <v>32</v>
       </c>
       <c r="F55" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="G55" s="0" t="s">
         <v>113</v>
-      </c>
-      <c r="G55" s="0" t="s">
-        <v>114</v>
       </c>
       <c r="H55" s="0" t="n">
         <v>3</v>
@@ -9455,13 +9453,13 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B56" s="1" t="n">
         <v>43012</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D56" s="0" t="n">
         <v>6</v>
@@ -9481,13 +9479,13 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B57" s="1" t="n">
         <v>43012</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D57" s="0" t="n">
         <v>6</v>
@@ -9496,10 +9494,10 @@
         <v>32</v>
       </c>
       <c r="F57" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="G57" s="0" t="s">
         <v>116</v>
-      </c>
-      <c r="G57" s="0" t="s">
-        <v>117</v>
       </c>
       <c r="H57" s="0" t="n">
         <v>18</v>
@@ -9507,13 +9505,13 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B58" s="1" t="n">
         <v>43012</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D58" s="0" t="n">
         <v>6</v>
@@ -9522,10 +9520,10 @@
         <v>32</v>
       </c>
       <c r="F58" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="G58" s="0" t="s">
         <v>116</v>
-      </c>
-      <c r="G58" s="0" t="s">
-        <v>117</v>
       </c>
       <c r="H58" s="0" t="n">
         <v>20</v>
@@ -9533,13 +9531,13 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B59" s="1" t="n">
         <v>43012</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D59" s="0" t="n">
         <v>6</v>
@@ -9548,10 +9546,10 @@
         <v>32</v>
       </c>
       <c r="F59" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="G59" s="0" t="s">
         <v>116</v>
-      </c>
-      <c r="G59" s="0" t="s">
-        <v>117</v>
       </c>
       <c r="H59" s="0" t="n">
         <v>23</v>
@@ -9559,13 +9557,13 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B60" s="1" t="n">
         <v>43012</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D60" s="0" t="n">
         <v>6</v>
@@ -9574,10 +9572,10 @@
         <v>32</v>
       </c>
       <c r="F60" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="G60" s="0" t="s">
         <v>116</v>
-      </c>
-      <c r="G60" s="0" t="s">
-        <v>117</v>
       </c>
       <c r="H60" s="0" t="n">
         <v>32</v>
@@ -9585,13 +9583,13 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B61" s="1" t="n">
         <v>43012</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D61" s="0" t="n">
         <v>6</v>
@@ -9600,10 +9598,10 @@
         <v>32</v>
       </c>
       <c r="F61" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="G61" s="0" t="s">
         <v>116</v>
-      </c>
-      <c r="G61" s="0" t="s">
-        <v>117</v>
       </c>
       <c r="H61" s="0" t="n">
         <v>26</v>
@@ -9611,19 +9609,19 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B62" s="1" t="n">
         <v>43012</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D62" s="0" t="n">
         <v>6</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F62" s="0" t="s">
         <v>18</v>
@@ -9653,7 +9651,7 @@
   </sheetPr>
   <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I7" activeCellId="0" sqref="I7"/>
     </sheetView>
   </sheetViews>
@@ -9671,7 +9669,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>1</v>
@@ -9680,7 +9678,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E1" s="0" t="s">
         <v>4</v>
@@ -9697,13 +9695,13 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B2" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>1</v>
@@ -9723,25 +9721,25 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B3" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H3" s="0" t="n">
         <v>7</v>
@@ -9749,13 +9747,13 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B4" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>1</v>
@@ -9775,25 +9773,25 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B5" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E5" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="F5" s="0" t="s">
         <v>213</v>
       </c>
-      <c r="F5" s="0" t="s">
-        <v>214</v>
-      </c>
       <c r="G5" s="0" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H5" s="0" t="n">
         <v>2</v>
@@ -9801,13 +9799,13 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B6" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>1</v>
@@ -9827,25 +9825,25 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B7" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H7" s="0" t="n">
         <v>1</v>
@@ -9853,13 +9851,13 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B8" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>1</v>
@@ -9879,13 +9877,13 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B9" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>1</v>
@@ -9894,7 +9892,7 @@
         <v>32</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G9" s="0" t="s">
         <v>54</v>
@@ -9905,13 +9903,13 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B10" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>1</v>
@@ -9931,25 +9929,25 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B11" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H11" s="0" t="n">
         <v>1</v>
@@ -9957,19 +9955,19 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B12" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F12" s="0" t="s">
         <v>18</v>
@@ -9983,13 +9981,13 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B13" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>1</v>
@@ -10009,25 +10007,25 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
+        <v>422</v>
+      </c>
+      <c r="B14" s="4" t="n">
+        <v>43012</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="0" t="s">
         <v>423</v>
       </c>
-      <c r="B14" s="4" t="n">
-        <v>43012</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>182</v>
-      </c>
-      <c r="D14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" s="0" t="s">
+      <c r="G14" s="0" t="s">
         <v>424</v>
-      </c>
-      <c r="G14" s="0" t="s">
-        <v>425</v>
       </c>
       <c r="H14" s="0" t="n">
         <v>1</v>
@@ -10035,13 +10033,13 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B15" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>2</v>
@@ -10061,13 +10059,13 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B16" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>2</v>
@@ -10087,13 +10085,13 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B17" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>2</v>
@@ -10102,10 +10100,10 @@
         <v>32</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H17" s="0" t="n">
         <v>1</v>
@@ -10113,19 +10111,19 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B18" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F18" s="0" t="s">
         <v>18</v>
@@ -10139,13 +10137,13 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B19" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D19" s="0" t="n">
         <v>2</v>
@@ -10154,10 +10152,10 @@
         <v>32</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H19" s="0" t="n">
         <v>1</v>
@@ -10165,13 +10163,13 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B20" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D20" s="0" t="n">
         <v>2</v>
@@ -10183,7 +10181,7 @@
         <v>42</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H20" s="0" t="n">
         <v>2</v>
@@ -10191,13 +10189,13 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B21" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>2</v>
@@ -10206,10 +10204,10 @@
         <v>32</v>
       </c>
       <c r="F21" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="G21" s="0" t="s">
         <v>345</v>
-      </c>
-      <c r="G21" s="0" t="s">
-        <v>346</v>
       </c>
       <c r="H21" s="0" t="n">
         <v>1</v>
@@ -10217,13 +10215,13 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B22" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D22" s="0" t="n">
         <v>2</v>
@@ -10235,7 +10233,7 @@
         <v>42</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H22" s="0" t="n">
         <v>1</v>
@@ -10243,25 +10241,25 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B23" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D23" s="0" t="n">
         <v>3</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H23" s="0" t="n">
         <v>39</v>
@@ -10269,13 +10267,13 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B24" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D24" s="0" t="n">
         <v>3</v>
@@ -10295,25 +10293,25 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B25" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D25" s="0" t="n">
         <v>3</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H25" s="0" t="n">
         <v>1</v>
@@ -10321,13 +10319,13 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B26" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D26" s="0" t="n">
         <v>3</v>
@@ -10347,13 +10345,13 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B27" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D27" s="0" t="n">
         <v>3</v>
@@ -10362,10 +10360,10 @@
         <v>32</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H27" s="0" t="n">
         <v>2</v>
@@ -10373,25 +10371,25 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B28" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D28" s="0" t="n">
         <v>3</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F28" s="0" t="s">
         <v>18</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H28" s="0" t="n">
         <v>6</v>
@@ -10399,13 +10397,13 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B29" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D29" s="0" t="n">
         <v>4</v>
@@ -10414,10 +10412,10 @@
         <v>32</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H29" s="0" t="n">
         <v>1</v>
@@ -10425,13 +10423,13 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B30" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D30" s="0" t="n">
         <v>4</v>
@@ -10443,7 +10441,7 @@
         <v>39</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H30" s="0" t="n">
         <v>9</v>
@@ -10451,13 +10449,13 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B31" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D31" s="0" t="n">
         <v>4</v>
@@ -10469,7 +10467,7 @@
         <v>33</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H31" s="0" t="n">
         <v>5</v>
@@ -10477,25 +10475,25 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B32" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D32" s="0" t="n">
         <v>4</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F32" s="0" t="s">
         <v>18</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H32" s="0" t="n">
         <v>1</v>
@@ -10503,25 +10501,25 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B33" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D33" s="0" t="n">
         <v>4</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H33" s="0" t="n">
         <v>5</v>
@@ -10529,25 +10527,25 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B34" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D34" s="0" t="n">
         <v>4</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F34" s="0" t="s">
+        <v>429</v>
+      </c>
+      <c r="G34" s="0" t="s">
         <v>430</v>
-      </c>
-      <c r="G34" s="0" t="s">
-        <v>431</v>
       </c>
       <c r="H34" s="0" t="n">
         <v>1</v>
@@ -10555,13 +10553,13 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B35" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D35" s="0" t="n">
         <v>4</v>
@@ -10570,7 +10568,7 @@
         <v>32</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G35" s="0" t="s">
         <v>54</v>
@@ -10581,13 +10579,13 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B36" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D36" s="0" t="n">
         <v>4</v>
@@ -10596,10 +10594,10 @@
         <v>82</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H36" s="0" t="n">
         <v>3</v>
@@ -10607,13 +10605,13 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B37" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D37" s="0" t="n">
         <v>4</v>
@@ -10622,10 +10620,10 @@
         <v>82</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H37" s="0" t="n">
         <v>2</v>
@@ -10633,13 +10631,13 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B38" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D38" s="0" t="n">
         <v>5</v>
@@ -10659,25 +10657,25 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B39" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D39" s="0" t="n">
         <v>5</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H39" s="0" t="n">
         <v>2</v>
@@ -10685,13 +10683,13 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B40" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D40" s="0" t="n">
         <v>5</v>
@@ -10703,7 +10701,7 @@
         <v>47</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H40" s="0" t="n">
         <v>1</v>
@@ -10711,13 +10709,13 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B41" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D41" s="0" t="n">
         <v>5</v>
@@ -10729,7 +10727,7 @@
         <v>42</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H41" s="0" t="n">
         <v>1</v>
@@ -10737,13 +10735,13 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B42" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D42" s="0" t="n">
         <v>5</v>
@@ -10752,10 +10750,10 @@
         <v>32</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H42" s="0" t="n">
         <v>1</v>
@@ -10763,13 +10761,13 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B43" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D43" s="0" t="n">
         <v>5</v>
@@ -10778,7 +10776,7 @@
         <v>32</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G43" s="0" t="s">
         <v>37</v>
@@ -10789,13 +10787,13 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B44" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D44" s="0" t="n">
         <v>5</v>
@@ -10815,25 +10813,25 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B45" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D45" s="0" t="n">
         <v>5</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H45" s="0" t="n">
         <v>1</v>
@@ -10841,19 +10839,19 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B46" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D46" s="0" t="n">
         <v>5</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F46" s="0" t="s">
         <v>14</v>
@@ -10867,13 +10865,13 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B47" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D47" s="0" t="n">
         <v>5</v>
@@ -10882,10 +10880,10 @@
         <v>32</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H47" s="0" t="n">
         <v>3</v>
@@ -10893,13 +10891,13 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B48" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D48" s="0" t="n">
         <v>5</v>
@@ -10911,7 +10909,7 @@
         <v>42</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H48" s="0" t="n">
         <v>1</v>
@@ -10919,13 +10917,13 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B49" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D49" s="0" t="n">
         <v>6</v>
@@ -10934,10 +10932,10 @@
         <v>82</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H49" s="0" t="n">
         <v>1</v>
@@ -10945,13 +10943,13 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B50" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D50" s="0" t="n">
         <v>6</v>
@@ -10963,7 +10961,7 @@
         <v>47</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H50" s="0" t="n">
         <v>1</v>
@@ -10971,13 +10969,13 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B51" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D51" s="0" t="n">
         <v>6</v>
@@ -10986,7 +10984,7 @@
         <v>32</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G51" s="0" t="s">
         <v>54</v>
@@ -10997,13 +10995,13 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B52" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D52" s="0" t="n">
         <v>6</v>
@@ -11012,10 +11010,10 @@
         <v>32</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H52" s="0" t="n">
         <v>1</v>
@@ -11023,13 +11021,13 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B53" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D53" s="0" t="n">
         <v>6</v>
@@ -11038,10 +11036,10 @@
         <v>32</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H53" s="0" t="n">
         <v>1</v>
@@ -11049,13 +11047,13 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B54" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D54" s="0" t="n">
         <v>6</v>
@@ -11064,10 +11062,10 @@
         <v>32</v>
       </c>
       <c r="F54" s="0" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H54" s="0" t="n">
         <v>1</v>
@@ -11075,13 +11073,13 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B55" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D55" s="0" t="n">
         <v>6</v>
@@ -11101,25 +11099,25 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B56" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D56" s="0" t="n">
         <v>6</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G56" s="0" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H56" s="0" t="n">
         <v>67</v>
@@ -11127,13 +11125,13 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B57" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D57" s="0" t="n">
         <v>6</v>
@@ -11142,10 +11140,10 @@
         <v>32</v>
       </c>
       <c r="F57" s="0" t="s">
+        <v>423</v>
+      </c>
+      <c r="G57" s="0" t="s">
         <v>424</v>
-      </c>
-      <c r="G57" s="0" t="s">
-        <v>425</v>
       </c>
       <c r="H57" s="0" t="n">
         <v>1</v>
@@ -11153,13 +11151,13 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B58" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D58" s="0" t="n">
         <v>6</v>
@@ -11179,25 +11177,25 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B59" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D59" s="0" t="n">
         <v>6</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F59" s="0" t="s">
         <v>18</v>
       </c>
       <c r="G59" s="0" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H59" s="0" t="n">
         <v>25</v>
@@ -11205,13 +11203,13 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B60" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D60" s="0" t="n">
         <v>6</v>
@@ -11231,13 +11229,13 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B61" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D61" s="0" t="n">
         <v>6</v>
@@ -11246,10 +11244,10 @@
         <v>32</v>
       </c>
       <c r="F61" s="0" t="s">
+        <v>423</v>
+      </c>
+      <c r="G61" s="0" t="s">
         <v>424</v>
-      </c>
-      <c r="G61" s="0" t="s">
-        <v>425</v>
       </c>
       <c r="H61" s="0" t="n">
         <v>1</v>
@@ -11257,25 +11255,25 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B62" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D62" s="0" t="n">
         <v>6</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F62" s="0" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G62" s="0" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H62" s="0" t="n">
         <v>2</v>

--- a/data/microscopy/microscopy.xlsx
+++ b/data/microscopy/microscopy.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="GW-May" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1957" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1818" uniqueCount="390">
   <si>
     <t xml:space="preserve">TUBE ID</t>
   </si>
@@ -561,24 +561,12 @@
     <t xml:space="preserve">WB618</t>
   </si>
   <si>
-    <t xml:space="preserve">GENUS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPECIES</t>
-  </si>
-  <si>
     <t xml:space="preserve">RB101</t>
   </si>
   <si>
     <t xml:space="preserve">RB</t>
   </si>
   <si>
-    <t xml:space="preserve">Caenis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">robusta</t>
-  </si>
-  <si>
     <t xml:space="preserve">RB102</t>
   </si>
   <si>
@@ -591,12 +579,6 @@
     <t xml:space="preserve">Unionidae</t>
   </si>
   <si>
-    <t xml:space="preserve">Unio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pictorum</t>
-  </si>
-  <si>
     <t xml:space="preserve">Unio_pictorum</t>
   </si>
   <si>
@@ -612,33 +594,15 @@
     <t xml:space="preserve">RB108</t>
   </si>
   <si>
-    <t xml:space="preserve">Corophium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Corophium_sp.</t>
   </si>
   <si>
     <t xml:space="preserve">RB109</t>
   </si>
   <si>
-    <t xml:space="preserve">Asellus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aquaticus</t>
-  </si>
-  <si>
     <t xml:space="preserve">RB110</t>
   </si>
   <si>
-    <t xml:space="preserve">Gammarus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zaddachi</t>
-  </si>
-  <si>
     <t xml:space="preserve">Gammarus_zaddachi</t>
   </si>
   <si>
@@ -648,12 +612,6 @@
     <t xml:space="preserve">RB112</t>
   </si>
   <si>
-    <t xml:space="preserve">Chelicorphium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">curvispinum</t>
-  </si>
-  <si>
     <t xml:space="preserve">Chelicorphium_curvispinum</t>
   </si>
   <si>
@@ -669,9 +627,6 @@
     <t xml:space="preserve">Limnesiidae</t>
   </si>
   <si>
-    <t xml:space="preserve">Limnesia</t>
-  </si>
-  <si>
     <t xml:space="preserve">Limnesia_sp.</t>
   </si>
   <si>
@@ -690,33 +645,18 @@
     <t xml:space="preserve">RB207</t>
   </si>
   <si>
-    <t xml:space="preserve">Oecetis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lacustris</t>
-  </si>
-  <si>
     <t xml:space="preserve">Oecetis_lacustris</t>
   </si>
   <si>
     <t xml:space="preserve">RB208</t>
   </si>
   <si>
-    <t xml:space="preserve">Pisidium</t>
-  </si>
-  <si>
     <t xml:space="preserve">RB209</t>
   </si>
   <si>
     <t xml:space="preserve">RB210</t>
   </si>
   <si>
-    <t xml:space="preserve">Valvata</t>
-  </si>
-  <si>
-    <t xml:space="preserve">piscinalis</t>
-  </si>
-  <si>
     <t xml:space="preserve">RB301</t>
   </si>
   <si>
@@ -726,12 +666,6 @@
     <t xml:space="preserve">Ecnomidae</t>
   </si>
   <si>
-    <t xml:space="preserve">Ecnomus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tenellus</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ecnomus_tenellus</t>
   </si>
   <si>
@@ -765,12 +699,6 @@
     <t xml:space="preserve">RB311</t>
   </si>
   <si>
-    <t xml:space="preserve">Ceraclea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">senilis</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ceraclea_senilis</t>
   </si>
   <si>
@@ -783,42 +711,18 @@
     <t xml:space="preserve">RB314</t>
   </si>
   <si>
-    <t xml:space="preserve">Dreissena</t>
-  </si>
-  <si>
-    <t xml:space="preserve">polymorpha</t>
-  </si>
-  <si>
     <t xml:space="preserve">RB315</t>
   </si>
   <si>
-    <t xml:space="preserve">Lymnea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stagnalis</t>
-  </si>
-  <si>
     <t xml:space="preserve">Lymnea_stagnalis</t>
   </si>
   <si>
     <t xml:space="preserve">RB316</t>
   </si>
   <si>
-    <t xml:space="preserve">Theodoxus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fluviatilis</t>
-  </si>
-  <si>
     <t xml:space="preserve">RB317</t>
   </si>
   <si>
-    <t xml:space="preserve">Bithynia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tentaculata</t>
-  </si>
-  <si>
     <t xml:space="preserve">RB318</t>
   </si>
   <si>
@@ -837,21 +741,12 @@
     <t xml:space="preserve">RB405</t>
   </si>
   <si>
-    <t xml:space="preserve">Planorbis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">contortus</t>
-  </si>
-  <si>
     <t xml:space="preserve">Planorbis_contortus</t>
   </si>
   <si>
     <t xml:space="preserve">RB405-B</t>
   </si>
   <si>
-    <t xml:space="preserve">Segmentina</t>
-  </si>
-  <si>
     <t xml:space="preserve">Segmentina_sp.</t>
   </si>
   <si>
@@ -861,33 +756,18 @@
     <t xml:space="preserve">Hydrobiidae</t>
   </si>
   <si>
-    <t xml:space="preserve">Potamopyrgus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jenkinsi</t>
-  </si>
-  <si>
     <t xml:space="preserve">Potamopyrgus_jenkinsi</t>
   </si>
   <si>
     <t xml:space="preserve">RB407</t>
   </si>
   <si>
-    <t xml:space="preserve">Helobdella</t>
-  </si>
-  <si>
     <t xml:space="preserve">Helobdella_stagnalis</t>
   </si>
   <si>
     <t xml:space="preserve">RB408</t>
   </si>
   <si>
-    <t xml:space="preserve">Glossiphonia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">heteroclita</t>
-  </si>
-  <si>
     <t xml:space="preserve">Glossiphonia_heteroclita</t>
   </si>
   <si>
@@ -900,9 +780,6 @@
     <t xml:space="preserve">Elmidae</t>
   </si>
   <si>
-    <t xml:space="preserve">Limnius</t>
-  </si>
-  <si>
     <t xml:space="preserve">Limnius_sp.</t>
   </si>
   <si>
@@ -924,12 +801,6 @@
     <t xml:space="preserve">RB506</t>
   </si>
   <si>
-    <t xml:space="preserve">Lymnaea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">truncatula</t>
-  </si>
-  <si>
     <t xml:space="preserve">Lymnaea_truncatula</t>
   </si>
   <si>
@@ -954,9 +825,6 @@
     <t xml:space="preserve">RB511</t>
   </si>
   <si>
-    <t xml:space="preserve">auricolaria</t>
-  </si>
-  <si>
     <t xml:space="preserve">Lymnaea_auricolaria</t>
   </si>
   <si>
@@ -978,24 +846,12 @@
     <t xml:space="preserve">Nepidae</t>
   </si>
   <si>
-    <t xml:space="preserve">Nepa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cinerea</t>
-  </si>
-  <si>
     <t xml:space="preserve">Nepa_cinerea</t>
   </si>
   <si>
     <t xml:space="preserve">RB602</t>
   </si>
   <si>
-    <t xml:space="preserve">Notonecta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">glauca</t>
-  </si>
-  <si>
     <t xml:space="preserve">Notonecta_glauca</t>
   </si>
   <si>
@@ -1021,12 +877,6 @@
   </si>
   <si>
     <t xml:space="preserve">RB611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Placobdella</t>
-  </si>
-  <si>
-    <t xml:space="preserve">costata</t>
   </si>
   <si>
     <t xml:space="preserve">Placobdella_costata</t>
@@ -1474,7 +1324,7 @@
   </sheetPr>
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -4094,10 +3944,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J82"/>
+  <dimension ref="A1:H82"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I83" activeCellId="0" sqref="I83"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4108,11 +3958,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="14.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1014" min="10" style="0" width="8.52"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1015" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1012" min="8" style="0" width="8.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1013" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4135,27 +3983,21 @@
         <v>5</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>178</v>
+        <v>6</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>179</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="0" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>1</v>
@@ -4167,27 +4009,21 @@
         <v>47</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>182</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>183</v>
-      </c>
-      <c r="I2" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="J2" s="0" t="n">
+      <c r="H2" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>1</v>
@@ -4201,22 +4037,19 @@
       <c r="G3" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="I3" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="J3" s="0" t="n">
+      <c r="H3" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>1</v>
@@ -4230,22 +4063,19 @@
       <c r="G4" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="J4" s="0" t="n">
+      <c r="H4" s="0" t="n">
         <v>69</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>1</v>
@@ -4254,30 +4084,24 @@
         <v>32</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>188</v>
-      </c>
-      <c r="H5" s="0" t="s">
-        <v>189</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>190</v>
-      </c>
-      <c r="J5" s="0" t="n">
+        <v>184</v>
+      </c>
+      <c r="H5" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>1</v>
@@ -4286,27 +4110,24 @@
         <v>99</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>192</v>
-      </c>
-      <c r="I6" s="0" t="s">
-        <v>192</v>
-      </c>
-      <c r="J6" s="0" t="n">
+        <v>186</v>
+      </c>
+      <c r="H6" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>1</v>
@@ -4320,22 +4141,19 @@
       <c r="G7" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="I7" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="J7" s="0" t="n">
+      <c r="H7" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>1</v>
@@ -4347,27 +4165,21 @@
         <v>120</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>195</v>
-      </c>
-      <c r="H8" s="0" t="s">
-        <v>196</v>
-      </c>
-      <c r="I8" s="0" t="s">
-        <v>197</v>
-      </c>
-      <c r="J8" s="0" t="n">
+        <v>189</v>
+      </c>
+      <c r="H8" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>1</v>
@@ -4379,27 +4191,21 @@
         <v>14</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>199</v>
-      </c>
-      <c r="H9" s="0" t="s">
-        <v>200</v>
-      </c>
-      <c r="I9" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="J9" s="0" t="n">
+      <c r="H9" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>1</v>
@@ -4411,27 +4217,21 @@
         <v>18</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>202</v>
-      </c>
-      <c r="H10" s="0" t="s">
-        <v>203</v>
-      </c>
-      <c r="I10" s="0" t="s">
-        <v>204</v>
-      </c>
-      <c r="J10" s="0" t="n">
+        <v>192</v>
+      </c>
+      <c r="H10" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>1</v>
@@ -4443,27 +4243,21 @@
         <v>18</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>202</v>
-      </c>
-      <c r="H11" s="0" t="s">
-        <v>196</v>
-      </c>
-      <c r="I11" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="J11" s="0" t="n">
+      <c r="H11" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>1</v>
@@ -4475,27 +4269,21 @@
         <v>120</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>207</v>
-      </c>
-      <c r="H12" s="0" t="s">
-        <v>208</v>
-      </c>
-      <c r="I12" s="0" t="s">
-        <v>209</v>
-      </c>
-      <c r="J12" s="0" t="n">
+        <v>195</v>
+      </c>
+      <c r="H12" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>2</v>
@@ -4509,54 +4297,45 @@
       <c r="G13" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="I13" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="J13" s="0" t="n">
+      <c r="H13" s="0" t="n">
         <v>108</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="H14" s="0" t="s">
-        <v>196</v>
-      </c>
-      <c r="I14" s="0" t="s">
-        <v>215</v>
-      </c>
-      <c r="J14" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="H14" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="B15" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>2</v>
@@ -4568,27 +4347,21 @@
         <v>120</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>195</v>
-      </c>
-      <c r="H15" s="0" t="s">
-        <v>208</v>
-      </c>
-      <c r="I15" s="0" t="s">
         <v>121</v>
       </c>
-      <c r="J15" s="0" t="n">
+      <c r="H15" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="B16" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>2</v>
@@ -4600,27 +4373,21 @@
         <v>18</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>202</v>
-      </c>
-      <c r="H16" s="0" t="s">
-        <v>203</v>
-      </c>
-      <c r="I16" s="0" t="s">
-        <v>204</v>
-      </c>
-      <c r="J16" s="0" t="n">
+        <v>192</v>
+      </c>
+      <c r="H16" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="B17" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>2</v>
@@ -4632,27 +4399,21 @@
         <v>120</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>195</v>
-      </c>
-      <c r="H17" s="0" t="s">
-        <v>196</v>
-      </c>
-      <c r="I17" s="0" t="s">
-        <v>197</v>
-      </c>
-      <c r="J17" s="0" t="n">
+        <v>189</v>
+      </c>
+      <c r="H17" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="B18" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>2</v>
@@ -4666,22 +4427,19 @@
       <c r="G18" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="I18" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="J18" s="0" t="n">
+      <c r="H18" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="B19" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D19" s="0" t="n">
         <v>2</v>
@@ -4693,27 +4451,21 @@
         <v>78</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>221</v>
-      </c>
-      <c r="H19" s="0" t="s">
-        <v>222</v>
-      </c>
-      <c r="I19" s="0" t="s">
-        <v>223</v>
-      </c>
-      <c r="J19" s="0" t="n">
+        <v>206</v>
+      </c>
+      <c r="H19" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="B20" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D20" s="0" t="n">
         <v>2</v>
@@ -4725,27 +4477,21 @@
         <v>161</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>225</v>
-      </c>
-      <c r="H20" s="0" t="s">
-        <v>196</v>
-      </c>
-      <c r="I20" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="J20" s="0" t="n">
+      <c r="H20" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="B21" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>2</v>
@@ -4759,22 +4505,19 @@
       <c r="G21" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="I21" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="J21" s="0" t="n">
+      <c r="H21" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
       <c r="B22" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D22" s="0" t="n">
         <v>2</v>
@@ -4786,27 +4529,21 @@
         <v>33</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>228</v>
-      </c>
-      <c r="H22" s="0" t="s">
-        <v>229</v>
-      </c>
-      <c r="I22" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="J22" s="0" t="n">
+      <c r="H22" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="B23" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D23" s="0" t="n">
         <v>3</v>
@@ -4815,27 +4552,24 @@
         <v>99</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>192</v>
-      </c>
-      <c r="I23" s="0" t="s">
-        <v>192</v>
-      </c>
-      <c r="J23" s="0" t="n">
+        <v>186</v>
+      </c>
+      <c r="H23" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>231</v>
+        <v>211</v>
       </c>
       <c r="B24" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D24" s="0" t="n">
         <v>3</v>
@@ -4844,30 +4578,24 @@
         <v>77</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>233</v>
-      </c>
-      <c r="H24" s="0" t="s">
-        <v>234</v>
-      </c>
-      <c r="I24" s="0" t="s">
-        <v>235</v>
-      </c>
-      <c r="J24" s="0" t="n">
+        <v>213</v>
+      </c>
+      <c r="H24" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>236</v>
+        <v>214</v>
       </c>
       <c r="B25" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D25" s="0" t="n">
         <v>3</v>
@@ -4881,22 +4609,19 @@
       <c r="G25" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="I25" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="J25" s="0" t="n">
+      <c r="H25" s="0" t="n">
         <v>70</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>237</v>
+        <v>215</v>
       </c>
       <c r="B26" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D26" s="0" t="n">
         <v>3</v>
@@ -4908,27 +4633,21 @@
         <v>18</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>202</v>
-      </c>
-      <c r="H26" s="0" t="s">
-        <v>203</v>
-      </c>
-      <c r="I26" s="0" t="s">
-        <v>204</v>
-      </c>
-      <c r="J26" s="0" t="n">
+        <v>192</v>
+      </c>
+      <c r="H26" s="0" t="n">
         <v>32</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>238</v>
+        <v>216</v>
       </c>
       <c r="B27" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D27" s="0" t="n">
         <v>3</v>
@@ -4940,27 +4659,21 @@
         <v>120</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>195</v>
-      </c>
-      <c r="H27" s="0" t="s">
-        <v>208</v>
-      </c>
-      <c r="I27" s="0" t="s">
         <v>121</v>
       </c>
-      <c r="J27" s="0" t="n">
+      <c r="H27" s="0" t="n">
         <v>33</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>239</v>
+        <v>217</v>
       </c>
       <c r="B28" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D28" s="0" t="n">
         <v>3</v>
@@ -4972,59 +4685,47 @@
         <v>120</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>195</v>
-      </c>
-      <c r="H28" s="0" t="s">
-        <v>208</v>
-      </c>
-      <c r="I28" s="0" t="s">
         <v>121</v>
       </c>
-      <c r="J28" s="0" t="n">
+      <c r="H28" s="0" t="n">
         <v>28</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>240</v>
+        <v>218</v>
       </c>
       <c r="B29" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D29" s="0" t="n">
         <v>3</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="H29" s="0" t="s">
-        <v>196</v>
-      </c>
-      <c r="I29" s="0" t="s">
-        <v>215</v>
-      </c>
-      <c r="J29" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="H29" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="B30" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D30" s="0" t="n">
         <v>3</v>
@@ -5038,22 +4739,19 @@
       <c r="G30" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="I30" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="J30" s="0" t="n">
+      <c r="H30" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>242</v>
+        <v>220</v>
       </c>
       <c r="B31" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D31" s="0" t="n">
         <v>3</v>
@@ -5067,22 +4765,19 @@
       <c r="G31" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="I31" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="J31" s="0" t="n">
+      <c r="H31" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="B32" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D32" s="0" t="n">
         <v>3</v>
@@ -5094,27 +4789,21 @@
         <v>78</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>221</v>
-      </c>
-      <c r="H32" s="0" t="s">
-        <v>196</v>
-      </c>
-      <c r="I32" s="0" t="s">
-        <v>244</v>
-      </c>
-      <c r="J32" s="0" t="n">
+        <v>222</v>
+      </c>
+      <c r="H32" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>245</v>
+        <v>223</v>
       </c>
       <c r="B33" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D33" s="0" t="n">
         <v>3</v>
@@ -5126,27 +4815,21 @@
         <v>78</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>246</v>
-      </c>
-      <c r="H33" s="0" t="s">
-        <v>247</v>
-      </c>
-      <c r="I33" s="0" t="s">
-        <v>248</v>
-      </c>
-      <c r="J33" s="0" t="n">
+        <v>224</v>
+      </c>
+      <c r="H33" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>249</v>
+        <v>225</v>
       </c>
       <c r="B34" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D34" s="0" t="n">
         <v>3</v>
@@ -5160,22 +4843,19 @@
       <c r="G34" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="I34" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="J34" s="0" t="n">
+      <c r="H34" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>250</v>
+        <v>226</v>
       </c>
       <c r="B35" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D35" s="0" t="n">
         <v>3</v>
@@ -5189,22 +4869,19 @@
       <c r="G35" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="I35" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="J35" s="0" t="n">
+      <c r="H35" s="0" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>251</v>
+        <v>227</v>
       </c>
       <c r="B36" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D36" s="0" t="n">
         <v>3</v>
@@ -5216,27 +4893,21 @@
         <v>115</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>252</v>
-      </c>
-      <c r="H36" s="0" t="s">
-        <v>253</v>
-      </c>
-      <c r="I36" s="0" t="s">
         <v>116</v>
       </c>
-      <c r="J36" s="0" t="n">
+      <c r="H36" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>254</v>
+        <v>228</v>
       </c>
       <c r="B37" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D37" s="0" t="n">
         <v>3</v>
@@ -5248,27 +4919,21 @@
         <v>42</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>255</v>
-      </c>
-      <c r="H37" s="0" t="s">
-        <v>256</v>
-      </c>
-      <c r="I37" s="0" t="s">
-        <v>257</v>
-      </c>
-      <c r="J37" s="0" t="n">
+        <v>229</v>
+      </c>
+      <c r="H37" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>258</v>
+        <v>230</v>
       </c>
       <c r="B38" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D38" s="0" t="n">
         <v>3</v>
@@ -5280,27 +4945,21 @@
         <v>112</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>259</v>
-      </c>
-      <c r="H38" s="0" t="s">
-        <v>260</v>
-      </c>
-      <c r="I38" s="0" t="s">
         <v>113</v>
       </c>
-      <c r="J38" s="0" t="n">
+      <c r="H38" s="0" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>261</v>
+        <v>231</v>
       </c>
       <c r="B39" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D39" s="0" t="n">
         <v>3</v>
@@ -5312,27 +4971,21 @@
         <v>36</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>262</v>
-      </c>
-      <c r="H39" s="0" t="s">
-        <v>263</v>
-      </c>
-      <c r="I39" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="J39" s="0" t="n">
+      <c r="H39" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>264</v>
+        <v>232</v>
       </c>
       <c r="B40" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D40" s="0" t="n">
         <v>3</v>
@@ -5344,27 +4997,21 @@
         <v>161</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>225</v>
-      </c>
-      <c r="H40" s="0" t="s">
-        <v>196</v>
-      </c>
-      <c r="I40" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="J40" s="0" t="n">
+      <c r="H40" s="0" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>265</v>
+        <v>233</v>
       </c>
       <c r="B41" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D41" s="0" t="n">
         <v>4</v>
@@ -5376,27 +5023,21 @@
         <v>14</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>199</v>
-      </c>
-      <c r="H41" s="0" t="s">
-        <v>200</v>
-      </c>
-      <c r="I41" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="J41" s="0" t="n">
+      <c r="H41" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>266</v>
+        <v>234</v>
       </c>
       <c r="B42" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D42" s="0" t="n">
         <v>4</v>
@@ -5408,27 +5049,21 @@
         <v>18</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>202</v>
-      </c>
-      <c r="H42" s="0" t="s">
-        <v>203</v>
-      </c>
-      <c r="I42" s="0" t="s">
-        <v>204</v>
-      </c>
-      <c r="J42" s="0" t="n">
+        <v>192</v>
+      </c>
+      <c r="H42" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>267</v>
+        <v>235</v>
       </c>
       <c r="B43" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D43" s="0" t="n">
         <v>4</v>
@@ -5437,27 +5072,24 @@
         <v>99</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>192</v>
-      </c>
-      <c r="I43" s="0" t="s">
-        <v>192</v>
-      </c>
-      <c r="J43" s="0" t="n">
+        <v>186</v>
+      </c>
+      <c r="H43" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="B44" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D44" s="0" t="n">
         <v>4</v>
@@ -5469,27 +5101,21 @@
         <v>161</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>225</v>
-      </c>
-      <c r="H44" s="0" t="s">
-        <v>196</v>
-      </c>
-      <c r="I44" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="J44" s="0" t="n">
+      <c r="H44" s="0" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>269</v>
+        <v>237</v>
       </c>
       <c r="B45" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D45" s="0" t="n">
         <v>4</v>
@@ -5501,27 +5127,21 @@
         <v>39</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>270</v>
-      </c>
-      <c r="H45" s="0" t="s">
-        <v>271</v>
-      </c>
-      <c r="I45" s="0" t="s">
-        <v>272</v>
-      </c>
-      <c r="J45" s="0" t="n">
+        <v>238</v>
+      </c>
+      <c r="H45" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>273</v>
+        <v>239</v>
       </c>
       <c r="B46" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D46" s="0" t="n">
         <v>4</v>
@@ -5533,27 +5153,21 @@
         <v>39</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>274</v>
-      </c>
-      <c r="H46" s="0" t="s">
-        <v>196</v>
-      </c>
-      <c r="I46" s="0" t="s">
-        <v>275</v>
-      </c>
-      <c r="J46" s="0" t="n">
+        <v>240</v>
+      </c>
+      <c r="H46" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>276</v>
+        <v>241</v>
       </c>
       <c r="B47" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D47" s="0" t="n">
         <v>4</v>
@@ -5562,30 +5176,24 @@
         <v>32</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>277</v>
+        <v>242</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>278</v>
-      </c>
-      <c r="H47" s="0" t="s">
-        <v>279</v>
-      </c>
-      <c r="I47" s="0" t="s">
-        <v>280</v>
-      </c>
-      <c r="J47" s="0" t="n">
+        <v>243</v>
+      </c>
+      <c r="H47" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>281</v>
+        <v>244</v>
       </c>
       <c r="B48" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D48" s="0" t="n">
         <v>4</v>
@@ -5597,27 +5205,21 @@
         <v>83</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>282</v>
-      </c>
-      <c r="H48" s="0" t="s">
-        <v>256</v>
-      </c>
-      <c r="I48" s="0" t="s">
-        <v>283</v>
-      </c>
-      <c r="J48" s="0" t="n">
+        <v>245</v>
+      </c>
+      <c r="H48" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>284</v>
+        <v>246</v>
       </c>
       <c r="B49" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D49" s="0" t="n">
         <v>4</v>
@@ -5629,27 +5231,21 @@
         <v>83</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>285</v>
-      </c>
-      <c r="H49" s="0" t="s">
-        <v>286</v>
-      </c>
-      <c r="I49" s="0" t="s">
-        <v>287</v>
-      </c>
-      <c r="J49" s="0" t="n">
+        <v>247</v>
+      </c>
+      <c r="H49" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>288</v>
+        <v>248</v>
       </c>
       <c r="B50" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D50" s="0" t="n">
         <v>4</v>
@@ -5663,22 +5259,19 @@
       <c r="G50" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="I50" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="J50" s="0" t="n">
+      <c r="H50" s="0" t="n">
         <v>124</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>289</v>
+        <v>249</v>
       </c>
       <c r="B51" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D51" s="0" t="n">
         <v>4</v>
@@ -5687,30 +5280,24 @@
         <v>51</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>290</v>
+        <v>250</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>291</v>
-      </c>
-      <c r="H51" s="0" t="s">
-        <v>196</v>
-      </c>
-      <c r="I51" s="0" t="s">
-        <v>292</v>
-      </c>
-      <c r="J51" s="0" t="n">
+        <v>251</v>
+      </c>
+      <c r="H51" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>293</v>
+        <v>252</v>
       </c>
       <c r="B52" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D52" s="0" t="n">
         <v>5</v>
@@ -5722,27 +5309,21 @@
         <v>120</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>195</v>
-      </c>
-      <c r="H52" s="0" t="s">
-        <v>196</v>
-      </c>
-      <c r="I52" s="0" t="s">
-        <v>197</v>
-      </c>
-      <c r="J52" s="0" t="n">
+        <v>189</v>
+      </c>
+      <c r="H52" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>294</v>
+        <v>253</v>
       </c>
       <c r="B53" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D53" s="0" t="n">
         <v>5</v>
@@ -5754,27 +5335,21 @@
         <v>18</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>202</v>
-      </c>
-      <c r="H53" s="0" t="s">
-        <v>203</v>
-      </c>
-      <c r="I53" s="0" t="s">
-        <v>204</v>
-      </c>
-      <c r="J53" s="0" t="n">
+        <v>192</v>
+      </c>
+      <c r="H53" s="0" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>295</v>
+        <v>254</v>
       </c>
       <c r="B54" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D54" s="0" t="n">
         <v>5</v>
@@ -5786,27 +5361,21 @@
         <v>120</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>195</v>
-      </c>
-      <c r="H54" s="0" t="s">
-        <v>208</v>
-      </c>
-      <c r="I54" s="0" t="s">
         <v>121</v>
       </c>
-      <c r="J54" s="0" t="n">
+      <c r="H54" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>296</v>
+        <v>255</v>
       </c>
       <c r="B55" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D55" s="0" t="n">
         <v>5</v>
@@ -5818,27 +5387,21 @@
         <v>14</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>199</v>
-      </c>
-      <c r="H55" s="0" t="s">
-        <v>200</v>
-      </c>
-      <c r="I55" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="0" t="n">
+      <c r="H55" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>297</v>
+        <v>256</v>
       </c>
       <c r="B56" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D56" s="0" t="n">
         <v>5</v>
@@ -5850,27 +5413,21 @@
         <v>33</v>
       </c>
       <c r="G56" s="0" t="s">
-        <v>228</v>
-      </c>
-      <c r="H56" s="0" t="s">
-        <v>229</v>
-      </c>
-      <c r="I56" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="J56" s="0" t="n">
+      <c r="H56" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>298</v>
+        <v>257</v>
       </c>
       <c r="B57" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D57" s="0" t="n">
         <v>5</v>
@@ -5882,27 +5439,21 @@
         <v>42</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>299</v>
-      </c>
-      <c r="H57" s="0" t="s">
-        <v>300</v>
-      </c>
-      <c r="I57" s="0" t="s">
-        <v>301</v>
-      </c>
-      <c r="J57" s="0" t="n">
+        <v>258</v>
+      </c>
+      <c r="H57" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>302</v>
+        <v>259</v>
       </c>
       <c r="B58" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D58" s="0" t="n">
         <v>5</v>
@@ -5911,27 +5462,24 @@
         <v>51</v>
       </c>
       <c r="F58" s="0" t="s">
-        <v>303</v>
+        <v>260</v>
       </c>
       <c r="G58" s="0" t="s">
-        <v>303</v>
-      </c>
-      <c r="I58" s="0" t="s">
-        <v>303</v>
-      </c>
-      <c r="J58" s="0" t="n">
+        <v>260</v>
+      </c>
+      <c r="H58" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>304</v>
+        <v>261</v>
       </c>
       <c r="B59" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D59" s="0" t="n">
         <v>5</v>
@@ -5945,22 +5493,19 @@
       <c r="G59" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="I59" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="J59" s="0" t="n">
+      <c r="H59" s="0" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>305</v>
+        <v>262</v>
       </c>
       <c r="B60" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D60" s="0" t="n">
         <v>5</v>
@@ -5972,27 +5517,21 @@
         <v>78</v>
       </c>
       <c r="G60" s="0" t="s">
-        <v>233</v>
-      </c>
-      <c r="H60" s="0" t="s">
-        <v>196</v>
-      </c>
-      <c r="I60" s="0" t="s">
-        <v>306</v>
-      </c>
-      <c r="J60" s="0" t="n">
+        <v>263</v>
+      </c>
+      <c r="H60" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>307</v>
+        <v>264</v>
       </c>
       <c r="B61" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D61" s="0" t="n">
         <v>5</v>
@@ -6004,27 +5543,21 @@
         <v>112</v>
       </c>
       <c r="G61" s="0" t="s">
-        <v>259</v>
-      </c>
-      <c r="H61" s="0" t="s">
-        <v>260</v>
-      </c>
-      <c r="I61" s="0" t="s">
         <v>113</v>
       </c>
-      <c r="J61" s="0" t="n">
+      <c r="H61" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>308</v>
+        <v>265</v>
       </c>
       <c r="B62" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D62" s="0" t="n">
         <v>5</v>
@@ -6036,27 +5569,21 @@
         <v>42</v>
       </c>
       <c r="G62" s="0" t="s">
-        <v>299</v>
-      </c>
-      <c r="H62" s="0" t="s">
-        <v>309</v>
-      </c>
-      <c r="I62" s="0" t="s">
-        <v>310</v>
-      </c>
-      <c r="J62" s="0" t="n">
+        <v>266</v>
+      </c>
+      <c r="H62" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>311</v>
+        <v>267</v>
       </c>
       <c r="B63" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D63" s="0" t="n">
         <v>5</v>
@@ -6068,27 +5595,21 @@
         <v>39</v>
       </c>
       <c r="G63" s="0" t="s">
-        <v>270</v>
-      </c>
-      <c r="H63" s="0" t="s">
-        <v>271</v>
-      </c>
-      <c r="I63" s="0" t="s">
-        <v>272</v>
-      </c>
-      <c r="J63" s="0" t="n">
+        <v>238</v>
+      </c>
+      <c r="H63" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>312</v>
+        <v>268</v>
       </c>
       <c r="B64" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D64" s="0" t="n">
         <v>5</v>
@@ -6097,30 +5618,24 @@
         <v>32</v>
       </c>
       <c r="F64" s="0" t="s">
-        <v>277</v>
+        <v>242</v>
       </c>
       <c r="G64" s="0" t="s">
-        <v>262</v>
-      </c>
-      <c r="H64" s="0" t="s">
-        <v>196</v>
-      </c>
-      <c r="I64" s="0" t="s">
-        <v>313</v>
-      </c>
-      <c r="J64" s="0" t="n">
+        <v>269</v>
+      </c>
+      <c r="H64" s="0" t="n">
         <v>17</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>314</v>
+        <v>270</v>
       </c>
       <c r="B65" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D65" s="0" t="n">
         <v>5</v>
@@ -6134,22 +5649,19 @@
       <c r="G65" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="I65" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="J65" s="0" t="n">
+      <c r="H65" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>315</v>
+        <v>271</v>
       </c>
       <c r="B66" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D66" s="0" t="n">
         <v>6</v>
@@ -6158,30 +5670,24 @@
         <v>60</v>
       </c>
       <c r="F66" s="0" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="G66" s="0" t="s">
-        <v>317</v>
-      </c>
-      <c r="H66" s="0" t="s">
-        <v>318</v>
-      </c>
-      <c r="I66" s="0" t="s">
-        <v>319</v>
-      </c>
-      <c r="J66" s="0" t="n">
+        <v>273</v>
+      </c>
+      <c r="H66" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>320</v>
+        <v>274</v>
       </c>
       <c r="B67" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D67" s="0" t="n">
         <v>6</v>
@@ -6193,27 +5699,21 @@
         <v>175</v>
       </c>
       <c r="G67" s="0" t="s">
-        <v>321</v>
-      </c>
-      <c r="H67" s="0" t="s">
-        <v>322</v>
-      </c>
-      <c r="I67" s="0" t="s">
-        <v>323</v>
-      </c>
-      <c r="J67" s="0" t="n">
+        <v>275</v>
+      </c>
+      <c r="H67" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>324</v>
+        <v>276</v>
       </c>
       <c r="B68" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D68" s="0" t="n">
         <v>6</v>
@@ -6222,27 +5722,24 @@
         <v>51</v>
       </c>
       <c r="F68" s="0" t="s">
-        <v>290</v>
+        <v>250</v>
       </c>
       <c r="G68" s="0" t="s">
-        <v>290</v>
-      </c>
-      <c r="I68" s="0" t="s">
-        <v>290</v>
-      </c>
-      <c r="J68" s="0" t="n">
+        <v>250</v>
+      </c>
+      <c r="H68" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>325</v>
+        <v>277</v>
       </c>
       <c r="B69" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D69" s="0" t="n">
         <v>6</v>
@@ -6251,27 +5748,24 @@
         <v>99</v>
       </c>
       <c r="F69" s="0" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="G69" s="0" t="s">
-        <v>192</v>
-      </c>
-      <c r="I69" s="0" t="s">
-        <v>192</v>
-      </c>
-      <c r="J69" s="0" t="n">
+        <v>186</v>
+      </c>
+      <c r="H69" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>326</v>
+        <v>278</v>
       </c>
       <c r="B70" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D70" s="0" t="n">
         <v>6</v>
@@ -6285,22 +5779,19 @@
       <c r="G70" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="I70" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="J70" s="0" t="n">
+      <c r="H70" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>327</v>
+        <v>279</v>
       </c>
       <c r="B71" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D71" s="0" t="n">
         <v>6</v>
@@ -6312,27 +5803,21 @@
         <v>14</v>
       </c>
       <c r="G71" s="0" t="s">
-        <v>199</v>
-      </c>
-      <c r="H71" s="0" t="s">
-        <v>200</v>
-      </c>
-      <c r="I71" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="J71" s="0" t="n">
+      <c r="H71" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>328</v>
+        <v>280</v>
       </c>
       <c r="B72" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D72" s="0" t="n">
         <v>6</v>
@@ -6344,27 +5829,21 @@
         <v>18</v>
       </c>
       <c r="G72" s="0" t="s">
-        <v>202</v>
-      </c>
-      <c r="H72" s="0" t="s">
-        <v>203</v>
-      </c>
-      <c r="I72" s="0" t="s">
-        <v>204</v>
-      </c>
-      <c r="J72" s="0" t="n">
+        <v>192</v>
+      </c>
+      <c r="H72" s="0" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>329</v>
+        <v>281</v>
       </c>
       <c r="B73" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D73" s="0" t="n">
         <v>6</v>
@@ -6376,27 +5855,21 @@
         <v>120</v>
       </c>
       <c r="G73" s="0" t="s">
-        <v>195</v>
-      </c>
-      <c r="H73" s="0" t="s">
-        <v>208</v>
-      </c>
-      <c r="I73" s="0" t="s">
         <v>121</v>
       </c>
-      <c r="J73" s="0" t="n">
+      <c r="H73" s="0" t="n">
         <v>15</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>330</v>
+        <v>282</v>
       </c>
       <c r="B74" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D74" s="0" t="n">
         <v>6</v>
@@ -6410,22 +5883,19 @@
       <c r="G74" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="I74" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="J74" s="0" t="n">
+      <c r="H74" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>331</v>
+        <v>283</v>
       </c>
       <c r="B75" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D75" s="0" t="n">
         <v>6</v>
@@ -6437,27 +5907,21 @@
         <v>83</v>
       </c>
       <c r="G75" s="0" t="s">
-        <v>332</v>
-      </c>
-      <c r="H75" s="0" t="s">
-        <v>333</v>
-      </c>
-      <c r="I75" s="0" t="s">
-        <v>334</v>
-      </c>
-      <c r="J75" s="0" t="n">
+        <v>284</v>
+      </c>
+      <c r="H75" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>335</v>
+        <v>285</v>
       </c>
       <c r="B76" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D76" s="0" t="n">
         <v>6</v>
@@ -6466,59 +5930,50 @@
         <v>51</v>
       </c>
       <c r="F76" s="0" t="s">
-        <v>290</v>
+        <v>250</v>
       </c>
       <c r="G76" s="0" t="s">
-        <v>290</v>
-      </c>
-      <c r="I76" s="0" t="s">
-        <v>290</v>
-      </c>
-      <c r="J76" s="0" t="n">
+        <v>250</v>
+      </c>
+      <c r="H76" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>336</v>
+        <v>286</v>
       </c>
       <c r="B77" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D77" s="0" t="n">
         <v>6</v>
       </c>
       <c r="E77" s="0" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="F77" s="0" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="G77" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="H77" s="0" t="s">
-        <v>196</v>
-      </c>
-      <c r="I77" s="0" t="s">
-        <v>215</v>
-      </c>
-      <c r="J77" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="H77" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>337</v>
+        <v>287</v>
       </c>
       <c r="B78" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D78" s="0" t="n">
         <v>6</v>
@@ -6532,51 +5987,45 @@
       <c r="G78" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="I78" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="J78" s="0" t="n">
+      <c r="H78" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>338</v>
+        <v>288</v>
       </c>
       <c r="B79" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D79" s="0" t="n">
         <v>6</v>
       </c>
       <c r="E79" s="0" t="s">
-        <v>339</v>
+        <v>289</v>
       </c>
       <c r="F79" s="0" t="s">
-        <v>339</v>
+        <v>289</v>
       </c>
       <c r="G79" s="0" t="s">
-        <v>339</v>
-      </c>
-      <c r="I79" s="0" t="s">
-        <v>339</v>
-      </c>
-      <c r="J79" s="0" t="n">
+        <v>289</v>
+      </c>
+      <c r="H79" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>340</v>
+        <v>290</v>
       </c>
       <c r="B80" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D80" s="0" t="n">
         <v>6</v>
@@ -6588,27 +6037,21 @@
         <v>36</v>
       </c>
       <c r="G80" s="0" t="s">
-        <v>262</v>
-      </c>
-      <c r="H80" s="0" t="s">
-        <v>263</v>
-      </c>
-      <c r="I80" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="J80" s="0" t="n">
+      <c r="H80" s="0" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>341</v>
+        <v>291</v>
       </c>
       <c r="B81" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D81" s="0" t="n">
         <v>6</v>
@@ -6620,27 +6063,21 @@
         <v>42</v>
       </c>
       <c r="G81" s="0" t="s">
-        <v>299</v>
-      </c>
-      <c r="H81" s="0" t="s">
-        <v>256</v>
-      </c>
-      <c r="I81" s="0" t="s">
-        <v>342</v>
-      </c>
-      <c r="J81" s="0" t="n">
+        <v>292</v>
+      </c>
+      <c r="H81" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>343</v>
+        <v>293</v>
       </c>
       <c r="B82" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D82" s="0" t="n">
         <v>6</v>
@@ -6649,18 +6086,12 @@
         <v>32</v>
       </c>
       <c r="F82" s="0" t="s">
-        <v>277</v>
+        <v>242</v>
       </c>
       <c r="G82" s="0" t="s">
-        <v>278</v>
-      </c>
-      <c r="H82" s="0" t="s">
-        <v>279</v>
-      </c>
-      <c r="I82" s="0" t="s">
-        <v>280</v>
-      </c>
-      <c r="J82" s="0" t="n">
+        <v>243</v>
+      </c>
+      <c r="H82" s="0" t="n">
         <v>6</v>
       </c>
     </row>
@@ -6760,10 +6191,10 @@
         <v>32</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>344</v>
+        <v>294</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>345</v>
+        <v>295</v>
       </c>
       <c r="H3" s="0" t="n">
         <v>14</v>
@@ -6783,10 +6214,10 @@
         <v>32</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>277</v>
+        <v>242</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>280</v>
+        <v>243</v>
       </c>
       <c r="H4" s="0" t="n">
         <v>2</v>
@@ -6794,7 +6225,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>346</v>
+        <v>296</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>43010</v>
@@ -6817,7 +6248,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>347</v>
+        <v>297</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>43010</v>
@@ -6832,7 +6263,7 @@
         <v>42</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>348</v>
+        <v>298</v>
       </c>
       <c r="H6" s="0" t="n">
         <v>3</v>
@@ -6901,7 +6332,7 @@
         <v>18</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>349</v>
+        <v>299</v>
       </c>
       <c r="H9" s="0" t="n">
         <v>50</v>
@@ -6909,7 +6340,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>43010</v>
@@ -6924,7 +6355,7 @@
         <v>18</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="H10" s="0" t="n">
         <v>24</v>
@@ -6932,7 +6363,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>352</v>
+        <v>302</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>43010</v>
@@ -6944,7 +6375,7 @@
         <v>32</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>353</v>
+        <v>303</v>
       </c>
       <c r="G11" s="0" t="s">
         <v>34</v>
@@ -6955,7 +6386,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>354</v>
+        <v>304</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>43010</v>
@@ -6967,10 +6398,10 @@
         <v>32</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>277</v>
+        <v>242</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>355</v>
+        <v>305</v>
       </c>
       <c r="H12" s="0" t="n">
         <v>2</v>
@@ -6978,7 +6409,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>356</v>
+        <v>306</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>43010</v>
@@ -6993,7 +6424,7 @@
         <v>83</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>283</v>
+        <v>245</v>
       </c>
       <c r="H13" s="0" t="n">
         <v>1</v>
@@ -7047,7 +6478,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>357</v>
+        <v>307</v>
       </c>
       <c r="B16" s="1" t="n">
         <v>43010</v>
@@ -7062,7 +6493,7 @@
         <v>83</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>283</v>
+        <v>245</v>
       </c>
       <c r="H16" s="0" t="n">
         <v>9</v>
@@ -7085,7 +6516,7 @@
         <v>83</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>358</v>
+        <v>308</v>
       </c>
       <c r="H17" s="0" t="n">
         <v>3</v>
@@ -7105,10 +6536,10 @@
         <v>32</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>344</v>
+        <v>294</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>345</v>
+        <v>295</v>
       </c>
       <c r="H18" s="0" t="n">
         <v>24</v>
@@ -7128,10 +6559,10 @@
         <v>32</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>277</v>
+        <v>242</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>280</v>
+        <v>243</v>
       </c>
       <c r="H19" s="0" t="n">
         <v>12</v>
@@ -7162,7 +6593,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>359</v>
+        <v>309</v>
       </c>
       <c r="B21" s="1" t="n">
         <v>43010</v>
@@ -7174,7 +6605,7 @@
         <v>32</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>277</v>
+        <v>242</v>
       </c>
       <c r="G21" s="0" t="s">
         <v>37</v>
@@ -7217,13 +6648,13 @@
         <v>9</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="H23" s="0" t="n">
         <v>1</v>
@@ -7338,7 +6769,7 @@
         <v>83</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>283</v>
+        <v>245</v>
       </c>
       <c r="H28" s="0" t="n">
         <v>14</v>
@@ -7384,7 +6815,7 @@
         <v>83</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>358</v>
+        <v>308</v>
       </c>
       <c r="H30" s="0" t="n">
         <v>1</v>
@@ -7450,10 +6881,10 @@
         <v>32</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>344</v>
+        <v>294</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>345</v>
+        <v>295</v>
       </c>
       <c r="H33" s="0" t="n">
         <v>2</v>
@@ -7473,10 +6904,10 @@
         <v>99</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="H34" s="0" t="n">
         <v>2</v>
@@ -7507,7 +6938,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>360</v>
+        <v>310</v>
       </c>
       <c r="B36" s="1" t="n">
         <v>43010</v>
@@ -7519,10 +6950,10 @@
         <v>51</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>303</v>
+        <v>260</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>303</v>
+        <v>260</v>
       </c>
       <c r="H36" s="0" t="n">
         <v>1</v>
@@ -7530,7 +6961,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>361</v>
+        <v>311</v>
       </c>
       <c r="B37" s="1" t="n">
         <v>43010</v>
@@ -7553,7 +6984,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>362</v>
+        <v>312</v>
       </c>
       <c r="B38" s="1" t="n">
         <v>43010</v>
@@ -7565,10 +6996,10 @@
         <v>32</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>277</v>
+        <v>242</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>280</v>
+        <v>243</v>
       </c>
       <c r="H38" s="0" t="n">
         <v>6</v>
@@ -7576,7 +7007,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>363</v>
+        <v>313</v>
       </c>
       <c r="B39" s="1" t="n">
         <v>43010</v>
@@ -7599,7 +7030,7 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>364</v>
+        <v>314</v>
       </c>
       <c r="B40" s="1" t="n">
         <v>43010</v>
@@ -7622,7 +7053,7 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>365</v>
+        <v>315</v>
       </c>
       <c r="B41" s="1" t="n">
         <v>43010</v>
@@ -7657,10 +7088,10 @@
         <v>51</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>303</v>
+        <v>260</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>303</v>
+        <v>260</v>
       </c>
       <c r="H42" s="0" t="n">
         <v>1</v>
@@ -7683,7 +7114,7 @@
         <v>42</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>348</v>
+        <v>298</v>
       </c>
       <c r="H43" s="0" t="n">
         <v>1</v>
@@ -7703,10 +7134,10 @@
         <v>32</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>344</v>
+        <v>294</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>345</v>
+        <v>295</v>
       </c>
       <c r="H44" s="0" t="n">
         <v>5</v>
@@ -7726,10 +7157,10 @@
         <v>32</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>277</v>
+        <v>242</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>280</v>
+        <v>243</v>
       </c>
       <c r="H45" s="0" t="n">
         <v>3</v>
@@ -7783,7 +7214,7 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>366</v>
+        <v>316</v>
       </c>
       <c r="B48" s="1" t="n">
         <v>43010</v>
@@ -7806,7 +7237,7 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>367</v>
+        <v>317</v>
       </c>
       <c r="B49" s="1" t="n">
         <v>43010</v>
@@ -7829,7 +7260,7 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>368</v>
+        <v>318</v>
       </c>
       <c r="B50" s="1" t="n">
         <v>43010</v>
@@ -7852,7 +7283,7 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>369</v>
+        <v>319</v>
       </c>
       <c r="B51" s="1" t="n">
         <v>43010</v>
@@ -7864,10 +7295,10 @@
         <v>32</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>344</v>
+        <v>294</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>345</v>
+        <v>295</v>
       </c>
       <c r="H51" s="0" t="n">
         <v>2</v>
@@ -7875,7 +7306,7 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>370</v>
+        <v>320</v>
       </c>
       <c r="B52" s="1" t="n">
         <v>43010</v>
@@ -7898,7 +7329,7 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>371</v>
+        <v>321</v>
       </c>
       <c r="B53" s="1" t="n">
         <v>43010</v>
@@ -7921,7 +7352,7 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>372</v>
+        <v>322</v>
       </c>
       <c r="B54" s="1" t="n">
         <v>43010</v>
@@ -7933,10 +7364,10 @@
         <v>82</v>
       </c>
       <c r="F54" s="0" t="s">
-        <v>373</v>
+        <v>323</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>374</v>
+        <v>324</v>
       </c>
       <c r="H54" s="0" t="n">
         <v>1</v>
@@ -7944,7 +7375,7 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>375</v>
+        <v>325</v>
       </c>
       <c r="B55" s="1" t="n">
         <v>43010</v>
@@ -7967,7 +7398,7 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>376</v>
+        <v>326</v>
       </c>
       <c r="B56" s="1" t="n">
         <v>43010</v>
@@ -8075,7 +7506,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>377</v>
+        <v>327</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>43012</v>
@@ -8168,10 +7599,10 @@
         <v>10</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>378</v>
+        <v>328</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>378</v>
+        <v>328</v>
       </c>
       <c r="H6" s="0" t="n">
         <v>1</v>
@@ -8197,7 +7628,7 @@
         <v>33</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>275</v>
+        <v>240</v>
       </c>
       <c r="H7" s="0" t="n">
         <v>1</v>
@@ -8246,10 +7677,10 @@
         <v>32</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>277</v>
+        <v>242</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>280</v>
+        <v>243</v>
       </c>
       <c r="H9" s="0" t="n">
         <v>1</v>
@@ -8275,7 +7706,7 @@
         <v>83</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>358</v>
+        <v>308</v>
       </c>
       <c r="H10" s="0" t="n">
         <v>1</v>
@@ -8283,7 +7714,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>379</v>
+        <v>329</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>43012</v>
@@ -8301,7 +7732,7 @@
         <v>42</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>348</v>
+        <v>298</v>
       </c>
       <c r="H11" s="0" t="n">
         <v>2</v>
@@ -8353,7 +7784,7 @@
         <v>33</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>275</v>
+        <v>240</v>
       </c>
       <c r="H13" s="0" t="n">
         <v>1</v>
@@ -8361,7 +7792,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>380</v>
+        <v>330</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>43012</v>
@@ -8387,7 +7818,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
       <c r="B15" s="1" t="n">
         <v>43012</v>
@@ -8402,10 +7833,10 @@
         <v>103</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>382</v>
+        <v>332</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>383</v>
+        <v>333</v>
       </c>
       <c r="H15" s="0" t="n">
         <v>1</v>
@@ -8413,7 +7844,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>384</v>
+        <v>334</v>
       </c>
       <c r="B16" s="1" t="n">
         <v>43012</v>
@@ -8454,10 +7885,10 @@
         <v>103</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>385</v>
+        <v>335</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="H17" s="0" t="n">
         <v>27</v>
@@ -8517,7 +7948,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>386</v>
+        <v>336</v>
       </c>
       <c r="B20" s="1" t="n">
         <v>43012</v>
@@ -8529,13 +7960,13 @@
         <v>3</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>387</v>
+        <v>337</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>388</v>
+        <v>338</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>388</v>
+        <v>338</v>
       </c>
       <c r="H20" s="0" t="n">
         <v>1</v>
@@ -8584,7 +8015,7 @@
         <v>32</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>277</v>
+        <v>242</v>
       </c>
       <c r="G22" s="0" t="s">
         <v>37</v>
@@ -8610,10 +8041,10 @@
         <v>32</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>344</v>
+        <v>294</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>389</v>
+        <v>339</v>
       </c>
       <c r="H23" s="0" t="n">
         <v>15</v>
@@ -8639,7 +8070,7 @@
         <v>33</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>390</v>
+        <v>340</v>
       </c>
       <c r="H24" s="0" t="n">
         <v>1</v>
@@ -8647,7 +8078,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>391</v>
+        <v>341</v>
       </c>
       <c r="B25" s="1" t="n">
         <v>43012</v>
@@ -8699,7 +8130,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>392</v>
+        <v>342</v>
       </c>
       <c r="B27" s="1" t="n">
         <v>43012</v>
@@ -8717,7 +8148,7 @@
         <v>83</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>283</v>
+        <v>245</v>
       </c>
       <c r="H27" s="0" t="n">
         <v>1</v>
@@ -8725,7 +8156,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>393</v>
+        <v>343</v>
       </c>
       <c r="B28" s="1" t="n">
         <v>43012</v>
@@ -8751,7 +8182,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>394</v>
+        <v>344</v>
       </c>
       <c r="B29" s="1" t="n">
         <v>43012</v>
@@ -8766,10 +8197,10 @@
         <v>103</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>385</v>
+        <v>335</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="H29" s="0" t="n">
         <v>52</v>
@@ -8818,10 +8249,10 @@
         <v>32</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>277</v>
+        <v>242</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>280</v>
+        <v>243</v>
       </c>
       <c r="H31" s="0" t="n">
         <v>23</v>
@@ -8847,7 +8278,7 @@
         <v>42</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>257</v>
+        <v>229</v>
       </c>
       <c r="H32" s="0" t="n">
         <v>3</v>
@@ -8855,7 +8286,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>395</v>
+        <v>345</v>
       </c>
       <c r="B33" s="1" t="n">
         <v>43012</v>
@@ -8881,7 +8312,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>396</v>
+        <v>346</v>
       </c>
       <c r="B34" s="1" t="n">
         <v>43012</v>
@@ -8907,7 +8338,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>397</v>
+        <v>347</v>
       </c>
       <c r="B35" s="1" t="n">
         <v>43012</v>
@@ -8933,7 +8364,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>398</v>
+        <v>348</v>
       </c>
       <c r="B36" s="1" t="n">
         <v>43012</v>
@@ -8959,7 +8390,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>399</v>
+        <v>349</v>
       </c>
       <c r="B37" s="1" t="n">
         <v>43012</v>
@@ -8985,7 +8416,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="B38" s="1" t="n">
         <v>43012</v>
@@ -9003,7 +8434,7 @@
         <v>42</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>348</v>
+        <v>298</v>
       </c>
       <c r="H38" s="0" t="n">
         <v>1</v>
@@ -9011,7 +8442,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="B39" s="1" t="n">
         <v>43012</v>
@@ -9052,10 +8483,10 @@
         <v>32</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>277</v>
+        <v>242</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>280</v>
+        <v>243</v>
       </c>
       <c r="H40" s="0" t="n">
         <v>4</v>
@@ -9104,10 +8535,10 @@
         <v>103</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>385</v>
+        <v>335</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="H42" s="0" t="n">
         <v>49</v>
@@ -9141,7 +8572,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>402</v>
+        <v>352</v>
       </c>
       <c r="B44" s="1" t="n">
         <v>43012</v>
@@ -9167,7 +8598,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>403</v>
+        <v>353</v>
       </c>
       <c r="B45" s="1" t="n">
         <v>43012</v>
@@ -9208,10 +8639,10 @@
         <v>32</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>277</v>
+        <v>242</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>313</v>
+        <v>269</v>
       </c>
       <c r="H46" s="0" t="n">
         <v>5</v>
@@ -9234,10 +8665,10 @@
         <v>32</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>277</v>
+        <v>242</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>280</v>
+        <v>243</v>
       </c>
       <c r="H47" s="0" t="n">
         <v>5</v>
@@ -9312,10 +8743,10 @@
         <v>103</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>385</v>
+        <v>335</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="H50" s="0" t="n">
         <v>48</v>
@@ -9375,7 +8806,7 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>404</v>
+        <v>354</v>
       </c>
       <c r="B53" s="1" t="n">
         <v>43012</v>
@@ -9390,7 +8821,7 @@
         <v>32</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>405</v>
+        <v>355</v>
       </c>
       <c r="G53" s="0" t="s">
         <v>54</v>
@@ -9453,7 +8884,7 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>406</v>
+        <v>356</v>
       </c>
       <c r="B56" s="1" t="n">
         <v>43012</v>
@@ -9479,7 +8910,7 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>407</v>
+        <v>357</v>
       </c>
       <c r="B57" s="1" t="n">
         <v>43012</v>
@@ -9505,7 +8936,7 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>408</v>
+        <v>358</v>
       </c>
       <c r="B58" s="1" t="n">
         <v>43012</v>
@@ -9531,7 +8962,7 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>409</v>
+        <v>359</v>
       </c>
       <c r="B59" s="1" t="n">
         <v>43012</v>
@@ -9557,7 +8988,7 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>410</v>
+        <v>360</v>
       </c>
       <c r="B60" s="1" t="n">
         <v>43012</v>
@@ -9583,7 +9014,7 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>411</v>
+        <v>361</v>
       </c>
       <c r="B61" s="1" t="n">
         <v>43012</v>
@@ -9609,7 +9040,7 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>412</v>
+        <v>362</v>
       </c>
       <c r="B62" s="1" t="n">
         <v>43012</v>
@@ -9678,7 +9109,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>413</v>
+        <v>363</v>
       </c>
       <c r="E1" s="0" t="s">
         <v>4</v>
@@ -9695,13 +9126,13 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B2" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>1</v>
@@ -9721,13 +9152,13 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B3" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>1</v>
@@ -9736,10 +9167,10 @@
         <v>103</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>385</v>
+        <v>335</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>414</v>
+        <v>364</v>
       </c>
       <c r="H3" s="0" t="n">
         <v>7</v>
@@ -9747,13 +9178,13 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B4" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>1</v>
@@ -9773,25 +9204,25 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>415</v>
+        <v>365</v>
       </c>
       <c r="B5" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="H5" s="0" t="n">
         <v>2</v>
@@ -9799,13 +9230,13 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B6" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>1</v>
@@ -9825,13 +9256,13 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="B7" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>1</v>
@@ -9840,10 +9271,10 @@
         <v>103</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>416</v>
+        <v>366</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>416</v>
+        <v>366</v>
       </c>
       <c r="H7" s="0" t="n">
         <v>1</v>
@@ -9851,13 +9282,13 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="B8" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>1</v>
@@ -9877,13 +9308,13 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>417</v>
+        <v>367</v>
       </c>
       <c r="B9" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>1</v>
@@ -9892,7 +9323,7 @@
         <v>32</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>405</v>
+        <v>355</v>
       </c>
       <c r="G9" s="0" t="s">
         <v>54</v>
@@ -9903,13 +9334,13 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>418</v>
+        <v>368</v>
       </c>
       <c r="B10" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>1</v>
@@ -9929,13 +9360,13 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>419</v>
+        <v>369</v>
       </c>
       <c r="B11" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>1</v>
@@ -9944,10 +9375,10 @@
         <v>99</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="H11" s="0" t="n">
         <v>1</v>
@@ -9955,13 +9386,13 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>420</v>
+        <v>370</v>
       </c>
       <c r="B12" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>1</v>
@@ -9981,13 +9412,13 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>421</v>
+        <v>371</v>
       </c>
       <c r="B13" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>1</v>
@@ -10007,13 +9438,13 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>422</v>
+        <v>372</v>
       </c>
       <c r="B14" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>1</v>
@@ -10022,10 +9453,10 @@
         <v>32</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>423</v>
+        <v>373</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>424</v>
+        <v>374</v>
       </c>
       <c r="H14" s="0" t="n">
         <v>1</v>
@@ -10033,13 +9464,13 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="B15" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>2</v>
@@ -10059,13 +9490,13 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="B16" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>2</v>
@@ -10085,13 +9516,13 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="B17" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>2</v>
@@ -10100,7 +9531,7 @@
         <v>32</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>405</v>
+        <v>355</v>
       </c>
       <c r="G17" s="0" t="s">
         <v>162</v>
@@ -10111,13 +9542,13 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="B18" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>2</v>
@@ -10137,13 +9568,13 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="B19" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D19" s="0" t="n">
         <v>2</v>
@@ -10152,10 +9583,10 @@
         <v>32</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>277</v>
+        <v>242</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>277</v>
+        <v>242</v>
       </c>
       <c r="H19" s="0" t="n">
         <v>1</v>
@@ -10163,13 +9594,13 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="B20" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D20" s="0" t="n">
         <v>2</v>
@@ -10181,7 +9612,7 @@
         <v>42</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>425</v>
+        <v>375</v>
       </c>
       <c r="H20" s="0" t="n">
         <v>2</v>
@@ -10189,13 +9620,13 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>426</v>
+        <v>376</v>
       </c>
       <c r="B21" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>2</v>
@@ -10204,10 +9635,10 @@
         <v>32</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>344</v>
+        <v>294</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>345</v>
+        <v>295</v>
       </c>
       <c r="H21" s="0" t="n">
         <v>1</v>
@@ -10215,13 +9646,13 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>427</v>
+        <v>377</v>
       </c>
       <c r="B22" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D22" s="0" t="n">
         <v>2</v>
@@ -10233,7 +9664,7 @@
         <v>42</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>428</v>
+        <v>378</v>
       </c>
       <c r="H22" s="0" t="n">
         <v>1</v>
@@ -10241,13 +9672,13 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="B23" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D23" s="0" t="n">
         <v>3</v>
@@ -10256,10 +9687,10 @@
         <v>103</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>385</v>
+        <v>335</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="H23" s="0" t="n">
         <v>39</v>
@@ -10267,13 +9698,13 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>236</v>
+        <v>214</v>
       </c>
       <c r="B24" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D24" s="0" t="n">
         <v>3</v>
@@ -10293,13 +9724,13 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>237</v>
+        <v>215</v>
       </c>
       <c r="B25" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D25" s="0" t="n">
         <v>3</v>
@@ -10308,10 +9739,10 @@
         <v>99</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="H25" s="0" t="n">
         <v>1</v>
@@ -10319,13 +9750,13 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>238</v>
+        <v>216</v>
       </c>
       <c r="B26" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D26" s="0" t="n">
         <v>3</v>
@@ -10345,13 +9776,13 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>240</v>
+        <v>218</v>
       </c>
       <c r="B27" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D27" s="0" t="n">
         <v>3</v>
@@ -10360,7 +9791,7 @@
         <v>32</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>405</v>
+        <v>355</v>
       </c>
       <c r="G27" s="0" t="s">
         <v>162</v>
@@ -10371,13 +9802,13 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="B28" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D28" s="0" t="n">
         <v>3</v>
@@ -10389,7 +9820,7 @@
         <v>18</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="H28" s="0" t="n">
         <v>6</v>
@@ -10397,13 +9828,13 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>265</v>
+        <v>233</v>
       </c>
       <c r="B29" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D29" s="0" t="n">
         <v>4</v>
@@ -10412,10 +9843,10 @@
         <v>32</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>277</v>
+        <v>242</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>280</v>
+        <v>243</v>
       </c>
       <c r="H29" s="0" t="n">
         <v>1</v>
@@ -10423,13 +9854,13 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>266</v>
+        <v>234</v>
       </c>
       <c r="B30" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D30" s="0" t="n">
         <v>4</v>
@@ -10441,7 +9872,7 @@
         <v>39</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>272</v>
+        <v>238</v>
       </c>
       <c r="H30" s="0" t="n">
         <v>9</v>
@@ -10449,13 +9880,13 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>267</v>
+        <v>235</v>
       </c>
       <c r="B31" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D31" s="0" t="n">
         <v>4</v>
@@ -10467,7 +9898,7 @@
         <v>33</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>390</v>
+        <v>340</v>
       </c>
       <c r="H31" s="0" t="n">
         <v>5</v>
@@ -10475,13 +9906,13 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="B32" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D32" s="0" t="n">
         <v>4</v>
@@ -10493,7 +9924,7 @@
         <v>18</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="H32" s="0" t="n">
         <v>1</v>
@@ -10501,13 +9932,13 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>269</v>
+        <v>237</v>
       </c>
       <c r="B33" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D33" s="0" t="n">
         <v>4</v>
@@ -10516,10 +9947,10 @@
         <v>103</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>429</v>
+        <v>379</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>383</v>
+        <v>333</v>
       </c>
       <c r="H33" s="0" t="n">
         <v>5</v>
@@ -10527,13 +9958,13 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>276</v>
+        <v>241</v>
       </c>
       <c r="B34" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D34" s="0" t="n">
         <v>4</v>
@@ -10542,10 +9973,10 @@
         <v>103</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>429</v>
+        <v>379</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>430</v>
+        <v>380</v>
       </c>
       <c r="H34" s="0" t="n">
         <v>1</v>
@@ -10553,13 +9984,13 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>284</v>
+        <v>246</v>
       </c>
       <c r="B35" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D35" s="0" t="n">
         <v>4</v>
@@ -10568,7 +9999,7 @@
         <v>32</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>405</v>
+        <v>355</v>
       </c>
       <c r="G35" s="0" t="s">
         <v>54</v>
@@ -10579,13 +10010,13 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>431</v>
+        <v>381</v>
       </c>
       <c r="B36" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D36" s="0" t="n">
         <v>4</v>
@@ -10594,10 +10025,10 @@
         <v>82</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>432</v>
+        <v>382</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>358</v>
+        <v>308</v>
       </c>
       <c r="H36" s="0" t="n">
         <v>3</v>
@@ -10605,13 +10036,13 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>433</v>
+        <v>383</v>
       </c>
       <c r="B37" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D37" s="0" t="n">
         <v>4</v>
@@ -10620,10 +10051,10 @@
         <v>82</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>432</v>
+        <v>382</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>283</v>
+        <v>245</v>
       </c>
       <c r="H37" s="0" t="n">
         <v>2</v>
@@ -10631,13 +10062,13 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>294</v>
+        <v>253</v>
       </c>
       <c r="B38" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D38" s="0" t="n">
         <v>5</v>
@@ -10657,13 +10088,13 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>296</v>
+        <v>255</v>
       </c>
       <c r="B39" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D39" s="0" t="n">
         <v>5</v>
@@ -10672,10 +10103,10 @@
         <v>103</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>385</v>
+        <v>335</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="H39" s="0" t="n">
         <v>2</v>
@@ -10683,13 +10114,13 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>298</v>
+        <v>257</v>
       </c>
       <c r="B40" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D40" s="0" t="n">
         <v>5</v>
@@ -10701,7 +10132,7 @@
         <v>47</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>434</v>
+        <v>384</v>
       </c>
       <c r="H40" s="0" t="n">
         <v>1</v>
@@ -10709,13 +10140,13 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>302</v>
+        <v>259</v>
       </c>
       <c r="B41" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D41" s="0" t="n">
         <v>5</v>
@@ -10727,7 +10158,7 @@
         <v>42</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>257</v>
+        <v>229</v>
       </c>
       <c r="H41" s="0" t="n">
         <v>1</v>
@@ -10735,13 +10166,13 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>304</v>
+        <v>261</v>
       </c>
       <c r="B42" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D42" s="0" t="n">
         <v>5</v>
@@ -10750,10 +10181,10 @@
         <v>32</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>277</v>
+        <v>242</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>277</v>
+        <v>242</v>
       </c>
       <c r="H42" s="0" t="n">
         <v>1</v>
@@ -10761,13 +10192,13 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>308</v>
+        <v>265</v>
       </c>
       <c r="B43" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D43" s="0" t="n">
         <v>5</v>
@@ -10776,7 +10207,7 @@
         <v>32</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>277</v>
+        <v>242</v>
       </c>
       <c r="G43" s="0" t="s">
         <v>37</v>
@@ -10787,13 +10218,13 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>314</v>
+        <v>270</v>
       </c>
       <c r="B44" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D44" s="0" t="n">
         <v>5</v>
@@ -10813,13 +10244,13 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>435</v>
+        <v>385</v>
       </c>
       <c r="B45" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D45" s="0" t="n">
         <v>5</v>
@@ -10828,10 +10259,10 @@
         <v>99</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="H45" s="0" t="n">
         <v>1</v>
@@ -10839,13 +10270,13 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>436</v>
+        <v>386</v>
       </c>
       <c r="B46" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D46" s="0" t="n">
         <v>5</v>
@@ -10865,13 +10296,13 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>437</v>
+        <v>387</v>
       </c>
       <c r="B47" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D47" s="0" t="n">
         <v>5</v>
@@ -10880,7 +10311,7 @@
         <v>32</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>405</v>
+        <v>355</v>
       </c>
       <c r="G47" s="0" t="s">
         <v>162</v>
@@ -10891,13 +10322,13 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>438</v>
+        <v>388</v>
       </c>
       <c r="B48" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D48" s="0" t="n">
         <v>5</v>
@@ -10909,7 +10340,7 @@
         <v>42</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>257</v>
+        <v>229</v>
       </c>
       <c r="H48" s="0" t="n">
         <v>1</v>
@@ -10917,13 +10348,13 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>315</v>
+        <v>271</v>
       </c>
       <c r="B49" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D49" s="0" t="n">
         <v>6</v>
@@ -10932,10 +10363,10 @@
         <v>82</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>432</v>
+        <v>382</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>358</v>
+        <v>308</v>
       </c>
       <c r="H49" s="0" t="n">
         <v>1</v>
@@ -10943,13 +10374,13 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>320</v>
+        <v>274</v>
       </c>
       <c r="B50" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D50" s="0" t="n">
         <v>6</v>
@@ -10961,7 +10392,7 @@
         <v>47</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>434</v>
+        <v>384</v>
       </c>
       <c r="H50" s="0" t="n">
         <v>1</v>
@@ -10969,13 +10400,13 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>324</v>
+        <v>276</v>
       </c>
       <c r="B51" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D51" s="0" t="n">
         <v>6</v>
@@ -10984,7 +10415,7 @@
         <v>32</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>405</v>
+        <v>355</v>
       </c>
       <c r="G51" s="0" t="s">
         <v>54</v>
@@ -10995,13 +10426,13 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>325</v>
+        <v>277</v>
       </c>
       <c r="B52" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D52" s="0" t="n">
         <v>6</v>
@@ -11010,10 +10441,10 @@
         <v>32</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>344</v>
+        <v>294</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>389</v>
+        <v>339</v>
       </c>
       <c r="H52" s="0" t="n">
         <v>1</v>
@@ -11021,13 +10452,13 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>439</v>
+        <v>389</v>
       </c>
       <c r="B53" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D53" s="0" t="n">
         <v>6</v>
@@ -11036,7 +10467,7 @@
         <v>32</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>405</v>
+        <v>355</v>
       </c>
       <c r="G53" s="0" t="s">
         <v>162</v>
@@ -11047,13 +10478,13 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>326</v>
+        <v>278</v>
       </c>
       <c r="B54" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D54" s="0" t="n">
         <v>6</v>
@@ -11062,10 +10493,10 @@
         <v>32</v>
       </c>
       <c r="F54" s="0" t="s">
-        <v>277</v>
+        <v>242</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>313</v>
+        <v>269</v>
       </c>
       <c r="H54" s="0" t="n">
         <v>1</v>
@@ -11073,13 +10504,13 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>327</v>
+        <v>279</v>
       </c>
       <c r="B55" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D55" s="0" t="n">
         <v>6</v>
@@ -11099,13 +10530,13 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>329</v>
+        <v>281</v>
       </c>
       <c r="B56" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D56" s="0" t="n">
         <v>6</v>
@@ -11114,10 +10545,10 @@
         <v>103</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>385</v>
+        <v>335</v>
       </c>
       <c r="G56" s="0" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="H56" s="0" t="n">
         <v>67</v>
@@ -11125,13 +10556,13 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>330</v>
+        <v>282</v>
       </c>
       <c r="B57" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D57" s="0" t="n">
         <v>6</v>
@@ -11140,10 +10571,10 @@
         <v>32</v>
       </c>
       <c r="F57" s="0" t="s">
-        <v>423</v>
+        <v>373</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>424</v>
+        <v>374</v>
       </c>
       <c r="H57" s="0" t="n">
         <v>1</v>
@@ -11151,13 +10582,13 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>331</v>
+        <v>283</v>
       </c>
       <c r="B58" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D58" s="0" t="n">
         <v>6</v>
@@ -11177,13 +10608,13 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>337</v>
+        <v>287</v>
       </c>
       <c r="B59" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D59" s="0" t="n">
         <v>6</v>
@@ -11195,7 +10626,7 @@
         <v>18</v>
       </c>
       <c r="G59" s="0" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="H59" s="0" t="n">
         <v>25</v>
@@ -11203,13 +10634,13 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>338</v>
+        <v>288</v>
       </c>
       <c r="B60" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D60" s="0" t="n">
         <v>6</v>
@@ -11229,13 +10660,13 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>340</v>
+        <v>290</v>
       </c>
       <c r="B61" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D61" s="0" t="n">
         <v>6</v>
@@ -11244,10 +10675,10 @@
         <v>32</v>
       </c>
       <c r="F61" s="0" t="s">
-        <v>423</v>
+        <v>373</v>
       </c>
       <c r="G61" s="0" t="s">
-        <v>424</v>
+        <v>374</v>
       </c>
       <c r="H61" s="0" t="n">
         <v>1</v>
@@ -11255,13 +10686,13 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>341</v>
+        <v>291</v>
       </c>
       <c r="B62" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D62" s="0" t="n">
         <v>6</v>
@@ -11270,10 +10701,10 @@
         <v>103</v>
       </c>
       <c r="F62" s="0" t="s">
-        <v>385</v>
+        <v>335</v>
       </c>
       <c r="G62" s="0" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="H62" s="0" t="n">
         <v>2</v>

--- a/data/microscopy/microscopy.xlsx
+++ b/data/microscopy/microscopy.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="GW-May" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1818" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1818" uniqueCount="389">
   <si>
     <t xml:space="preserve">TUBE ID</t>
   </si>
@@ -1114,9 +1114,6 @@
   </si>
   <si>
     <t xml:space="preserve">WB628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SITE</t>
   </si>
   <si>
     <t xml:space="preserve">Corphium_sp.</t>
@@ -3946,7 +3943,7 @@
   </sheetPr>
   <dimension ref="A1:H82"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
     </sheetView>
   </sheetViews>
@@ -9082,8 +9079,8 @@
   </sheetPr>
   <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I7" activeCellId="0" sqref="I7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9109,7 +9106,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>363</v>
+        <v>3</v>
       </c>
       <c r="E1" s="0" t="s">
         <v>4</v>
@@ -9170,7 +9167,7 @@
         <v>335</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H3" s="0" t="n">
         <v>7</v>
@@ -9204,7 +9201,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B5" s="4" t="n">
         <v>43012</v>
@@ -9271,10 +9268,10 @@
         <v>103</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H7" s="0" t="n">
         <v>1</v>
@@ -9308,7 +9305,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B9" s="4" t="n">
         <v>43012</v>
@@ -9334,7 +9331,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B10" s="4" t="n">
         <v>43012</v>
@@ -9360,7 +9357,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B11" s="4" t="n">
         <v>43012</v>
@@ -9386,7 +9383,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B12" s="4" t="n">
         <v>43012</v>
@@ -9412,7 +9409,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B13" s="4" t="n">
         <v>43012</v>
@@ -9438,25 +9435,25 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
+        <v>371</v>
+      </c>
+      <c r="B14" s="4" t="n">
+        <v>43012</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="0" t="s">
         <v>372</v>
       </c>
-      <c r="B14" s="4" t="n">
-        <v>43012</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>179</v>
-      </c>
-      <c r="D14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" s="0" t="s">
+      <c r="G14" s="0" t="s">
         <v>373</v>
-      </c>
-      <c r="G14" s="0" t="s">
-        <v>374</v>
       </c>
       <c r="H14" s="0" t="n">
         <v>1</v>
@@ -9612,7 +9609,7 @@
         <v>42</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H20" s="0" t="n">
         <v>2</v>
@@ -9620,7 +9617,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B21" s="4" t="n">
         <v>43012</v>
@@ -9646,7 +9643,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B22" s="4" t="n">
         <v>43012</v>
@@ -9664,7 +9661,7 @@
         <v>42</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H22" s="0" t="n">
         <v>1</v>
@@ -9947,7 +9944,7 @@
         <v>103</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G33" s="0" t="s">
         <v>333</v>
@@ -9973,10 +9970,10 @@
         <v>103</v>
       </c>
       <c r="F34" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="G34" s="0" t="s">
         <v>379</v>
-      </c>
-      <c r="G34" s="0" t="s">
-        <v>380</v>
       </c>
       <c r="H34" s="0" t="n">
         <v>1</v>
@@ -10010,7 +10007,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B36" s="4" t="n">
         <v>43012</v>
@@ -10025,7 +10022,7 @@
         <v>82</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G36" s="0" t="s">
         <v>308</v>
@@ -10036,7 +10033,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B37" s="4" t="n">
         <v>43012</v>
@@ -10051,7 +10048,7 @@
         <v>82</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G37" s="0" t="s">
         <v>245</v>
@@ -10132,7 +10129,7 @@
         <v>47</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H40" s="0" t="n">
         <v>1</v>
@@ -10244,7 +10241,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B45" s="4" t="n">
         <v>43012</v>
@@ -10270,7 +10267,7 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B46" s="4" t="n">
         <v>43012</v>
@@ -10296,7 +10293,7 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B47" s="4" t="n">
         <v>43012</v>
@@ -10322,7 +10319,7 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B48" s="4" t="n">
         <v>43012</v>
@@ -10363,7 +10360,7 @@
         <v>82</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G49" s="0" t="s">
         <v>308</v>
@@ -10392,7 +10389,7 @@
         <v>47</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H50" s="0" t="n">
         <v>1</v>
@@ -10452,7 +10449,7 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B53" s="4" t="n">
         <v>43012</v>
@@ -10571,10 +10568,10 @@
         <v>32</v>
       </c>
       <c r="F57" s="0" t="s">
+        <v>372</v>
+      </c>
+      <c r="G57" s="0" t="s">
         <v>373</v>
-      </c>
-      <c r="G57" s="0" t="s">
-        <v>374</v>
       </c>
       <c r="H57" s="0" t="n">
         <v>1</v>
@@ -10675,10 +10672,10 @@
         <v>32</v>
       </c>
       <c r="F61" s="0" t="s">
+        <v>372</v>
+      </c>
+      <c r="G61" s="0" t="s">
         <v>373</v>
-      </c>
-      <c r="G61" s="0" t="s">
-        <v>374</v>
       </c>
       <c r="H61" s="0" t="n">
         <v>1</v>

--- a/data/microscopy/microscopy.xlsx
+++ b/data/microscopy/microscopy.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="GW-May" sheetId="1" state="visible" r:id="rId2"/>
@@ -1321,7 +1321,7 @@
   </sheetPr>
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A33" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -6110,15 +6110,16 @@
   </sheetPr>
   <dimension ref="A1:H56"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K10" activeCellId="0" sqref="K10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E41" activeCellId="0" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="10.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="22.67"/>
@@ -6161,6 +6162,9 @@
       <c r="C2" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="D2" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="E2" s="0" t="s">
         <v>32</v>
       </c>
@@ -6184,6 +6188,9 @@
       <c r="C3" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="D3" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="E3" s="0" t="s">
         <v>32</v>
       </c>
@@ -6207,6 +6214,9 @@
       <c r="C4" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="D4" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="E4" s="0" t="s">
         <v>32</v>
       </c>
@@ -6230,6 +6240,9 @@
       <c r="C5" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="D5" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="E5" s="0" t="s">
         <v>10</v>
       </c>
@@ -6253,6 +6266,9 @@
       <c r="C6" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="D6" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="E6" s="0" t="s">
         <v>32</v>
       </c>
@@ -6276,6 +6292,9 @@
       <c r="C7" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="D7" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="E7" s="0" t="s">
         <v>103</v>
       </c>
@@ -6299,6 +6318,9 @@
       <c r="C8" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="D8" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="E8" s="0" t="s">
         <v>103</v>
       </c>
@@ -6322,6 +6344,9 @@
       <c r="C9" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="D9" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="E9" s="0" t="s">
         <v>103</v>
       </c>
@@ -6345,6 +6370,9 @@
       <c r="C10" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="D10" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="E10" s="0" t="s">
         <v>103</v>
       </c>
@@ -6368,6 +6396,9 @@
       <c r="C11" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="D11" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="E11" s="0" t="s">
         <v>32</v>
       </c>
@@ -6391,6 +6422,9 @@
       <c r="C12" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="D12" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="E12" s="0" t="s">
         <v>32</v>
       </c>
@@ -6414,6 +6448,9 @@
       <c r="C13" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="D13" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="E13" s="0" t="s">
         <v>82</v>
       </c>
@@ -6437,6 +6474,9 @@
       <c r="C14" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="D14" s="0" t="n">
+        <v>2</v>
+      </c>
       <c r="E14" s="0" t="s">
         <v>10</v>
       </c>
@@ -6460,6 +6500,9 @@
       <c r="C15" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="D15" s="0" t="n">
+        <v>2</v>
+      </c>
       <c r="E15" s="0" t="s">
         <v>103</v>
       </c>
@@ -6483,6 +6526,9 @@
       <c r="C16" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="D16" s="0" t="n">
+        <v>2</v>
+      </c>
       <c r="E16" s="0" t="s">
         <v>82</v>
       </c>
@@ -6506,6 +6552,9 @@
       <c r="C17" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="D17" s="0" t="n">
+        <v>2</v>
+      </c>
       <c r="E17" s="0" t="s">
         <v>82</v>
       </c>
@@ -6529,6 +6578,9 @@
       <c r="C18" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="D18" s="0" t="n">
+        <v>2</v>
+      </c>
       <c r="E18" s="0" t="s">
         <v>32</v>
       </c>
@@ -6552,6 +6604,9 @@
       <c r="C19" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="D19" s="0" t="n">
+        <v>2</v>
+      </c>
       <c r="E19" s="0" t="s">
         <v>32</v>
       </c>
@@ -6575,6 +6630,9 @@
       <c r="C20" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="D20" s="0" t="n">
+        <v>2</v>
+      </c>
       <c r="E20" s="0" t="s">
         <v>32</v>
       </c>
@@ -6598,6 +6656,9 @@
       <c r="C21" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="D21" s="0" t="n">
+        <v>2</v>
+      </c>
       <c r="E21" s="0" t="s">
         <v>32</v>
       </c>
@@ -6621,6 +6682,9 @@
       <c r="C22" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="D22" s="0" t="n">
+        <v>2</v>
+      </c>
       <c r="E22" s="0" t="s">
         <v>60</v>
       </c>
@@ -6644,6 +6708,9 @@
       <c r="C23" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="D23" s="0" t="n">
+        <v>2</v>
+      </c>
       <c r="E23" s="0" t="s">
         <v>198</v>
       </c>
@@ -6667,6 +6734,9 @@
       <c r="C24" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="D24" s="0" t="n">
+        <v>2</v>
+      </c>
       <c r="E24" s="0" t="s">
         <v>103</v>
       </c>
@@ -6690,6 +6760,9 @@
       <c r="C25" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="D25" s="0" t="n">
+        <v>2</v>
+      </c>
       <c r="E25" s="0" t="s">
         <v>103</v>
       </c>
@@ -6713,6 +6786,9 @@
       <c r="C26" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="D26" s="0" t="n">
+        <v>2</v>
+      </c>
       <c r="E26" s="0" t="s">
         <v>103</v>
       </c>
@@ -6736,6 +6812,9 @@
       <c r="C27" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="D27" s="0" t="n">
+        <v>2</v>
+      </c>
       <c r="E27" s="0" t="s">
         <v>103</v>
       </c>
@@ -6759,6 +6838,9 @@
       <c r="C28" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="D28" s="0" t="n">
+        <v>3</v>
+      </c>
       <c r="E28" s="0" t="s">
         <v>82</v>
       </c>
@@ -6782,6 +6864,9 @@
       <c r="C29" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="D29" s="0" t="n">
+        <v>3</v>
+      </c>
       <c r="E29" s="0" t="s">
         <v>60</v>
       </c>
@@ -6805,6 +6890,9 @@
       <c r="C30" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="D30" s="0" t="n">
+        <v>3</v>
+      </c>
       <c r="E30" s="0" t="s">
         <v>82</v>
       </c>
@@ -6828,6 +6916,9 @@
       <c r="C31" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="D31" s="0" t="n">
+        <v>3</v>
+      </c>
       <c r="E31" s="0" t="s">
         <v>10</v>
       </c>
@@ -6851,6 +6942,9 @@
       <c r="C32" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="D32" s="0" t="n">
+        <v>3</v>
+      </c>
       <c r="E32" s="0" t="s">
         <v>103</v>
       </c>
@@ -6874,6 +6968,9 @@
       <c r="C33" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="D33" s="0" t="n">
+        <v>3</v>
+      </c>
       <c r="E33" s="0" t="s">
         <v>32</v>
       </c>
@@ -6897,6 +6994,9 @@
       <c r="C34" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="D34" s="0" t="n">
+        <v>3</v>
+      </c>
       <c r="E34" s="0" t="s">
         <v>99</v>
       </c>
@@ -6920,6 +7020,9 @@
       <c r="C35" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="D35" s="0" t="n">
+        <v>3</v>
+      </c>
       <c r="E35" s="0" t="s">
         <v>103</v>
       </c>
@@ -6943,6 +7046,9 @@
       <c r="C36" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="D36" s="0" t="n">
+        <v>3</v>
+      </c>
       <c r="E36" s="0" t="s">
         <v>51</v>
       </c>
@@ -6966,6 +7072,9 @@
       <c r="C37" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="D37" s="0" t="n">
+        <v>3</v>
+      </c>
       <c r="E37" s="0" t="s">
         <v>10</v>
       </c>
@@ -6989,6 +7098,9 @@
       <c r="C38" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="D38" s="0" t="n">
+        <v>3</v>
+      </c>
       <c r="E38" s="0" t="s">
         <v>32</v>
       </c>
@@ -7012,6 +7124,9 @@
       <c r="C39" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="D39" s="0" t="n">
+        <v>3</v>
+      </c>
       <c r="E39" s="0" t="s">
         <v>103</v>
       </c>
@@ -7035,6 +7150,9 @@
       <c r="C40" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="D40" s="0" t="n">
+        <v>3</v>
+      </c>
       <c r="E40" s="0" t="s">
         <v>32</v>
       </c>
@@ -7058,6 +7176,9 @@
       <c r="C41" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="D41" s="0" t="n">
+        <v>3</v>
+      </c>
       <c r="E41" s="0" t="s">
         <v>23</v>
       </c>
@@ -7081,6 +7202,9 @@
       <c r="C42" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="D42" s="0" t="n">
+        <v>4</v>
+      </c>
       <c r="E42" s="0" t="s">
         <v>51</v>
       </c>
@@ -7104,6 +7228,9 @@
       <c r="C43" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="D43" s="0" t="n">
+        <v>4</v>
+      </c>
       <c r="E43" s="0" t="s">
         <v>32</v>
       </c>
@@ -7127,6 +7254,9 @@
       <c r="C44" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="D44" s="0" t="n">
+        <v>4</v>
+      </c>
       <c r="E44" s="0" t="s">
         <v>32</v>
       </c>
@@ -7150,6 +7280,9 @@
       <c r="C45" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="D45" s="0" t="n">
+        <v>4</v>
+      </c>
       <c r="E45" s="0" t="s">
         <v>32</v>
       </c>
@@ -7173,6 +7306,9 @@
       <c r="C46" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="D46" s="0" t="n">
+        <v>4</v>
+      </c>
       <c r="E46" s="0" t="s">
         <v>32</v>
       </c>
@@ -7196,6 +7332,9 @@
       <c r="C47" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="D47" s="0" t="n">
+        <v>4</v>
+      </c>
       <c r="E47" s="0" t="s">
         <v>132</v>
       </c>
@@ -7219,6 +7358,9 @@
       <c r="C48" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="D48" s="0" t="n">
+        <v>4</v>
+      </c>
       <c r="E48" s="0" t="s">
         <v>103</v>
       </c>
@@ -7242,6 +7384,9 @@
       <c r="C49" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="D49" s="0" t="n">
+        <v>4</v>
+      </c>
       <c r="E49" s="0" t="s">
         <v>103</v>
       </c>
@@ -7265,6 +7410,9 @@
       <c r="C50" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="D50" s="0" t="n">
+        <v>4</v>
+      </c>
       <c r="E50" s="0" t="s">
         <v>60</v>
       </c>
@@ -7288,6 +7436,9 @@
       <c r="C51" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="D51" s="0" t="n">
+        <v>6</v>
+      </c>
       <c r="E51" s="0" t="s">
         <v>32</v>
       </c>
@@ -7311,6 +7462,9 @@
       <c r="C52" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="D52" s="0" t="n">
+        <v>6</v>
+      </c>
       <c r="E52" s="0" t="s">
         <v>32</v>
       </c>
@@ -7334,6 +7488,9 @@
       <c r="C53" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="D53" s="0" t="n">
+        <v>6</v>
+      </c>
       <c r="E53" s="0" t="s">
         <v>23</v>
       </c>
@@ -7357,6 +7514,9 @@
       <c r="C54" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="D54" s="0" t="n">
+        <v>6</v>
+      </c>
       <c r="E54" s="0" t="s">
         <v>82</v>
       </c>
@@ -7380,6 +7540,9 @@
       <c r="C55" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="D55" s="0" t="n">
+        <v>6</v>
+      </c>
       <c r="E55" s="0" t="s">
         <v>103</v>
       </c>
@@ -7402,6 +7565,9 @@
       </c>
       <c r="C56" s="0" t="s">
         <v>9</v>
+      </c>
+      <c r="D56" s="0" t="n">
+        <v>6</v>
       </c>
       <c r="E56" s="0" t="s">
         <v>103</v>
@@ -9079,7 +9245,7 @@
   </sheetPr>
   <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>

--- a/data/microscopy/microscopy.xlsx
+++ b/data/microscopy/microscopy.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="GW-May" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,9 +25,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1957" uniqueCount="441">
-  <si>
-    <t xml:space="preserve">TUBE_ID</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1818" uniqueCount="389">
+  <si>
+    <t xml:space="preserve">TUBE ID</t>
   </si>
   <si>
     <t xml:space="preserve">DATE</t>
@@ -315,9 +315,6 @@
     <t xml:space="preserve">Eurycercus_sp.</t>
   </si>
   <si>
-    <t xml:space="preserve">TUBE ID</t>
-  </si>
-  <si>
     <t xml:space="preserve">WB101</t>
   </si>
   <si>
@@ -564,24 +561,12 @@
     <t xml:space="preserve">WB618</t>
   </si>
   <si>
-    <t xml:space="preserve">GENUS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPECIES</t>
-  </si>
-  <si>
     <t xml:space="preserve">RB101</t>
   </si>
   <si>
     <t xml:space="preserve">RB</t>
   </si>
   <si>
-    <t xml:space="preserve">Caenis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">robusta</t>
-  </si>
-  <si>
     <t xml:space="preserve">RB102</t>
   </si>
   <si>
@@ -594,12 +579,6 @@
     <t xml:space="preserve">Unionidae</t>
   </si>
   <si>
-    <t xml:space="preserve">Unio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pictorum</t>
-  </si>
-  <si>
     <t xml:space="preserve">Unio_pictorum</t>
   </si>
   <si>
@@ -615,33 +594,15 @@
     <t xml:space="preserve">RB108</t>
   </si>
   <si>
-    <t xml:space="preserve">Corophium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Corophium_sp.</t>
   </si>
   <si>
     <t xml:space="preserve">RB109</t>
   </si>
   <si>
-    <t xml:space="preserve">Asellus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aquaticus</t>
-  </si>
-  <si>
     <t xml:space="preserve">RB110</t>
   </si>
   <si>
-    <t xml:space="preserve">Gammarus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zaddachi</t>
-  </si>
-  <si>
     <t xml:space="preserve">Gammarus_zaddachi</t>
   </si>
   <si>
@@ -651,12 +612,6 @@
     <t xml:space="preserve">RB112</t>
   </si>
   <si>
-    <t xml:space="preserve">Chelicorphium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">curvispinum</t>
-  </si>
-  <si>
     <t xml:space="preserve">Chelicorphium_curvispinum</t>
   </si>
   <si>
@@ -672,9 +627,6 @@
     <t xml:space="preserve">Limnesiidae</t>
   </si>
   <si>
-    <t xml:space="preserve">Limnesia</t>
-  </si>
-  <si>
     <t xml:space="preserve">Limnesia_sp.</t>
   </si>
   <si>
@@ -693,33 +645,18 @@
     <t xml:space="preserve">RB207</t>
   </si>
   <si>
-    <t xml:space="preserve">Oecetis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lacustris</t>
-  </si>
-  <si>
     <t xml:space="preserve">Oecetis_lacustris</t>
   </si>
   <si>
     <t xml:space="preserve">RB208</t>
   </si>
   <si>
-    <t xml:space="preserve">Pisidium</t>
-  </si>
-  <si>
     <t xml:space="preserve">RB209</t>
   </si>
   <si>
     <t xml:space="preserve">RB210</t>
   </si>
   <si>
-    <t xml:space="preserve">Valvata</t>
-  </si>
-  <si>
-    <t xml:space="preserve">piscinalis</t>
-  </si>
-  <si>
     <t xml:space="preserve">RB301</t>
   </si>
   <si>
@@ -729,12 +666,6 @@
     <t xml:space="preserve">Ecnomidae</t>
   </si>
   <si>
-    <t xml:space="preserve">Ecnomus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tenellus</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ecnomus_tenellus</t>
   </si>
   <si>
@@ -768,12 +699,6 @@
     <t xml:space="preserve">RB311</t>
   </si>
   <si>
-    <t xml:space="preserve">Ceraclea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">senilis</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ceraclea_senilis</t>
   </si>
   <si>
@@ -786,42 +711,18 @@
     <t xml:space="preserve">RB314</t>
   </si>
   <si>
-    <t xml:space="preserve">Dreissena</t>
-  </si>
-  <si>
-    <t xml:space="preserve">polymorpha</t>
-  </si>
-  <si>
     <t xml:space="preserve">RB315</t>
   </si>
   <si>
-    <t xml:space="preserve">Lymnea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stagnalis</t>
-  </si>
-  <si>
     <t xml:space="preserve">Lymnea_stagnalis</t>
   </si>
   <si>
     <t xml:space="preserve">RB316</t>
   </si>
   <si>
-    <t xml:space="preserve">Theodoxus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fluviatilis</t>
-  </si>
-  <si>
     <t xml:space="preserve">RB317</t>
   </si>
   <si>
-    <t xml:space="preserve">Bithynia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tentaculata</t>
-  </si>
-  <si>
     <t xml:space="preserve">RB318</t>
   </si>
   <si>
@@ -840,21 +741,12 @@
     <t xml:space="preserve">RB405</t>
   </si>
   <si>
-    <t xml:space="preserve">Planorbis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">contortus</t>
-  </si>
-  <si>
     <t xml:space="preserve">Planorbis_contortus</t>
   </si>
   <si>
     <t xml:space="preserve">RB405-B</t>
   </si>
   <si>
-    <t xml:space="preserve">Segmentina</t>
-  </si>
-  <si>
     <t xml:space="preserve">Segmentina_sp.</t>
   </si>
   <si>
@@ -864,33 +756,18 @@
     <t xml:space="preserve">Hydrobiidae</t>
   </si>
   <si>
-    <t xml:space="preserve">Potamopyrgus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jenkinsi</t>
-  </si>
-  <si>
     <t xml:space="preserve">Potamopyrgus_jenkinsi</t>
   </si>
   <si>
     <t xml:space="preserve">RB407</t>
   </si>
   <si>
-    <t xml:space="preserve">Helobdella</t>
-  </si>
-  <si>
     <t xml:space="preserve">Helobdella_stagnalis</t>
   </si>
   <si>
     <t xml:space="preserve">RB408</t>
   </si>
   <si>
-    <t xml:space="preserve">Glossiphonia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">heteroclita</t>
-  </si>
-  <si>
     <t xml:space="preserve">Glossiphonia_heteroclita</t>
   </si>
   <si>
@@ -903,9 +780,6 @@
     <t xml:space="preserve">Elmidae</t>
   </si>
   <si>
-    <t xml:space="preserve">Limnius</t>
-  </si>
-  <si>
     <t xml:space="preserve">Limnius_sp.</t>
   </si>
   <si>
@@ -927,12 +801,6 @@
     <t xml:space="preserve">RB506</t>
   </si>
   <si>
-    <t xml:space="preserve">Lymnaea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">truncatula</t>
-  </si>
-  <si>
     <t xml:space="preserve">Lymnaea_truncatula</t>
   </si>
   <si>
@@ -957,9 +825,6 @@
     <t xml:space="preserve">RB511</t>
   </si>
   <si>
-    <t xml:space="preserve">auricolaria</t>
-  </si>
-  <si>
     <t xml:space="preserve">Lymnaea_auricolaria</t>
   </si>
   <si>
@@ -981,24 +846,12 @@
     <t xml:space="preserve">Nepidae</t>
   </si>
   <si>
-    <t xml:space="preserve">Nepa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cinerea</t>
-  </si>
-  <si>
     <t xml:space="preserve">Nepa_cinerea</t>
   </si>
   <si>
     <t xml:space="preserve">RB602</t>
   </si>
   <si>
-    <t xml:space="preserve">Notonecta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">glauca</t>
-  </si>
-  <si>
     <t xml:space="preserve">Notonecta_glauca</t>
   </si>
   <si>
@@ -1026,12 +879,6 @@
     <t xml:space="preserve">RB611</t>
   </si>
   <si>
-    <t xml:space="preserve">Placobdella</t>
-  </si>
-  <si>
-    <t xml:space="preserve">costata</t>
-  </si>
-  <si>
     <t xml:space="preserve">Placobdella_costata</t>
   </si>
   <si>
@@ -1267,9 +1114,6 @@
   </si>
   <si>
     <t xml:space="preserve">WB628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SITE</t>
   </si>
   <si>
     <t xml:space="preserve">Corphium_sp.</t>
@@ -1477,18 +1321,19 @@
   </sheetPr>
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A33" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="10.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="23.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="23.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="8.52"/>
   </cols>
   <sheetData>
@@ -2698,7 +2543,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>1</v>
@@ -2724,13 +2569,13 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>1</v>
@@ -2750,25 +2595,25 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>42873</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="B3" s="1" t="n">
-        <v>42873</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" s="0" t="s">
+      <c r="F3" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="G3" s="0" t="s">
         <v>101</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>102</v>
       </c>
       <c r="H3" s="0" t="n">
         <v>1</v>
@@ -2776,19 +2621,19 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>42873</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>103</v>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>42873</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>104</v>
       </c>
       <c r="F4" s="0" t="s">
         <v>18</v>
@@ -2802,25 +2647,25 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F5" s="0" t="s">
         <v>18</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H5" s="0" t="n">
         <v>2</v>
@@ -2828,19 +2673,19 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F6" s="0" t="s">
         <v>18</v>
@@ -2854,19 +2699,19 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F7" s="0" t="s">
         <v>18</v>
@@ -2880,13 +2725,13 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>1</v>
@@ -2906,13 +2751,13 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>1</v>
@@ -2924,7 +2769,7 @@
         <v>47</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H9" s="0" t="n">
         <v>1</v>
@@ -2932,25 +2777,25 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>42873</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="0" t="s">
         <v>112</v>
       </c>
-      <c r="B10" s="1" t="n">
-        <v>42873</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="0" t="s">
+      <c r="G10" s="0" t="s">
         <v>113</v>
-      </c>
-      <c r="G10" s="0" t="s">
-        <v>114</v>
       </c>
       <c r="H10" s="0" t="n">
         <v>3</v>
@@ -2958,25 +2803,25 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>42873</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="B11" s="1" t="n">
-        <v>42873</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" s="0" t="s">
+      <c r="G11" s="0" t="s">
         <v>116</v>
-      </c>
-      <c r="G11" s="0" t="s">
-        <v>117</v>
       </c>
       <c r="H11" s="0" t="n">
         <v>1</v>
@@ -2984,22 +2829,22 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>42873</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="0" t="s">
         <v>118</v>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>42873</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12" s="0" t="s">
-        <v>119</v>
       </c>
       <c r="G12" s="0" t="s">
         <v>43</v>
@@ -3010,25 +2855,25 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F13" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="G13" s="0" t="s">
         <v>121</v>
-      </c>
-      <c r="G13" s="0" t="s">
-        <v>122</v>
       </c>
       <c r="H13" s="0" t="n">
         <v>2</v>
@@ -3036,19 +2881,19 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F14" s="0" t="s">
         <v>18</v>
@@ -3062,13 +2907,13 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B15" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>2</v>
@@ -3077,10 +2922,10 @@
         <v>32</v>
       </c>
       <c r="F15" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="G15" s="0" t="s">
         <v>113</v>
-      </c>
-      <c r="G15" s="0" t="s">
-        <v>114</v>
       </c>
       <c r="H15" s="0" t="n">
         <v>1</v>
@@ -3088,13 +2933,13 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B16" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>2</v>
@@ -3103,10 +2948,10 @@
         <v>32</v>
       </c>
       <c r="F16" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="G16" s="0" t="s">
         <v>116</v>
-      </c>
-      <c r="G16" s="0" t="s">
-        <v>117</v>
       </c>
       <c r="H16" s="0" t="n">
         <v>1</v>
@@ -3114,13 +2959,13 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B17" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>2</v>
@@ -3140,19 +2985,19 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B18" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>3</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F18" s="0" t="s">
         <v>18</v>
@@ -3166,13 +3011,13 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B19" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D19" s="0" t="n">
         <v>3</v>
@@ -3181,10 +3026,10 @@
         <v>32</v>
       </c>
       <c r="F19" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="G19" s="0" t="s">
         <v>116</v>
-      </c>
-      <c r="G19" s="0" t="s">
-        <v>117</v>
       </c>
       <c r="H19" s="0" t="n">
         <v>2</v>
@@ -3192,13 +3037,13 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B20" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D20" s="0" t="n">
         <v>3</v>
@@ -3218,13 +3063,13 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B21" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>3</v>
@@ -3233,10 +3078,10 @@
         <v>10</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H21" s="0" t="n">
         <v>9</v>
@@ -3244,25 +3089,25 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B22" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D22" s="0" t="n">
         <v>3</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H22" s="0" t="n">
         <v>3</v>
@@ -3270,13 +3115,13 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B23" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D23" s="0" t="n">
         <v>3</v>
@@ -3288,7 +3133,7 @@
         <v>61</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H23" s="0" t="n">
         <v>10</v>
@@ -3296,13 +3141,13 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B24" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D24" s="0" t="n">
         <v>3</v>
@@ -3311,10 +3156,10 @@
         <v>60</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H24" s="0" t="n">
         <v>1</v>
@@ -3322,13 +3167,13 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B25" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D25" s="0" t="n">
         <v>3</v>
@@ -3348,19 +3193,19 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B26" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D26" s="0" t="n">
         <v>4</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F26" s="0" t="s">
         <v>18</v>
@@ -3374,13 +3219,13 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B27" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D27" s="0" t="n">
         <v>4</v>
@@ -3400,13 +3245,13 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B28" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D28" s="0" t="n">
         <v>4</v>
@@ -3415,10 +3260,10 @@
         <v>10</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H28" s="0" t="n">
         <v>13</v>
@@ -3426,13 +3271,13 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B29" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D29" s="0" t="n">
         <v>4</v>
@@ -3444,7 +3289,7 @@
         <v>61</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H29" s="0" t="n">
         <v>1</v>
@@ -3452,25 +3297,25 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B30" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D30" s="0" t="n">
         <v>4</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F30" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="G30" s="0" t="s">
         <v>121</v>
-      </c>
-      <c r="G30" s="0" t="s">
-        <v>122</v>
       </c>
       <c r="H30" s="0" t="n">
         <v>1</v>
@@ -3478,19 +3323,19 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B31" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D31" s="0" t="n">
         <v>4</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F31" s="0" t="s">
         <v>18</v>
@@ -3504,19 +3349,19 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B32" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D32" s="0" t="n">
         <v>4</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F32" s="0" t="s">
         <v>18</v>
@@ -3530,19 +3375,19 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B33" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D33" s="0" t="n">
         <v>5</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F33" s="0" t="s">
         <v>18</v>
@@ -3556,13 +3401,13 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B34" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D34" s="0" t="n">
         <v>5</v>
@@ -3582,13 +3427,13 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B35" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D35" s="0" t="n">
         <v>5</v>
@@ -3600,7 +3445,7 @@
         <v>61</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H35" s="0" t="n">
         <v>10</v>
@@ -3608,13 +3453,13 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B36" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D36" s="0" t="n">
         <v>5</v>
@@ -3634,13 +3479,13 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B37" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D37" s="0" t="n">
         <v>5</v>
@@ -3649,10 +3494,10 @@
         <v>10</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H37" s="0" t="n">
         <v>1</v>
@@ -3660,13 +3505,13 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B38" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D38" s="0" t="n">
         <v>5</v>
@@ -3675,10 +3520,10 @@
         <v>10</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H38" s="0" t="n">
         <v>3</v>
@@ -3686,19 +3531,19 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B39" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D39" s="0" t="n">
         <v>6</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F39" s="0" t="s">
         <v>18</v>
@@ -3712,25 +3557,25 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B40" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D40" s="0" t="n">
         <v>6</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H40" s="0" t="n">
         <v>2</v>
@@ -3738,13 +3583,13 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B41" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D41" s="0" t="n">
         <v>6</v>
@@ -3764,13 +3609,13 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B42" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D42" s="0" t="n">
         <v>6</v>
@@ -3782,7 +3627,7 @@
         <v>61</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H42" s="0" t="n">
         <v>143</v>
@@ -3790,13 +3635,13 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B43" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D43" s="0" t="n">
         <v>6</v>
@@ -3808,7 +3653,7 @@
         <v>69</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H43" s="0" t="n">
         <v>1</v>
@@ -3816,13 +3661,13 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B44" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D44" s="0" t="n">
         <v>6</v>
@@ -3842,13 +3687,13 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B45" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D45" s="0" t="n">
         <v>6</v>
@@ -3857,10 +3702,10 @@
         <v>32</v>
       </c>
       <c r="F45" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="G45" s="0" t="s">
         <v>162</v>
-      </c>
-      <c r="G45" s="0" t="s">
-        <v>163</v>
       </c>
       <c r="H45" s="0" t="n">
         <v>1</v>
@@ -3868,25 +3713,25 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B46" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D46" s="0" t="n">
         <v>6</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H46" s="0" t="n">
         <v>1</v>
@@ -3894,13 +3739,13 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B47" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D47" s="0" t="n">
         <v>6</v>
@@ -3909,10 +3754,10 @@
         <v>32</v>
       </c>
       <c r="F47" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="G47" s="0" t="s">
         <v>116</v>
-      </c>
-      <c r="G47" s="0" t="s">
-        <v>117</v>
       </c>
       <c r="H47" s="0" t="n">
         <v>1</v>
@@ -3920,13 +3765,13 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B48" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D48" s="0" t="n">
         <v>6</v>
@@ -3935,10 +3780,10 @@
         <v>46</v>
       </c>
       <c r="F48" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="G48" s="0" t="s">
         <v>168</v>
-      </c>
-      <c r="G48" s="0" t="s">
-        <v>169</v>
       </c>
       <c r="H48" s="0" t="n">
         <v>1</v>
@@ -3946,13 +3791,13 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B49" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D49" s="0" t="n">
         <v>6</v>
@@ -3961,7 +3806,7 @@
         <v>32</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G49" s="0" t="s">
         <v>72</v>
@@ -3972,13 +3817,13 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B50" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D50" s="0" t="n">
         <v>6</v>
@@ -3987,10 +3832,10 @@
         <v>10</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H50" s="0" t="n">
         <v>1</v>
@@ -3998,13 +3843,13 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B51" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D51" s="0" t="n">
         <v>6</v>
@@ -4013,10 +3858,10 @@
         <v>60</v>
       </c>
       <c r="F51" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="G51" s="0" t="s">
         <v>173</v>
-      </c>
-      <c r="G51" s="0" t="s">
-        <v>174</v>
       </c>
       <c r="H51" s="0" t="n">
         <v>1</v>
@@ -4024,13 +3869,13 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B52" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D52" s="0" t="n">
         <v>6</v>
@@ -4039,10 +3884,10 @@
         <v>60</v>
       </c>
       <c r="F52" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="G52" s="0" t="s">
         <v>176</v>
-      </c>
-      <c r="G52" s="0" t="s">
-        <v>177</v>
       </c>
       <c r="H52" s="0" t="n">
         <v>2</v>
@@ -4050,19 +3895,19 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B53" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D53" s="0" t="n">
         <v>6</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F53" s="0" t="s">
         <v>18</v>
@@ -4096,10 +3941,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J82"/>
+  <dimension ref="A1:H82"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I83" activeCellId="0" sqref="I83"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4108,18 +3953,16 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="14.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1014" min="10" style="0" width="8.52"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1015" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1012" min="8" style="0" width="8.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1013" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>1</v>
@@ -4137,27 +3980,21 @@
         <v>5</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>179</v>
+        <v>6</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="0" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>1</v>
@@ -4169,27 +4006,21 @@
         <v>47</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>183</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>184</v>
-      </c>
-      <c r="I2" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="J2" s="0" t="n">
+      <c r="H2" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>1</v>
@@ -4203,22 +4034,19 @@
       <c r="G3" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="I3" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="J3" s="0" t="n">
+      <c r="H3" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>1</v>
@@ -4232,22 +4060,19 @@
       <c r="G4" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="J4" s="0" t="n">
+      <c r="H4" s="0" t="n">
         <v>69</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>1</v>
@@ -4256,248 +4081,206 @@
         <v>32</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>189</v>
-      </c>
-      <c r="H5" s="0" t="s">
-        <v>190</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>191</v>
-      </c>
-      <c r="J5" s="0" t="n">
+        <v>184</v>
+      </c>
+      <c r="H5" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="I6" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="J6" s="0" t="n">
+        <v>186</v>
+      </c>
+      <c r="H6" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="I7" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="J7" s="0" t="n">
+        <v>99</v>
+      </c>
+      <c r="H7" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>196</v>
-      </c>
-      <c r="H8" s="0" t="s">
-        <v>197</v>
-      </c>
-      <c r="I8" s="0" t="s">
-        <v>198</v>
-      </c>
-      <c r="J8" s="0" t="n">
+        <v>189</v>
+      </c>
+      <c r="H8" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F9" s="0" t="s">
         <v>14</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>200</v>
-      </c>
-      <c r="H9" s="0" t="s">
-        <v>201</v>
-      </c>
-      <c r="I9" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="J9" s="0" t="n">
+      <c r="H9" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F10" s="0" t="s">
         <v>18</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>203</v>
-      </c>
-      <c r="H10" s="0" t="s">
-        <v>204</v>
-      </c>
-      <c r="I10" s="0" t="s">
-        <v>205</v>
-      </c>
-      <c r="J10" s="0" t="n">
+        <v>192</v>
+      </c>
+      <c r="H10" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F11" s="0" t="s">
         <v>18</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>203</v>
-      </c>
-      <c r="H11" s="0" t="s">
-        <v>197</v>
-      </c>
-      <c r="I11" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="J11" s="0" t="n">
+      <c r="H11" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>208</v>
-      </c>
-      <c r="H12" s="0" t="s">
-        <v>209</v>
-      </c>
-      <c r="I12" s="0" t="s">
-        <v>210</v>
-      </c>
-      <c r="J12" s="0" t="n">
+        <v>195</v>
+      </c>
+      <c r="H12" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>2</v>
@@ -4511,150 +4294,123 @@
       <c r="G13" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="I13" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="J13" s="0" t="n">
+      <c r="H13" s="0" t="n">
         <v>108</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>215</v>
-      </c>
-      <c r="H14" s="0" t="s">
-        <v>197</v>
-      </c>
-      <c r="I14" s="0" t="s">
-        <v>216</v>
-      </c>
-      <c r="J14" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="H14" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="B15" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F15" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="G15" s="0" t="s">
         <v>121</v>
       </c>
-      <c r="G15" s="0" t="s">
-        <v>196</v>
-      </c>
-      <c r="H15" s="0" t="s">
-        <v>209</v>
-      </c>
-      <c r="I15" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="J15" s="0" t="n">
+      <c r="H15" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="B16" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F16" s="0" t="s">
         <v>18</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>203</v>
-      </c>
-      <c r="H16" s="0" t="s">
-        <v>204</v>
-      </c>
-      <c r="I16" s="0" t="s">
-        <v>205</v>
-      </c>
-      <c r="J16" s="0" t="n">
+        <v>192</v>
+      </c>
+      <c r="H16" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="B17" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>196</v>
-      </c>
-      <c r="H17" s="0" t="s">
-        <v>197</v>
-      </c>
-      <c r="I17" s="0" t="s">
-        <v>198</v>
-      </c>
-      <c r="J17" s="0" t="n">
+        <v>189</v>
+      </c>
+      <c r="H17" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
       <c r="B18" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>2</v>
@@ -4668,22 +4424,19 @@
       <c r="G18" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="I18" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="J18" s="0" t="n">
+      <c r="H18" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="B19" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D19" s="0" t="n">
         <v>2</v>
@@ -4695,27 +4448,21 @@
         <v>78</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>222</v>
-      </c>
-      <c r="H19" s="0" t="s">
-        <v>223</v>
-      </c>
-      <c r="I19" s="0" t="s">
-        <v>224</v>
-      </c>
-      <c r="J19" s="0" t="n">
+        <v>206</v>
+      </c>
+      <c r="H19" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
       <c r="B20" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D20" s="0" t="n">
         <v>2</v>
@@ -4724,30 +4471,24 @@
         <v>32</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>226</v>
-      </c>
-      <c r="H20" s="0" t="s">
-        <v>197</v>
-      </c>
-      <c r="I20" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="J20" s="0" t="n">
+      <c r="H20" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>227</v>
+        <v>208</v>
       </c>
       <c r="B21" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>2</v>
@@ -4761,22 +4502,19 @@
       <c r="G21" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="I21" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="J21" s="0" t="n">
+      <c r="H21" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>228</v>
+        <v>209</v>
       </c>
       <c r="B22" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D22" s="0" t="n">
         <v>2</v>
@@ -4788,56 +4526,47 @@
         <v>33</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>229</v>
-      </c>
-      <c r="H22" s="0" t="s">
-        <v>230</v>
-      </c>
-      <c r="I22" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="J22" s="0" t="n">
+      <c r="H22" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>231</v>
+        <v>210</v>
       </c>
       <c r="B23" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D23" s="0" t="n">
         <v>3</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="I23" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="J23" s="0" t="n">
+        <v>186</v>
+      </c>
+      <c r="H23" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>232</v>
+        <v>211</v>
       </c>
       <c r="B24" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D24" s="0" t="n">
         <v>3</v>
@@ -4846,30 +4575,24 @@
         <v>77</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>234</v>
-      </c>
-      <c r="H24" s="0" t="s">
-        <v>235</v>
-      </c>
-      <c r="I24" s="0" t="s">
-        <v>236</v>
-      </c>
-      <c r="J24" s="0" t="n">
+        <v>213</v>
+      </c>
+      <c r="H24" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>237</v>
+        <v>214</v>
       </c>
       <c r="B25" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D25" s="0" t="n">
         <v>3</v>
@@ -4883,150 +4606,123 @@
       <c r="G25" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="I25" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="J25" s="0" t="n">
+      <c r="H25" s="0" t="n">
         <v>70</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>238</v>
+        <v>215</v>
       </c>
       <c r="B26" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D26" s="0" t="n">
         <v>3</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F26" s="0" t="s">
         <v>18</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>203</v>
-      </c>
-      <c r="H26" s="0" t="s">
-        <v>204</v>
-      </c>
-      <c r="I26" s="0" t="s">
-        <v>205</v>
-      </c>
-      <c r="J26" s="0" t="n">
+        <v>192</v>
+      </c>
+      <c r="H26" s="0" t="n">
         <v>32</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>239</v>
+        <v>216</v>
       </c>
       <c r="B27" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D27" s="0" t="n">
         <v>3</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F27" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="G27" s="0" t="s">
         <v>121</v>
       </c>
-      <c r="G27" s="0" t="s">
-        <v>196</v>
-      </c>
-      <c r="H27" s="0" t="s">
-        <v>209</v>
-      </c>
-      <c r="I27" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="J27" s="0" t="n">
+      <c r="H27" s="0" t="n">
         <v>33</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>240</v>
+        <v>217</v>
       </c>
       <c r="B28" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D28" s="0" t="n">
         <v>3</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F28" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="G28" s="0" t="s">
         <v>121</v>
       </c>
-      <c r="G28" s="0" t="s">
-        <v>196</v>
-      </c>
-      <c r="H28" s="0" t="s">
-        <v>209</v>
-      </c>
-      <c r="I28" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="J28" s="0" t="n">
+      <c r="H28" s="0" t="n">
         <v>28</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>241</v>
+        <v>218</v>
       </c>
       <c r="B29" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D29" s="0" t="n">
         <v>3</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>215</v>
-      </c>
-      <c r="H29" s="0" t="s">
-        <v>197</v>
-      </c>
-      <c r="I29" s="0" t="s">
-        <v>216</v>
-      </c>
-      <c r="J29" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="H29" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>242</v>
+        <v>219</v>
       </c>
       <c r="B30" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D30" s="0" t="n">
         <v>3</v>
@@ -5040,22 +4736,19 @@
       <c r="G30" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="I30" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="J30" s="0" t="n">
+      <c r="H30" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="B31" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D31" s="0" t="n">
         <v>3</v>
@@ -5069,22 +4762,19 @@
       <c r="G31" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="I31" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="J31" s="0" t="n">
+      <c r="H31" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>244</v>
+        <v>221</v>
       </c>
       <c r="B32" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D32" s="0" t="n">
         <v>3</v>
@@ -5098,25 +4788,19 @@
       <c r="G32" s="0" t="s">
         <v>222</v>
       </c>
-      <c r="H32" s="0" t="s">
-        <v>197</v>
-      </c>
-      <c r="I32" s="0" t="s">
-        <v>245</v>
-      </c>
-      <c r="J32" s="0" t="n">
+      <c r="H32" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
       <c r="B33" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D33" s="0" t="n">
         <v>3</v>
@@ -5128,56 +4812,47 @@
         <v>78</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>247</v>
-      </c>
-      <c r="H33" s="0" t="s">
-        <v>248</v>
-      </c>
-      <c r="I33" s="0" t="s">
-        <v>249</v>
-      </c>
-      <c r="J33" s="0" t="n">
+        <v>224</v>
+      </c>
+      <c r="H33" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>250</v>
+        <v>225</v>
       </c>
       <c r="B34" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D34" s="0" t="n">
         <v>3</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="I34" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="J34" s="0" t="n">
+        <v>132</v>
+      </c>
+      <c r="H34" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>251</v>
+        <v>226</v>
       </c>
       <c r="B35" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D35" s="0" t="n">
         <v>3</v>
@@ -5191,22 +4866,19 @@
       <c r="G35" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="I35" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="J35" s="0" t="n">
+      <c r="H35" s="0" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
       <c r="B36" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D36" s="0" t="n">
         <v>3</v>
@@ -5215,30 +4887,24 @@
         <v>32</v>
       </c>
       <c r="F36" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="G36" s="0" t="s">
         <v>116</v>
       </c>
-      <c r="G36" s="0" t="s">
-        <v>253</v>
-      </c>
-      <c r="H36" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="I36" s="0" t="s">
-        <v>117</v>
-      </c>
-      <c r="J36" s="0" t="n">
+      <c r="H36" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>255</v>
+        <v>228</v>
       </c>
       <c r="B37" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D37" s="0" t="n">
         <v>3</v>
@@ -5250,27 +4916,21 @@
         <v>42</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>256</v>
-      </c>
-      <c r="H37" s="0" t="s">
-        <v>257</v>
-      </c>
-      <c r="I37" s="0" t="s">
-        <v>258</v>
-      </c>
-      <c r="J37" s="0" t="n">
+        <v>229</v>
+      </c>
+      <c r="H37" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>259</v>
+        <v>230</v>
       </c>
       <c r="B38" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D38" s="0" t="n">
         <v>3</v>
@@ -5279,30 +4939,24 @@
         <v>32</v>
       </c>
       <c r="F38" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="G38" s="0" t="s">
         <v>113</v>
       </c>
-      <c r="G38" s="0" t="s">
-        <v>260</v>
-      </c>
-      <c r="H38" s="0" t="s">
-        <v>261</v>
-      </c>
-      <c r="I38" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="J38" s="0" t="n">
+      <c r="H38" s="0" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>262</v>
+        <v>231</v>
       </c>
       <c r="B39" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D39" s="0" t="n">
         <v>3</v>
@@ -5314,27 +4968,21 @@
         <v>36</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>263</v>
-      </c>
-      <c r="H39" s="0" t="s">
-        <v>264</v>
-      </c>
-      <c r="I39" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="J39" s="0" t="n">
+      <c r="H39" s="0" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>265</v>
+        <v>232</v>
       </c>
       <c r="B40" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D40" s="0" t="n">
         <v>3</v>
@@ -5343,123 +4991,102 @@
         <v>32</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>226</v>
-      </c>
-      <c r="H40" s="0" t="s">
-        <v>197</v>
-      </c>
-      <c r="I40" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="J40" s="0" t="n">
+      <c r="H40" s="0" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>266</v>
+        <v>233</v>
       </c>
       <c r="B41" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D41" s="0" t="n">
         <v>4</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F41" s="0" t="s">
         <v>14</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>200</v>
-      </c>
-      <c r="H41" s="0" t="s">
-        <v>201</v>
-      </c>
-      <c r="I41" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="J41" s="0" t="n">
+      <c r="H41" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>267</v>
+        <v>234</v>
       </c>
       <c r="B42" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D42" s="0" t="n">
         <v>4</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F42" s="0" t="s">
         <v>18</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>203</v>
-      </c>
-      <c r="H42" s="0" t="s">
-        <v>204</v>
-      </c>
-      <c r="I42" s="0" t="s">
-        <v>205</v>
-      </c>
-      <c r="J42" s="0" t="n">
+        <v>192</v>
+      </c>
+      <c r="H42" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>268</v>
+        <v>235</v>
       </c>
       <c r="B43" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D43" s="0" t="n">
         <v>4</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="I43" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="J43" s="0" t="n">
+        <v>186</v>
+      </c>
+      <c r="H43" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>269</v>
+        <v>236</v>
       </c>
       <c r="B44" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D44" s="0" t="n">
         <v>4</v>
@@ -5468,30 +5095,24 @@
         <v>32</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>226</v>
-      </c>
-      <c r="H44" s="0" t="s">
-        <v>197</v>
-      </c>
-      <c r="I44" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="J44" s="0" t="n">
+      <c r="H44" s="0" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>270</v>
+        <v>237</v>
       </c>
       <c r="B45" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D45" s="0" t="n">
         <v>4</v>
@@ -5503,27 +5124,21 @@
         <v>39</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>271</v>
-      </c>
-      <c r="H45" s="0" t="s">
-        <v>272</v>
-      </c>
-      <c r="I45" s="0" t="s">
-        <v>273</v>
-      </c>
-      <c r="J45" s="0" t="n">
+        <v>238</v>
+      </c>
+      <c r="H45" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>274</v>
+        <v>239</v>
       </c>
       <c r="B46" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D46" s="0" t="n">
         <v>4</v>
@@ -5535,27 +5150,21 @@
         <v>39</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>275</v>
-      </c>
-      <c r="H46" s="0" t="s">
-        <v>197</v>
-      </c>
-      <c r="I46" s="0" t="s">
-        <v>276</v>
-      </c>
-      <c r="J46" s="0" t="n">
+        <v>240</v>
+      </c>
+      <c r="H46" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>277</v>
+        <v>241</v>
       </c>
       <c r="B47" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D47" s="0" t="n">
         <v>4</v>
@@ -5564,30 +5173,24 @@
         <v>32</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>278</v>
+        <v>242</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>279</v>
-      </c>
-      <c r="H47" s="0" t="s">
-        <v>280</v>
-      </c>
-      <c r="I47" s="0" t="s">
-        <v>281</v>
-      </c>
-      <c r="J47" s="0" t="n">
+        <v>243</v>
+      </c>
+      <c r="H47" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>282</v>
+        <v>244</v>
       </c>
       <c r="B48" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D48" s="0" t="n">
         <v>4</v>
@@ -5599,27 +5202,21 @@
         <v>83</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>283</v>
-      </c>
-      <c r="H48" s="0" t="s">
-        <v>257</v>
-      </c>
-      <c r="I48" s="0" t="s">
-        <v>284</v>
-      </c>
-      <c r="J48" s="0" t="n">
+        <v>245</v>
+      </c>
+      <c r="H48" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>285</v>
+        <v>246</v>
       </c>
       <c r="B49" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D49" s="0" t="n">
         <v>4</v>
@@ -5631,27 +5228,21 @@
         <v>83</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>286</v>
-      </c>
-      <c r="H49" s="0" t="s">
-        <v>287</v>
-      </c>
-      <c r="I49" s="0" t="s">
-        <v>288</v>
-      </c>
-      <c r="J49" s="0" t="n">
+        <v>247</v>
+      </c>
+      <c r="H49" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>289</v>
+        <v>248</v>
       </c>
       <c r="B50" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D50" s="0" t="n">
         <v>4</v>
@@ -5665,22 +5256,19 @@
       <c r="G50" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="I50" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="J50" s="0" t="n">
+      <c r="H50" s="0" t="n">
         <v>124</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>290</v>
+        <v>249</v>
       </c>
       <c r="B51" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D51" s="0" t="n">
         <v>4</v>
@@ -5689,158 +5277,128 @@
         <v>51</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>291</v>
+        <v>250</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>292</v>
-      </c>
-      <c r="H51" s="0" t="s">
-        <v>197</v>
-      </c>
-      <c r="I51" s="0" t="s">
-        <v>293</v>
-      </c>
-      <c r="J51" s="0" t="n">
+        <v>251</v>
+      </c>
+      <c r="H51" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>294</v>
+        <v>252</v>
       </c>
       <c r="B52" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D52" s="0" t="n">
         <v>5</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>196</v>
-      </c>
-      <c r="H52" s="0" t="s">
-        <v>197</v>
-      </c>
-      <c r="I52" s="0" t="s">
-        <v>198</v>
-      </c>
-      <c r="J52" s="0" t="n">
+        <v>189</v>
+      </c>
+      <c r="H52" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>295</v>
+        <v>253</v>
       </c>
       <c r="B53" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D53" s="0" t="n">
         <v>5</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F53" s="0" t="s">
         <v>18</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>203</v>
-      </c>
-      <c r="H53" s="0" t="s">
-        <v>204</v>
-      </c>
-      <c r="I53" s="0" t="s">
-        <v>205</v>
-      </c>
-      <c r="J53" s="0" t="n">
+        <v>192</v>
+      </c>
+      <c r="H53" s="0" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>296</v>
+        <v>254</v>
       </c>
       <c r="B54" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D54" s="0" t="n">
         <v>5</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F54" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="G54" s="0" t="s">
         <v>121</v>
       </c>
-      <c r="G54" s="0" t="s">
-        <v>196</v>
-      </c>
-      <c r="H54" s="0" t="s">
-        <v>209</v>
-      </c>
-      <c r="I54" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="J54" s="0" t="n">
+      <c r="H54" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>297</v>
+        <v>255</v>
       </c>
       <c r="B55" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D55" s="0" t="n">
         <v>5</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F55" s="0" t="s">
         <v>14</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>200</v>
-      </c>
-      <c r="H55" s="0" t="s">
-        <v>201</v>
-      </c>
-      <c r="I55" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="0" t="n">
+      <c r="H55" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>298</v>
+        <v>256</v>
       </c>
       <c r="B56" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D56" s="0" t="n">
         <v>5</v>
@@ -5852,27 +5410,21 @@
         <v>33</v>
       </c>
       <c r="G56" s="0" t="s">
-        <v>229</v>
-      </c>
-      <c r="H56" s="0" t="s">
-        <v>230</v>
-      </c>
-      <c r="I56" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="J56" s="0" t="n">
+      <c r="H56" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>299</v>
+        <v>257</v>
       </c>
       <c r="B57" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D57" s="0" t="n">
         <v>5</v>
@@ -5884,27 +5436,21 @@
         <v>42</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>300</v>
-      </c>
-      <c r="H57" s="0" t="s">
-        <v>301</v>
-      </c>
-      <c r="I57" s="0" t="s">
-        <v>302</v>
-      </c>
-      <c r="J57" s="0" t="n">
+        <v>258</v>
+      </c>
+      <c r="H57" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>303</v>
+        <v>259</v>
       </c>
       <c r="B58" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D58" s="0" t="n">
         <v>5</v>
@@ -5913,27 +5459,24 @@
         <v>51</v>
       </c>
       <c r="F58" s="0" t="s">
-        <v>304</v>
+        <v>260</v>
       </c>
       <c r="G58" s="0" t="s">
-        <v>304</v>
-      </c>
-      <c r="I58" s="0" t="s">
-        <v>304</v>
-      </c>
-      <c r="J58" s="0" t="n">
+        <v>260</v>
+      </c>
+      <c r="H58" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>305</v>
+        <v>261</v>
       </c>
       <c r="B59" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D59" s="0" t="n">
         <v>5</v>
@@ -5947,22 +5490,19 @@
       <c r="G59" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="I59" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="J59" s="0" t="n">
+      <c r="H59" s="0" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>306</v>
+        <v>262</v>
       </c>
       <c r="B60" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D60" s="0" t="n">
         <v>5</v>
@@ -5974,27 +5514,21 @@
         <v>78</v>
       </c>
       <c r="G60" s="0" t="s">
-        <v>234</v>
-      </c>
-      <c r="H60" s="0" t="s">
-        <v>197</v>
-      </c>
-      <c r="I60" s="0" t="s">
-        <v>307</v>
-      </c>
-      <c r="J60" s="0" t="n">
+        <v>263</v>
+      </c>
+      <c r="H60" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>308</v>
+        <v>264</v>
       </c>
       <c r="B61" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D61" s="0" t="n">
         <v>5</v>
@@ -6003,30 +5537,24 @@
         <v>32</v>
       </c>
       <c r="F61" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="G61" s="0" t="s">
         <v>113</v>
       </c>
-      <c r="G61" s="0" t="s">
-        <v>260</v>
-      </c>
-      <c r="H61" s="0" t="s">
-        <v>261</v>
-      </c>
-      <c r="I61" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="J61" s="0" t="n">
+      <c r="H61" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>309</v>
+        <v>265</v>
       </c>
       <c r="B62" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D62" s="0" t="n">
         <v>5</v>
@@ -6038,27 +5566,21 @@
         <v>42</v>
       </c>
       <c r="G62" s="0" t="s">
-        <v>300</v>
-      </c>
-      <c r="H62" s="0" t="s">
-        <v>310</v>
-      </c>
-      <c r="I62" s="0" t="s">
-        <v>311</v>
-      </c>
-      <c r="J62" s="0" t="n">
+        <v>266</v>
+      </c>
+      <c r="H62" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>312</v>
+        <v>267</v>
       </c>
       <c r="B63" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D63" s="0" t="n">
         <v>5</v>
@@ -6070,27 +5592,21 @@
         <v>39</v>
       </c>
       <c r="G63" s="0" t="s">
-        <v>271</v>
-      </c>
-      <c r="H63" s="0" t="s">
-        <v>272</v>
-      </c>
-      <c r="I63" s="0" t="s">
-        <v>273</v>
-      </c>
-      <c r="J63" s="0" t="n">
+        <v>238</v>
+      </c>
+      <c r="H63" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>313</v>
+        <v>268</v>
       </c>
       <c r="B64" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D64" s="0" t="n">
         <v>5</v>
@@ -6099,30 +5615,24 @@
         <v>32</v>
       </c>
       <c r="F64" s="0" t="s">
-        <v>278</v>
+        <v>242</v>
       </c>
       <c r="G64" s="0" t="s">
-        <v>263</v>
-      </c>
-      <c r="H64" s="0" t="s">
-        <v>197</v>
-      </c>
-      <c r="I64" s="0" t="s">
-        <v>314</v>
-      </c>
-      <c r="J64" s="0" t="n">
+        <v>269</v>
+      </c>
+      <c r="H64" s="0" t="n">
         <v>17</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>315</v>
+        <v>270</v>
       </c>
       <c r="B65" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D65" s="0" t="n">
         <v>5</v>
@@ -6136,22 +5646,19 @@
       <c r="G65" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="I65" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="J65" s="0" t="n">
+      <c r="H65" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>316</v>
+        <v>271</v>
       </c>
       <c r="B66" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D66" s="0" t="n">
         <v>6</v>
@@ -6160,30 +5667,24 @@
         <v>60</v>
       </c>
       <c r="F66" s="0" t="s">
-        <v>317</v>
+        <v>272</v>
       </c>
       <c r="G66" s="0" t="s">
-        <v>318</v>
-      </c>
-      <c r="H66" s="0" t="s">
-        <v>319</v>
-      </c>
-      <c r="I66" s="0" t="s">
-        <v>320</v>
-      </c>
-      <c r="J66" s="0" t="n">
+        <v>273</v>
+      </c>
+      <c r="H66" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>321</v>
+        <v>274</v>
       </c>
       <c r="B67" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D67" s="0" t="n">
         <v>6</v>
@@ -6192,30 +5693,24 @@
         <v>60</v>
       </c>
       <c r="F67" s="0" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G67" s="0" t="s">
-        <v>322</v>
-      </c>
-      <c r="H67" s="0" t="s">
-        <v>323</v>
-      </c>
-      <c r="I67" s="0" t="s">
-        <v>324</v>
-      </c>
-      <c r="J67" s="0" t="n">
+        <v>275</v>
+      </c>
+      <c r="H67" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>325</v>
+        <v>276</v>
       </c>
       <c r="B68" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D68" s="0" t="n">
         <v>6</v>
@@ -6224,56 +5719,50 @@
         <v>51</v>
       </c>
       <c r="F68" s="0" t="s">
-        <v>291</v>
+        <v>250</v>
       </c>
       <c r="G68" s="0" t="s">
-        <v>291</v>
-      </c>
-      <c r="I68" s="0" t="s">
-        <v>291</v>
-      </c>
-      <c r="J68" s="0" t="n">
+        <v>250</v>
+      </c>
+      <c r="H68" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>326</v>
+        <v>277</v>
       </c>
       <c r="B69" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D69" s="0" t="n">
         <v>6</v>
       </c>
       <c r="E69" s="0" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F69" s="0" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="G69" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="I69" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="J69" s="0" t="n">
+        <v>186</v>
+      </c>
+      <c r="H69" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>327</v>
+        <v>278</v>
       </c>
       <c r="B70" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D70" s="0" t="n">
         <v>6</v>
@@ -6287,147 +5776,123 @@
       <c r="G70" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="I70" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="J70" s="0" t="n">
+      <c r="H70" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>328</v>
+        <v>279</v>
       </c>
       <c r="B71" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D71" s="0" t="n">
         <v>6</v>
       </c>
       <c r="E71" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F71" s="0" t="s">
         <v>14</v>
       </c>
       <c r="G71" s="0" t="s">
-        <v>200</v>
-      </c>
-      <c r="H71" s="0" t="s">
-        <v>201</v>
-      </c>
-      <c r="I71" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="J71" s="0" t="n">
+      <c r="H71" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>329</v>
+        <v>280</v>
       </c>
       <c r="B72" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D72" s="0" t="n">
         <v>6</v>
       </c>
       <c r="E72" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F72" s="0" t="s">
         <v>18</v>
       </c>
       <c r="G72" s="0" t="s">
-        <v>203</v>
-      </c>
-      <c r="H72" s="0" t="s">
-        <v>204</v>
-      </c>
-      <c r="I72" s="0" t="s">
-        <v>205</v>
-      </c>
-      <c r="J72" s="0" t="n">
+        <v>192</v>
+      </c>
+      <c r="H72" s="0" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>330</v>
+        <v>281</v>
       </c>
       <c r="B73" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D73" s="0" t="n">
         <v>6</v>
       </c>
       <c r="E73" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F73" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="G73" s="0" t="s">
         <v>121</v>
       </c>
-      <c r="G73" s="0" t="s">
-        <v>196</v>
-      </c>
-      <c r="H73" s="0" t="s">
-        <v>209</v>
-      </c>
-      <c r="I73" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="J73" s="0" t="n">
+      <c r="H73" s="0" t="n">
         <v>15</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>331</v>
+        <v>282</v>
       </c>
       <c r="B74" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D74" s="0" t="n">
         <v>6</v>
       </c>
       <c r="E74" s="0" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F74" s="0" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G74" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="I74" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="J74" s="0" t="n">
+        <v>99</v>
+      </c>
+      <c r="H74" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>332</v>
+        <v>283</v>
       </c>
       <c r="B75" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D75" s="0" t="n">
         <v>6</v>
@@ -6439,27 +5904,21 @@
         <v>83</v>
       </c>
       <c r="G75" s="0" t="s">
-        <v>333</v>
-      </c>
-      <c r="H75" s="0" t="s">
-        <v>334</v>
-      </c>
-      <c r="I75" s="0" t="s">
-        <v>335</v>
-      </c>
-      <c r="J75" s="0" t="n">
+        <v>284</v>
+      </c>
+      <c r="H75" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>336</v>
+        <v>285</v>
       </c>
       <c r="B76" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D76" s="0" t="n">
         <v>6</v>
@@ -6468,59 +5927,50 @@
         <v>51</v>
       </c>
       <c r="F76" s="0" t="s">
-        <v>291</v>
+        <v>250</v>
       </c>
       <c r="G76" s="0" t="s">
-        <v>291</v>
-      </c>
-      <c r="I76" s="0" t="s">
-        <v>291</v>
-      </c>
-      <c r="J76" s="0" t="n">
+        <v>250</v>
+      </c>
+      <c r="H76" s="0" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>337</v>
+        <v>286</v>
       </c>
       <c r="B77" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D77" s="0" t="n">
         <v>6</v>
       </c>
       <c r="E77" s="0" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="F77" s="0" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="G77" s="0" t="s">
-        <v>215</v>
-      </c>
-      <c r="H77" s="0" t="s">
-        <v>197</v>
-      </c>
-      <c r="I77" s="0" t="s">
-        <v>216</v>
-      </c>
-      <c r="J77" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="H77" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>338</v>
+        <v>287</v>
       </c>
       <c r="B78" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D78" s="0" t="n">
         <v>6</v>
@@ -6534,51 +5984,45 @@
       <c r="G78" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="I78" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="J78" s="0" t="n">
+      <c r="H78" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>339</v>
+        <v>288</v>
       </c>
       <c r="B79" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D79" s="0" t="n">
         <v>6</v>
       </c>
       <c r="E79" s="0" t="s">
-        <v>340</v>
+        <v>289</v>
       </c>
       <c r="F79" s="0" t="s">
-        <v>340</v>
+        <v>289</v>
       </c>
       <c r="G79" s="0" t="s">
-        <v>340</v>
-      </c>
-      <c r="I79" s="0" t="s">
-        <v>340</v>
-      </c>
-      <c r="J79" s="0" t="n">
+        <v>289</v>
+      </c>
+      <c r="H79" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>341</v>
+        <v>290</v>
       </c>
       <c r="B80" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D80" s="0" t="n">
         <v>6</v>
@@ -6590,27 +6034,21 @@
         <v>36</v>
       </c>
       <c r="G80" s="0" t="s">
-        <v>263</v>
-      </c>
-      <c r="H80" s="0" t="s">
-        <v>264</v>
-      </c>
-      <c r="I80" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="J80" s="0" t="n">
+      <c r="H80" s="0" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>342</v>
+        <v>291</v>
       </c>
       <c r="B81" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D81" s="0" t="n">
         <v>6</v>
@@ -6622,27 +6060,21 @@
         <v>42</v>
       </c>
       <c r="G81" s="0" t="s">
-        <v>300</v>
-      </c>
-      <c r="H81" s="0" t="s">
-        <v>257</v>
-      </c>
-      <c r="I81" s="0" t="s">
-        <v>343</v>
-      </c>
-      <c r="J81" s="0" t="n">
+        <v>292</v>
+      </c>
+      <c r="H81" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>344</v>
+        <v>293</v>
       </c>
       <c r="B82" s="1" t="n">
         <v>42873</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D82" s="0" t="n">
         <v>6</v>
@@ -6651,18 +6083,12 @@
         <v>32</v>
       </c>
       <c r="F82" s="0" t="s">
-        <v>278</v>
+        <v>242</v>
       </c>
       <c r="G82" s="0" t="s">
-        <v>279</v>
-      </c>
-      <c r="H82" s="0" t="s">
-        <v>280</v>
-      </c>
-      <c r="I82" s="0" t="s">
-        <v>281</v>
-      </c>
-      <c r="J82" s="0" t="n">
+        <v>243</v>
+      </c>
+      <c r="H82" s="0" t="n">
         <v>6</v>
       </c>
     </row>
@@ -6684,15 +6110,16 @@
   </sheetPr>
   <dimension ref="A1:H56"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K10" activeCellId="0" sqref="K10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E41" activeCellId="0" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="10.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="22.67"/>
@@ -6701,7 +6128,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>1</v>
@@ -6735,14 +6162,17 @@
       <c r="C2" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="D2" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="E2" s="0" t="s">
         <v>32</v>
       </c>
       <c r="F2" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="G2" s="0" t="s">
         <v>116</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>117</v>
       </c>
       <c r="H2" s="0" t="n">
         <v>4</v>
@@ -6758,14 +6188,17 @@
       <c r="C3" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="D3" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="E3" s="0" t="s">
         <v>32</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>345</v>
+        <v>294</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>346</v>
+        <v>295</v>
       </c>
       <c r="H3" s="0" t="n">
         <v>14</v>
@@ -6781,14 +6214,17 @@
       <c r="C4" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="D4" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="E4" s="0" t="s">
         <v>32</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>278</v>
+        <v>242</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>281</v>
+        <v>243</v>
       </c>
       <c r="H4" s="0" t="n">
         <v>2</v>
@@ -6796,7 +6232,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>347</v>
+        <v>296</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>43010</v>
@@ -6804,6 +6240,9 @@
       <c r="C5" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="D5" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="E5" s="0" t="s">
         <v>10</v>
       </c>
@@ -6819,7 +6258,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>348</v>
+        <v>297</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>43010</v>
@@ -6827,6 +6266,9 @@
       <c r="C6" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="D6" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="E6" s="0" t="s">
         <v>32</v>
       </c>
@@ -6834,7 +6276,7 @@
         <v>42</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>349</v>
+        <v>298</v>
       </c>
       <c r="H6" s="0" t="n">
         <v>3</v>
@@ -6850,8 +6292,11 @@
       <c r="C7" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="D7" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="E7" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F7" s="0" t="s">
         <v>18</v>
@@ -6873,8 +6318,11 @@
       <c r="C8" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="D8" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="E8" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F8" s="0" t="s">
         <v>18</v>
@@ -6896,14 +6344,17 @@
       <c r="C9" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="D9" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="E9" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F9" s="0" t="s">
         <v>18</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>350</v>
+        <v>299</v>
       </c>
       <c r="H9" s="0" t="n">
         <v>50</v>
@@ -6911,7 +6362,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>351</v>
+        <v>300</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>43010</v>
@@ -6919,14 +6370,17 @@
       <c r="C10" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="D10" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="E10" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F10" s="0" t="s">
         <v>18</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>352</v>
+        <v>301</v>
       </c>
       <c r="H10" s="0" t="n">
         <v>24</v>
@@ -6934,7 +6388,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>353</v>
+        <v>302</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>43010</v>
@@ -6942,11 +6396,14 @@
       <c r="C11" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="D11" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="E11" s="0" t="s">
         <v>32</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>354</v>
+        <v>303</v>
       </c>
       <c r="G11" s="0" t="s">
         <v>34</v>
@@ -6957,7 +6414,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>355</v>
+        <v>304</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>43010</v>
@@ -6965,14 +6422,17 @@
       <c r="C12" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="D12" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="E12" s="0" t="s">
         <v>32</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>278</v>
+        <v>242</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>356</v>
+        <v>305</v>
       </c>
       <c r="H12" s="0" t="n">
         <v>2</v>
@@ -6980,7 +6440,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>357</v>
+        <v>306</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>43010</v>
@@ -6988,6 +6448,9 @@
       <c r="C13" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="D13" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="E13" s="0" t="s">
         <v>82</v>
       </c>
@@ -6995,7 +6458,7 @@
         <v>83</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>284</v>
+        <v>245</v>
       </c>
       <c r="H13" s="0" t="n">
         <v>1</v>
@@ -7011,6 +6474,9 @@
       <c r="C14" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="D14" s="0" t="n">
+        <v>2</v>
+      </c>
       <c r="E14" s="0" t="s">
         <v>10</v>
       </c>
@@ -7034,8 +6500,11 @@
       <c r="C15" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="D15" s="0" t="n">
+        <v>2</v>
+      </c>
       <c r="E15" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F15" s="0" t="s">
         <v>14</v>
@@ -7049,7 +6518,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>358</v>
+        <v>307</v>
       </c>
       <c r="B16" s="1" t="n">
         <v>43010</v>
@@ -7057,6 +6526,9 @@
       <c r="C16" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="D16" s="0" t="n">
+        <v>2</v>
+      </c>
       <c r="E16" s="0" t="s">
         <v>82</v>
       </c>
@@ -7064,7 +6536,7 @@
         <v>83</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>284</v>
+        <v>245</v>
       </c>
       <c r="H16" s="0" t="n">
         <v>9</v>
@@ -7080,6 +6552,9 @@
       <c r="C17" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="D17" s="0" t="n">
+        <v>2</v>
+      </c>
       <c r="E17" s="0" t="s">
         <v>82</v>
       </c>
@@ -7087,7 +6562,7 @@
         <v>83</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>359</v>
+        <v>308</v>
       </c>
       <c r="H17" s="0" t="n">
         <v>3</v>
@@ -7103,14 +6578,17 @@
       <c r="C18" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="D18" s="0" t="n">
+        <v>2</v>
+      </c>
       <c r="E18" s="0" t="s">
         <v>32</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>345</v>
+        <v>294</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>346</v>
+        <v>295</v>
       </c>
       <c r="H18" s="0" t="n">
         <v>24</v>
@@ -7126,14 +6604,17 @@
       <c r="C19" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="D19" s="0" t="n">
+        <v>2</v>
+      </c>
       <c r="E19" s="0" t="s">
         <v>32</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>278</v>
+        <v>242</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>281</v>
+        <v>243</v>
       </c>
       <c r="H19" s="0" t="n">
         <v>12</v>
@@ -7149,6 +6630,9 @@
       <c r="C20" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="D20" s="0" t="n">
+        <v>2</v>
+      </c>
       <c r="E20" s="0" t="s">
         <v>32</v>
       </c>
@@ -7164,7 +6648,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>360</v>
+        <v>309</v>
       </c>
       <c r="B21" s="1" t="n">
         <v>43010</v>
@@ -7172,11 +6656,14 @@
       <c r="C21" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="D21" s="0" t="n">
+        <v>2</v>
+      </c>
       <c r="E21" s="0" t="s">
         <v>32</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>278</v>
+        <v>242</v>
       </c>
       <c r="G21" s="0" t="s">
         <v>37</v>
@@ -7195,6 +6682,9 @@
       <c r="C22" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="D22" s="0" t="n">
+        <v>2</v>
+      </c>
       <c r="E22" s="0" t="s">
         <v>60</v>
       </c>
@@ -7218,14 +6708,17 @@
       <c r="C23" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="D23" s="0" t="n">
+        <v>2</v>
+      </c>
       <c r="E23" s="0" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="H23" s="0" t="n">
         <v>1</v>
@@ -7241,8 +6734,11 @@
       <c r="C24" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="D24" s="0" t="n">
+        <v>2</v>
+      </c>
       <c r="E24" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F24" s="0" t="s">
         <v>18</v>
@@ -7264,8 +6760,11 @@
       <c r="C25" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="D25" s="0" t="n">
+        <v>2</v>
+      </c>
       <c r="E25" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F25" s="0" t="s">
         <v>18</v>
@@ -7287,8 +6786,11 @@
       <c r="C26" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="D26" s="0" t="n">
+        <v>2</v>
+      </c>
       <c r="E26" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F26" s="0" t="s">
         <v>18</v>
@@ -7310,8 +6812,11 @@
       <c r="C27" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="D27" s="0" t="n">
+        <v>2</v>
+      </c>
       <c r="E27" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F27" s="0" t="s">
         <v>18</v>
@@ -7333,6 +6838,9 @@
       <c r="C28" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="D28" s="0" t="n">
+        <v>3</v>
+      </c>
       <c r="E28" s="0" t="s">
         <v>82</v>
       </c>
@@ -7340,7 +6848,7 @@
         <v>83</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>284</v>
+        <v>245</v>
       </c>
       <c r="H28" s="0" t="n">
         <v>14</v>
@@ -7356,6 +6864,9 @@
       <c r="C29" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="D29" s="0" t="n">
+        <v>3</v>
+      </c>
       <c r="E29" s="0" t="s">
         <v>60</v>
       </c>
@@ -7379,6 +6890,9 @@
       <c r="C30" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="D30" s="0" t="n">
+        <v>3</v>
+      </c>
       <c r="E30" s="0" t="s">
         <v>82</v>
       </c>
@@ -7386,7 +6900,7 @@
         <v>83</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>359</v>
+        <v>308</v>
       </c>
       <c r="H30" s="0" t="n">
         <v>1</v>
@@ -7402,6 +6916,9 @@
       <c r="C31" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="D31" s="0" t="n">
+        <v>3</v>
+      </c>
       <c r="E31" s="0" t="s">
         <v>10</v>
       </c>
@@ -7425,8 +6942,11 @@
       <c r="C32" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="D32" s="0" t="n">
+        <v>3</v>
+      </c>
       <c r="E32" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F32" s="0" t="s">
         <v>18</v>
@@ -7448,14 +6968,17 @@
       <c r="C33" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="D33" s="0" t="n">
+        <v>3</v>
+      </c>
       <c r="E33" s="0" t="s">
         <v>32</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>345</v>
+        <v>294</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>346</v>
+        <v>295</v>
       </c>
       <c r="H33" s="0" t="n">
         <v>2</v>
@@ -7471,14 +6994,17 @@
       <c r="C34" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="D34" s="0" t="n">
+        <v>3</v>
+      </c>
       <c r="E34" s="0" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="H34" s="0" t="n">
         <v>2</v>
@@ -7494,8 +7020,11 @@
       <c r="C35" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="D35" s="0" t="n">
+        <v>3</v>
+      </c>
       <c r="E35" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F35" s="0" t="s">
         <v>14</v>
@@ -7509,7 +7038,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>361</v>
+        <v>310</v>
       </c>
       <c r="B36" s="1" t="n">
         <v>43010</v>
@@ -7517,14 +7046,17 @@
       <c r="C36" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="D36" s="0" t="n">
+        <v>3</v>
+      </c>
       <c r="E36" s="0" t="s">
         <v>51</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>304</v>
+        <v>260</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>304</v>
+        <v>260</v>
       </c>
       <c r="H36" s="0" t="n">
         <v>1</v>
@@ -7532,7 +7064,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>362</v>
+        <v>311</v>
       </c>
       <c r="B37" s="1" t="n">
         <v>43010</v>
@@ -7540,14 +7072,17 @@
       <c r="C37" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="D37" s="0" t="n">
+        <v>3</v>
+      </c>
       <c r="E37" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H37" s="0" t="n">
         <v>1</v>
@@ -7555,7 +7090,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>363</v>
+        <v>312</v>
       </c>
       <c r="B38" s="1" t="n">
         <v>43010</v>
@@ -7563,14 +7098,17 @@
       <c r="C38" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="D38" s="0" t="n">
+        <v>3</v>
+      </c>
       <c r="E38" s="0" t="s">
         <v>32</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>278</v>
+        <v>242</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>281</v>
+        <v>243</v>
       </c>
       <c r="H38" s="0" t="n">
         <v>6</v>
@@ -7578,7 +7116,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>364</v>
+        <v>313</v>
       </c>
       <c r="B39" s="1" t="n">
         <v>43010</v>
@@ -7586,8 +7124,11 @@
       <c r="C39" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="D39" s="0" t="n">
+        <v>3</v>
+      </c>
       <c r="E39" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F39" s="0" t="s">
         <v>18</v>
@@ -7601,7 +7142,7 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>365</v>
+        <v>314</v>
       </c>
       <c r="B40" s="1" t="n">
         <v>43010</v>
@@ -7609,6 +7150,9 @@
       <c r="C40" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="D40" s="0" t="n">
+        <v>3</v>
+      </c>
       <c r="E40" s="0" t="s">
         <v>32</v>
       </c>
@@ -7624,13 +7168,16 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>366</v>
+        <v>315</v>
       </c>
       <c r="B41" s="1" t="n">
         <v>43010</v>
       </c>
       <c r="C41" s="0" t="s">
         <v>9</v>
+      </c>
+      <c r="D41" s="0" t="n">
+        <v>3</v>
       </c>
       <c r="E41" s="0" t="s">
         <v>23</v>
@@ -7655,14 +7202,17 @@
       <c r="C42" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="D42" s="0" t="n">
+        <v>4</v>
+      </c>
       <c r="E42" s="0" t="s">
         <v>51</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>304</v>
+        <v>260</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>304</v>
+        <v>260</v>
       </c>
       <c r="H42" s="0" t="n">
         <v>1</v>
@@ -7678,6 +7228,9 @@
       <c r="C43" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="D43" s="0" t="n">
+        <v>4</v>
+      </c>
       <c r="E43" s="0" t="s">
         <v>32</v>
       </c>
@@ -7685,7 +7238,7 @@
         <v>42</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>349</v>
+        <v>298</v>
       </c>
       <c r="H43" s="0" t="n">
         <v>1</v>
@@ -7701,14 +7254,17 @@
       <c r="C44" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="D44" s="0" t="n">
+        <v>4</v>
+      </c>
       <c r="E44" s="0" t="s">
         <v>32</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>345</v>
+        <v>294</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>346</v>
+        <v>295</v>
       </c>
       <c r="H44" s="0" t="n">
         <v>5</v>
@@ -7724,14 +7280,17 @@
       <c r="C45" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="D45" s="0" t="n">
+        <v>4</v>
+      </c>
       <c r="E45" s="0" t="s">
         <v>32</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>278</v>
+        <v>242</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>281</v>
+        <v>243</v>
       </c>
       <c r="H45" s="0" t="n">
         <v>3</v>
@@ -7747,6 +7306,9 @@
       <c r="C46" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="D46" s="0" t="n">
+        <v>4</v>
+      </c>
       <c r="E46" s="0" t="s">
         <v>32</v>
       </c>
@@ -7770,14 +7332,17 @@
       <c r="C47" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="D47" s="0" t="n">
+        <v>4</v>
+      </c>
       <c r="E47" s="0" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H47" s="0" t="n">
         <v>5</v>
@@ -7785,7 +7350,7 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>367</v>
+        <v>316</v>
       </c>
       <c r="B48" s="1" t="n">
         <v>43010</v>
@@ -7793,8 +7358,11 @@
       <c r="C48" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="D48" s="0" t="n">
+        <v>4</v>
+      </c>
       <c r="E48" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F48" s="0" t="s">
         <v>18</v>
@@ -7808,7 +7376,7 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>368</v>
+        <v>317</v>
       </c>
       <c r="B49" s="1" t="n">
         <v>43010</v>
@@ -7816,14 +7384,17 @@
       <c r="C49" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="D49" s="0" t="n">
+        <v>4</v>
+      </c>
       <c r="E49" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F49" s="0" t="s">
         <v>18</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H49" s="0" t="n">
         <v>4</v>
@@ -7831,7 +7402,7 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>369</v>
+        <v>318</v>
       </c>
       <c r="B50" s="1" t="n">
         <v>43010</v>
@@ -7839,6 +7410,9 @@
       <c r="C50" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="D50" s="0" t="n">
+        <v>4</v>
+      </c>
       <c r="E50" s="0" t="s">
         <v>60</v>
       </c>
@@ -7854,7 +7428,7 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>370</v>
+        <v>319</v>
       </c>
       <c r="B51" s="1" t="n">
         <v>43010</v>
@@ -7862,14 +7436,17 @@
       <c r="C51" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="D51" s="0" t="n">
+        <v>6</v>
+      </c>
       <c r="E51" s="0" t="s">
         <v>32</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>345</v>
+        <v>294</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>346</v>
+        <v>295</v>
       </c>
       <c r="H51" s="0" t="n">
         <v>2</v>
@@ -7877,7 +7454,7 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>371</v>
+        <v>320</v>
       </c>
       <c r="B52" s="1" t="n">
         <v>43010</v>
@@ -7885,6 +7462,9 @@
       <c r="C52" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="D52" s="0" t="n">
+        <v>6</v>
+      </c>
       <c r="E52" s="0" t="s">
         <v>32</v>
       </c>
@@ -7900,7 +7480,7 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>372</v>
+        <v>321</v>
       </c>
       <c r="B53" s="1" t="n">
         <v>43010</v>
@@ -7908,6 +7488,9 @@
       <c r="C53" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="D53" s="0" t="n">
+        <v>6</v>
+      </c>
       <c r="E53" s="0" t="s">
         <v>23</v>
       </c>
@@ -7923,7 +7506,7 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>373</v>
+        <v>322</v>
       </c>
       <c r="B54" s="1" t="n">
         <v>43010</v>
@@ -7931,14 +7514,17 @@
       <c r="C54" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="D54" s="0" t="n">
+        <v>6</v>
+      </c>
       <c r="E54" s="0" t="s">
         <v>82</v>
       </c>
       <c r="F54" s="0" t="s">
-        <v>374</v>
+        <v>323</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>375</v>
+        <v>324</v>
       </c>
       <c r="H54" s="0" t="n">
         <v>1</v>
@@ -7946,7 +7532,7 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>376</v>
+        <v>325</v>
       </c>
       <c r="B55" s="1" t="n">
         <v>43010</v>
@@ -7954,14 +7540,17 @@
       <c r="C55" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="D55" s="0" t="n">
+        <v>6</v>
+      </c>
       <c r="E55" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F55" s="0" t="s">
         <v>18</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H55" s="0" t="n">
         <v>17</v>
@@ -7969,7 +7558,7 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>377</v>
+        <v>326</v>
       </c>
       <c r="B56" s="1" t="n">
         <v>43010</v>
@@ -7977,8 +7566,11 @@
       <c r="C56" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="D56" s="0" t="n">
+        <v>6</v>
+      </c>
       <c r="E56" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F56" s="0" t="s">
         <v>18</v>
@@ -8025,7 +7617,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>1</v>
@@ -8051,13 +7643,13 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>43012</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>1</v>
@@ -8077,13 +7669,13 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>378</v>
+        <v>327</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>43012</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>1</v>
@@ -8103,13 +7695,13 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>43012</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>1</v>
@@ -8129,19 +7721,19 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>43012</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F5" s="0" t="s">
         <v>18</v>
@@ -8155,13 +7747,13 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>43012</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>1</v>
@@ -8170,10 +7762,10 @@
         <v>10</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>379</v>
+        <v>328</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>379</v>
+        <v>328</v>
       </c>
       <c r="H6" s="0" t="n">
         <v>1</v>
@@ -8181,13 +7773,13 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>43012</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>1</v>
@@ -8199,7 +7791,7 @@
         <v>33</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>276</v>
+        <v>240</v>
       </c>
       <c r="H7" s="0" t="n">
         <v>1</v>
@@ -8207,13 +7799,13 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>43012</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>1</v>
@@ -8222,10 +7814,10 @@
         <v>32</v>
       </c>
       <c r="F8" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="G8" s="0" t="s">
         <v>116</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>117</v>
       </c>
       <c r="H8" s="0" t="n">
         <v>2</v>
@@ -8233,13 +7825,13 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>43012</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>1</v>
@@ -8248,10 +7840,10 @@
         <v>32</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>278</v>
+        <v>242</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>281</v>
+        <v>243</v>
       </c>
       <c r="H9" s="0" t="n">
         <v>1</v>
@@ -8259,13 +7851,13 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>43012</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>1</v>
@@ -8277,7 +7869,7 @@
         <v>83</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>359</v>
+        <v>308</v>
       </c>
       <c r="H10" s="0" t="n">
         <v>1</v>
@@ -8285,13 +7877,13 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>380</v>
+        <v>329</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>43012</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>1</v>
@@ -8303,7 +7895,7 @@
         <v>42</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>349</v>
+        <v>298</v>
       </c>
       <c r="H11" s="0" t="n">
         <v>2</v>
@@ -8311,13 +7903,13 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>43012</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>2</v>
@@ -8337,13 +7929,13 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>43012</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>2</v>
@@ -8355,7 +7947,7 @@
         <v>33</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>276</v>
+        <v>240</v>
       </c>
       <c r="H13" s="0" t="n">
         <v>1</v>
@@ -8363,13 +7955,13 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>381</v>
+        <v>330</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>43012</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>2</v>
@@ -8389,25 +7981,25 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>382</v>
+        <v>331</v>
       </c>
       <c r="B15" s="1" t="n">
         <v>43012</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>383</v>
+        <v>332</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>384</v>
+        <v>333</v>
       </c>
       <c r="H15" s="0" t="n">
         <v>1</v>
@@ -8415,19 +8007,19 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>385</v>
+        <v>334</v>
       </c>
       <c r="B16" s="1" t="n">
         <v>43012</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F16" s="0" t="s">
         <v>18</v>
@@ -8441,25 +8033,25 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B17" s="1" t="n">
         <v>43012</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>3</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>386</v>
+        <v>335</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="H17" s="0" t="n">
         <v>27</v>
@@ -8467,19 +8059,19 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B18" s="1" t="n">
         <v>43012</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>3</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F18" s="0" t="s">
         <v>18</v>
@@ -8493,13 +8085,13 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B19" s="1" t="n">
         <v>43012</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D19" s="0" t="n">
         <v>3</v>
@@ -8519,25 +8111,25 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>387</v>
+        <v>336</v>
       </c>
       <c r="B20" s="1" t="n">
         <v>43012</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D20" s="0" t="n">
         <v>3</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>388</v>
+        <v>337</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>389</v>
+        <v>338</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>389</v>
+        <v>338</v>
       </c>
       <c r="H20" s="0" t="n">
         <v>1</v>
@@ -8545,13 +8137,13 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B21" s="1" t="n">
         <v>43012</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>3</v>
@@ -8560,10 +8152,10 @@
         <v>32</v>
       </c>
       <c r="F21" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="G21" s="0" t="s">
         <v>116</v>
-      </c>
-      <c r="G21" s="0" t="s">
-        <v>117</v>
       </c>
       <c r="H21" s="0" t="n">
         <v>1</v>
@@ -8571,13 +8163,13 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B22" s="1" t="n">
         <v>43012</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D22" s="0" t="n">
         <v>4</v>
@@ -8586,7 +8178,7 @@
         <v>32</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>278</v>
+        <v>242</v>
       </c>
       <c r="G22" s="0" t="s">
         <v>37</v>
@@ -8597,13 +8189,13 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B23" s="1" t="n">
         <v>43012</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D23" s="0" t="n">
         <v>4</v>
@@ -8612,10 +8204,10 @@
         <v>32</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>345</v>
+        <v>294</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>390</v>
+        <v>339</v>
       </c>
       <c r="H23" s="0" t="n">
         <v>15</v>
@@ -8623,13 +8215,13 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B24" s="1" t="n">
         <v>43012</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D24" s="0" t="n">
         <v>4</v>
@@ -8641,7 +8233,7 @@
         <v>33</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>391</v>
+        <v>340</v>
       </c>
       <c r="H24" s="0" t="n">
         <v>1</v>
@@ -8649,13 +8241,13 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>392</v>
+        <v>341</v>
       </c>
       <c r="B25" s="1" t="n">
         <v>43012</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D25" s="0" t="n">
         <v>4</v>
@@ -8675,25 +8267,25 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B26" s="1" t="n">
         <v>43012</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D26" s="0" t="n">
         <v>4</v>
       </c>
       <c r="E26" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="F26" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="F26" s="0" t="s">
-        <v>101</v>
-      </c>
       <c r="G26" s="0" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H26" s="0" t="n">
         <v>6</v>
@@ -8701,13 +8293,13 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>393</v>
+        <v>342</v>
       </c>
       <c r="B27" s="1" t="n">
         <v>43012</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D27" s="0" t="n">
         <v>4</v>
@@ -8719,7 +8311,7 @@
         <v>83</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>284</v>
+        <v>245</v>
       </c>
       <c r="H27" s="0" t="n">
         <v>1</v>
@@ -8727,13 +8319,13 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>394</v>
+        <v>343</v>
       </c>
       <c r="B28" s="1" t="n">
         <v>43012</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D28" s="0" t="n">
         <v>4</v>
@@ -8742,10 +8334,10 @@
         <v>32</v>
       </c>
       <c r="F28" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="G28" s="0" t="s">
         <v>116</v>
-      </c>
-      <c r="G28" s="0" t="s">
-        <v>117</v>
       </c>
       <c r="H28" s="0" t="n">
         <v>7</v>
@@ -8753,25 +8345,25 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>395</v>
+        <v>344</v>
       </c>
       <c r="B29" s="1" t="n">
         <v>43012</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D29" s="0" t="n">
         <v>4</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>386</v>
+        <v>335</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="H29" s="0" t="n">
         <v>52</v>
@@ -8779,19 +8371,19 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B30" s="1" t="n">
         <v>43012</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D30" s="0" t="n">
         <v>4</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F30" s="0" t="s">
         <v>18</v>
@@ -8805,13 +8397,13 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B31" s="1" t="n">
         <v>43012</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D31" s="0" t="n">
         <v>4</v>
@@ -8820,10 +8412,10 @@
         <v>32</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>278</v>
+        <v>242</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>281</v>
+        <v>243</v>
       </c>
       <c r="H31" s="0" t="n">
         <v>23</v>
@@ -8831,13 +8423,13 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B32" s="1" t="n">
         <v>43012</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D32" s="0" t="n">
         <v>4</v>
@@ -8849,7 +8441,7 @@
         <v>42</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>258</v>
+        <v>229</v>
       </c>
       <c r="H32" s="0" t="n">
         <v>3</v>
@@ -8857,13 +8449,13 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>396</v>
+        <v>345</v>
       </c>
       <c r="B33" s="1" t="n">
         <v>43012</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D33" s="0" t="n">
         <v>4</v>
@@ -8872,10 +8464,10 @@
         <v>32</v>
       </c>
       <c r="F33" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="G33" s="0" t="s">
         <v>113</v>
-      </c>
-      <c r="G33" s="0" t="s">
-        <v>114</v>
       </c>
       <c r="H33" s="0" t="n">
         <v>3</v>
@@ -8883,13 +8475,13 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>397</v>
+        <v>346</v>
       </c>
       <c r="B34" s="1" t="n">
         <v>43012</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D34" s="0" t="n">
         <v>4</v>
@@ -8909,25 +8501,25 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>398</v>
+        <v>347</v>
       </c>
       <c r="B35" s="1" t="n">
         <v>43012</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D35" s="0" t="n">
         <v>4</v>
       </c>
       <c r="E35" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="F35" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="F35" s="0" t="s">
-        <v>101</v>
-      </c>
       <c r="G35" s="0" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H35" s="0" t="n">
         <v>4</v>
@@ -8935,19 +8527,19 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>399</v>
+        <v>348</v>
       </c>
       <c r="B36" s="1" t="n">
         <v>43012</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D36" s="0" t="n">
         <v>4</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F36" s="0" t="s">
         <v>18</v>
@@ -8961,13 +8553,13 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>400</v>
+        <v>349</v>
       </c>
       <c r="B37" s="1" t="n">
         <v>43012</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D37" s="0" t="n">
         <v>4</v>
@@ -8987,13 +8579,13 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>401</v>
+        <v>350</v>
       </c>
       <c r="B38" s="1" t="n">
         <v>43012</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D38" s="0" t="n">
         <v>4</v>
@@ -9005,7 +8597,7 @@
         <v>42</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>349</v>
+        <v>298</v>
       </c>
       <c r="H38" s="0" t="n">
         <v>1</v>
@@ -9013,13 +8605,13 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>402</v>
+        <v>351</v>
       </c>
       <c r="B39" s="1" t="n">
         <v>43012</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D39" s="0" t="n">
         <v>4</v>
@@ -9028,10 +8620,10 @@
         <v>32</v>
       </c>
       <c r="F39" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="G39" s="0" t="s">
         <v>116</v>
-      </c>
-      <c r="G39" s="0" t="s">
-        <v>117</v>
       </c>
       <c r="H39" s="0" t="n">
         <v>17</v>
@@ -9039,13 +8631,13 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B40" s="1" t="n">
         <v>43012</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D40" s="0" t="n">
         <v>5</v>
@@ -9054,10 +8646,10 @@
         <v>32</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>278</v>
+        <v>242</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>281</v>
+        <v>243</v>
       </c>
       <c r="H40" s="0" t="n">
         <v>4</v>
@@ -9065,13 +8657,13 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B41" s="1" t="n">
         <v>43012</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D41" s="0" t="n">
         <v>5</v>
@@ -9080,10 +8672,10 @@
         <v>32</v>
       </c>
       <c r="F41" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="G41" s="0" t="s">
         <v>116</v>
-      </c>
-      <c r="G41" s="0" t="s">
-        <v>117</v>
       </c>
       <c r="H41" s="0" t="n">
         <v>2</v>
@@ -9091,25 +8683,25 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B42" s="1" t="n">
         <v>43012</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D42" s="0" t="n">
         <v>5</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>386</v>
+        <v>335</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="H42" s="0" t="n">
         <v>49</v>
@@ -9117,13 +8709,13 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B43" s="1" t="n">
         <v>43012</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D43" s="0" t="n">
         <v>5</v>
@@ -9143,19 +8735,19 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>403</v>
+        <v>352</v>
       </c>
       <c r="B44" s="1" t="n">
         <v>43012</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D44" s="0" t="n">
         <v>5</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F44" s="0" t="s">
         <v>18</v>
@@ -9169,13 +8761,13 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>404</v>
+        <v>353</v>
       </c>
       <c r="B45" s="1" t="n">
         <v>43012</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D45" s="0" t="n">
         <v>5</v>
@@ -9195,13 +8787,13 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B46" s="1" t="n">
         <v>43012</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D46" s="0" t="n">
         <v>6</v>
@@ -9210,10 +8802,10 @@
         <v>32</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>278</v>
+        <v>242</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>314</v>
+        <v>269</v>
       </c>
       <c r="H46" s="0" t="n">
         <v>5</v>
@@ -9221,13 +8813,13 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B47" s="1" t="n">
         <v>43012</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D47" s="0" t="n">
         <v>6</v>
@@ -9236,10 +8828,10 @@
         <v>32</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>278</v>
+        <v>242</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>281</v>
+        <v>243</v>
       </c>
       <c r="H47" s="0" t="n">
         <v>5</v>
@@ -9247,19 +8839,19 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B48" s="1" t="n">
         <v>43012</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D48" s="0" t="n">
         <v>6</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F48" s="0" t="s">
         <v>18</v>
@@ -9273,13 +8865,13 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B49" s="1" t="n">
         <v>43012</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D49" s="0" t="n">
         <v>6</v>
@@ -9299,25 +8891,25 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B50" s="1" t="n">
         <v>43012</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D50" s="0" t="n">
         <v>6</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>386</v>
+        <v>335</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="H50" s="0" t="n">
         <v>48</v>
@@ -9325,19 +8917,19 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B51" s="1" t="n">
         <v>43012</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D51" s="0" t="n">
         <v>6</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F51" s="0" t="s">
         <v>18</v>
@@ -9351,19 +8943,19 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B52" s="1" t="n">
         <v>43012</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D52" s="0" t="n">
         <v>6</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F52" s="0" t="s">
         <v>18</v>
@@ -9377,13 +8969,13 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>405</v>
+        <v>354</v>
       </c>
       <c r="B53" s="1" t="n">
         <v>43012</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D53" s="0" t="n">
         <v>6</v>
@@ -9392,7 +8984,7 @@
         <v>32</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>406</v>
+        <v>355</v>
       </c>
       <c r="G53" s="0" t="s">
         <v>54</v>
@@ -9403,13 +8995,13 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B54" s="1" t="n">
         <v>43012</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D54" s="0" t="n">
         <v>6</v>
@@ -9418,10 +9010,10 @@
         <v>32</v>
       </c>
       <c r="F54" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="G54" s="0" t="s">
         <v>116</v>
-      </c>
-      <c r="G54" s="0" t="s">
-        <v>117</v>
       </c>
       <c r="H54" s="0" t="n">
         <v>6</v>
@@ -9429,13 +9021,13 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B55" s="1" t="n">
         <v>43012</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D55" s="0" t="n">
         <v>6</v>
@@ -9444,10 +9036,10 @@
         <v>32</v>
       </c>
       <c r="F55" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="G55" s="0" t="s">
         <v>113</v>
-      </c>
-      <c r="G55" s="0" t="s">
-        <v>114</v>
       </c>
       <c r="H55" s="0" t="n">
         <v>3</v>
@@ -9455,13 +9047,13 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>407</v>
+        <v>356</v>
       </c>
       <c r="B56" s="1" t="n">
         <v>43012</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D56" s="0" t="n">
         <v>6</v>
@@ -9481,13 +9073,13 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>408</v>
+        <v>357</v>
       </c>
       <c r="B57" s="1" t="n">
         <v>43012</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D57" s="0" t="n">
         <v>6</v>
@@ -9496,10 +9088,10 @@
         <v>32</v>
       </c>
       <c r="F57" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="G57" s="0" t="s">
         <v>116</v>
-      </c>
-      <c r="G57" s="0" t="s">
-        <v>117</v>
       </c>
       <c r="H57" s="0" t="n">
         <v>18</v>
@@ -9507,13 +9099,13 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>409</v>
+        <v>358</v>
       </c>
       <c r="B58" s="1" t="n">
         <v>43012</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D58" s="0" t="n">
         <v>6</v>
@@ -9522,10 +9114,10 @@
         <v>32</v>
       </c>
       <c r="F58" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="G58" s="0" t="s">
         <v>116</v>
-      </c>
-      <c r="G58" s="0" t="s">
-        <v>117</v>
       </c>
       <c r="H58" s="0" t="n">
         <v>20</v>
@@ -9533,13 +9125,13 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>410</v>
+        <v>359</v>
       </c>
       <c r="B59" s="1" t="n">
         <v>43012</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D59" s="0" t="n">
         <v>6</v>
@@ -9548,10 +9140,10 @@
         <v>32</v>
       </c>
       <c r="F59" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="G59" s="0" t="s">
         <v>116</v>
-      </c>
-      <c r="G59" s="0" t="s">
-        <v>117</v>
       </c>
       <c r="H59" s="0" t="n">
         <v>23</v>
@@ -9559,13 +9151,13 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>411</v>
+        <v>360</v>
       </c>
       <c r="B60" s="1" t="n">
         <v>43012</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D60" s="0" t="n">
         <v>6</v>
@@ -9574,10 +9166,10 @@
         <v>32</v>
       </c>
       <c r="F60" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="G60" s="0" t="s">
         <v>116</v>
-      </c>
-      <c r="G60" s="0" t="s">
-        <v>117</v>
       </c>
       <c r="H60" s="0" t="n">
         <v>32</v>
@@ -9585,13 +9177,13 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>412</v>
+        <v>361</v>
       </c>
       <c r="B61" s="1" t="n">
         <v>43012</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D61" s="0" t="n">
         <v>6</v>
@@ -9600,10 +9192,10 @@
         <v>32</v>
       </c>
       <c r="F61" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="G61" s="0" t="s">
         <v>116</v>
-      </c>
-      <c r="G61" s="0" t="s">
-        <v>117</v>
       </c>
       <c r="H61" s="0" t="n">
         <v>26</v>
@@ -9611,19 +9203,19 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>413</v>
+        <v>362</v>
       </c>
       <c r="B62" s="1" t="n">
         <v>43012</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D62" s="0" t="n">
         <v>6</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F62" s="0" t="s">
         <v>18</v>
@@ -9653,8 +9245,8 @@
   </sheetPr>
   <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I7" activeCellId="0" sqref="I7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9671,7 +9263,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>1</v>
@@ -9680,7 +9272,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>414</v>
+        <v>3</v>
       </c>
       <c r="E1" s="0" t="s">
         <v>4</v>
@@ -9697,13 +9289,13 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B2" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>1</v>
@@ -9723,25 +9315,25 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B3" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>386</v>
+        <v>335</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>415</v>
+        <v>363</v>
       </c>
       <c r="H3" s="0" t="n">
         <v>7</v>
@@ -9749,13 +9341,13 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B4" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>1</v>
@@ -9775,25 +9367,25 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>416</v>
+        <v>364</v>
       </c>
       <c r="B5" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="H5" s="0" t="n">
         <v>2</v>
@@ -9801,13 +9393,13 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="B6" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>1</v>
@@ -9827,25 +9419,25 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="B7" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>417</v>
+        <v>365</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>417</v>
+        <v>365</v>
       </c>
       <c r="H7" s="0" t="n">
         <v>1</v>
@@ -9853,13 +9445,13 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="B8" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>1</v>
@@ -9879,13 +9471,13 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>418</v>
+        <v>366</v>
       </c>
       <c r="B9" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>1</v>
@@ -9894,7 +9486,7 @@
         <v>32</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>406</v>
+        <v>355</v>
       </c>
       <c r="G9" s="0" t="s">
         <v>54</v>
@@ -9905,13 +9497,13 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>419</v>
+        <v>367</v>
       </c>
       <c r="B10" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>1</v>
@@ -9931,25 +9523,25 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>420</v>
+        <v>368</v>
       </c>
       <c r="B11" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="H11" s="0" t="n">
         <v>1</v>
@@ -9957,19 +9549,19 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>421</v>
+        <v>369</v>
       </c>
       <c r="B12" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F12" s="0" t="s">
         <v>18</v>
@@ -9983,13 +9575,13 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>422</v>
+        <v>370</v>
       </c>
       <c r="B13" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>1</v>
@@ -10009,13 +9601,13 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>423</v>
+        <v>371</v>
       </c>
       <c r="B14" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>1</v>
@@ -10024,10 +9616,10 @@
         <v>32</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>424</v>
+        <v>372</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>425</v>
+        <v>373</v>
       </c>
       <c r="H14" s="0" t="n">
         <v>1</v>
@@ -10035,13 +9627,13 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="B15" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>2</v>
@@ -10061,13 +9653,13 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="B16" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>2</v>
@@ -10087,13 +9679,13 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="B17" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>2</v>
@@ -10102,10 +9694,10 @@
         <v>32</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>406</v>
+        <v>355</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H17" s="0" t="n">
         <v>1</v>
@@ -10113,19 +9705,19 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="B18" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F18" s="0" t="s">
         <v>18</v>
@@ -10139,13 +9731,13 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
       <c r="B19" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D19" s="0" t="n">
         <v>2</v>
@@ -10154,10 +9746,10 @@
         <v>32</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>278</v>
+        <v>242</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>278</v>
+        <v>242</v>
       </c>
       <c r="H19" s="0" t="n">
         <v>1</v>
@@ -10165,13 +9757,13 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
       <c r="B20" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D20" s="0" t="n">
         <v>2</v>
@@ -10183,7 +9775,7 @@
         <v>42</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>426</v>
+        <v>374</v>
       </c>
       <c r="H20" s="0" t="n">
         <v>2</v>
@@ -10191,13 +9783,13 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>427</v>
+        <v>375</v>
       </c>
       <c r="B21" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>2</v>
@@ -10206,10 +9798,10 @@
         <v>32</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>345</v>
+        <v>294</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>346</v>
+        <v>295</v>
       </c>
       <c r="H21" s="0" t="n">
         <v>1</v>
@@ -10217,13 +9809,13 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>428</v>
+        <v>376</v>
       </c>
       <c r="B22" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D22" s="0" t="n">
         <v>2</v>
@@ -10235,7 +9827,7 @@
         <v>42</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>429</v>
+        <v>377</v>
       </c>
       <c r="H22" s="0" t="n">
         <v>1</v>
@@ -10243,25 +9835,25 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>231</v>
+        <v>210</v>
       </c>
       <c r="B23" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D23" s="0" t="n">
         <v>3</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>386</v>
+        <v>335</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="H23" s="0" t="n">
         <v>39</v>
@@ -10269,13 +9861,13 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>237</v>
+        <v>214</v>
       </c>
       <c r="B24" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D24" s="0" t="n">
         <v>3</v>
@@ -10295,25 +9887,25 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>238</v>
+        <v>215</v>
       </c>
       <c r="B25" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D25" s="0" t="n">
         <v>3</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="H25" s="0" t="n">
         <v>1</v>
@@ -10321,13 +9913,13 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>239</v>
+        <v>216</v>
       </c>
       <c r="B26" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D26" s="0" t="n">
         <v>3</v>
@@ -10347,13 +9939,13 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>241</v>
+        <v>218</v>
       </c>
       <c r="B27" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D27" s="0" t="n">
         <v>3</v>
@@ -10362,10 +9954,10 @@
         <v>32</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>406</v>
+        <v>355</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H27" s="0" t="n">
         <v>2</v>
@@ -10373,25 +9965,25 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>242</v>
+        <v>219</v>
       </c>
       <c r="B28" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D28" s="0" t="n">
         <v>3</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F28" s="0" t="s">
         <v>18</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="H28" s="0" t="n">
         <v>6</v>
@@ -10399,13 +9991,13 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>266</v>
+        <v>233</v>
       </c>
       <c r="B29" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D29" s="0" t="n">
         <v>4</v>
@@ -10414,10 +10006,10 @@
         <v>32</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>278</v>
+        <v>242</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>281</v>
+        <v>243</v>
       </c>
       <c r="H29" s="0" t="n">
         <v>1</v>
@@ -10425,13 +10017,13 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>267</v>
+        <v>234</v>
       </c>
       <c r="B30" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D30" s="0" t="n">
         <v>4</v>
@@ -10443,7 +10035,7 @@
         <v>39</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>273</v>
+        <v>238</v>
       </c>
       <c r="H30" s="0" t="n">
         <v>9</v>
@@ -10451,13 +10043,13 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>268</v>
+        <v>235</v>
       </c>
       <c r="B31" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D31" s="0" t="n">
         <v>4</v>
@@ -10469,7 +10061,7 @@
         <v>33</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>391</v>
+        <v>340</v>
       </c>
       <c r="H31" s="0" t="n">
         <v>5</v>
@@ -10477,25 +10069,25 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>269</v>
+        <v>236</v>
       </c>
       <c r="B32" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D32" s="0" t="n">
         <v>4</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F32" s="0" t="s">
         <v>18</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="H32" s="0" t="n">
         <v>1</v>
@@ -10503,25 +10095,25 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>270</v>
+        <v>237</v>
       </c>
       <c r="B33" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D33" s="0" t="n">
         <v>4</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>430</v>
+        <v>378</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>384</v>
+        <v>333</v>
       </c>
       <c r="H33" s="0" t="n">
         <v>5</v>
@@ -10529,25 +10121,25 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>277</v>
+        <v>241</v>
       </c>
       <c r="B34" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D34" s="0" t="n">
         <v>4</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>430</v>
+        <v>378</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>431</v>
+        <v>379</v>
       </c>
       <c r="H34" s="0" t="n">
         <v>1</v>
@@ -10555,13 +10147,13 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>285</v>
+        <v>246</v>
       </c>
       <c r="B35" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D35" s="0" t="n">
         <v>4</v>
@@ -10570,7 +10162,7 @@
         <v>32</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>406</v>
+        <v>355</v>
       </c>
       <c r="G35" s="0" t="s">
         <v>54</v>
@@ -10581,13 +10173,13 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>432</v>
+        <v>380</v>
       </c>
       <c r="B36" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D36" s="0" t="n">
         <v>4</v>
@@ -10596,10 +10188,10 @@
         <v>82</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>433</v>
+        <v>381</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>359</v>
+        <v>308</v>
       </c>
       <c r="H36" s="0" t="n">
         <v>3</v>
@@ -10607,13 +10199,13 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>434</v>
+        <v>382</v>
       </c>
       <c r="B37" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D37" s="0" t="n">
         <v>4</v>
@@ -10622,10 +10214,10 @@
         <v>82</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>433</v>
+        <v>381</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>284</v>
+        <v>245</v>
       </c>
       <c r="H37" s="0" t="n">
         <v>2</v>
@@ -10633,13 +10225,13 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>295</v>
+        <v>253</v>
       </c>
       <c r="B38" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D38" s="0" t="n">
         <v>5</v>
@@ -10659,25 +10251,25 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>297</v>
+        <v>255</v>
       </c>
       <c r="B39" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D39" s="0" t="n">
         <v>5</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>386</v>
+        <v>335</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="H39" s="0" t="n">
         <v>2</v>
@@ -10685,13 +10277,13 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>299</v>
+        <v>257</v>
       </c>
       <c r="B40" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D40" s="0" t="n">
         <v>5</v>
@@ -10703,7 +10295,7 @@
         <v>47</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>435</v>
+        <v>383</v>
       </c>
       <c r="H40" s="0" t="n">
         <v>1</v>
@@ -10711,13 +10303,13 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>303</v>
+        <v>259</v>
       </c>
       <c r="B41" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D41" s="0" t="n">
         <v>5</v>
@@ -10729,7 +10321,7 @@
         <v>42</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>258</v>
+        <v>229</v>
       </c>
       <c r="H41" s="0" t="n">
         <v>1</v>
@@ -10737,13 +10329,13 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>305</v>
+        <v>261</v>
       </c>
       <c r="B42" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D42" s="0" t="n">
         <v>5</v>
@@ -10752,10 +10344,10 @@
         <v>32</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>278</v>
+        <v>242</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>278</v>
+        <v>242</v>
       </c>
       <c r="H42" s="0" t="n">
         <v>1</v>
@@ -10763,13 +10355,13 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>309</v>
+        <v>265</v>
       </c>
       <c r="B43" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D43" s="0" t="n">
         <v>5</v>
@@ -10778,7 +10370,7 @@
         <v>32</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>278</v>
+        <v>242</v>
       </c>
       <c r="G43" s="0" t="s">
         <v>37</v>
@@ -10789,13 +10381,13 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>315</v>
+        <v>270</v>
       </c>
       <c r="B44" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D44" s="0" t="n">
         <v>5</v>
@@ -10815,25 +10407,25 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>436</v>
+        <v>384</v>
       </c>
       <c r="B45" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D45" s="0" t="n">
         <v>5</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="H45" s="0" t="n">
         <v>1</v>
@@ -10841,19 +10433,19 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>437</v>
+        <v>385</v>
       </c>
       <c r="B46" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D46" s="0" t="n">
         <v>5</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F46" s="0" t="s">
         <v>14</v>
@@ -10867,13 +10459,13 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>438</v>
+        <v>386</v>
       </c>
       <c r="B47" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D47" s="0" t="n">
         <v>5</v>
@@ -10882,10 +10474,10 @@
         <v>32</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>406</v>
+        <v>355</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H47" s="0" t="n">
         <v>3</v>
@@ -10893,13 +10485,13 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>439</v>
+        <v>387</v>
       </c>
       <c r="B48" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D48" s="0" t="n">
         <v>5</v>
@@ -10911,7 +10503,7 @@
         <v>42</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>258</v>
+        <v>229</v>
       </c>
       <c r="H48" s="0" t="n">
         <v>1</v>
@@ -10919,13 +10511,13 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>316</v>
+        <v>271</v>
       </c>
       <c r="B49" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D49" s="0" t="n">
         <v>6</v>
@@ -10934,10 +10526,10 @@
         <v>82</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>433</v>
+        <v>381</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>359</v>
+        <v>308</v>
       </c>
       <c r="H49" s="0" t="n">
         <v>1</v>
@@ -10945,13 +10537,13 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>321</v>
+        <v>274</v>
       </c>
       <c r="B50" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D50" s="0" t="n">
         <v>6</v>
@@ -10963,7 +10555,7 @@
         <v>47</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>435</v>
+        <v>383</v>
       </c>
       <c r="H50" s="0" t="n">
         <v>1</v>
@@ -10971,13 +10563,13 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>325</v>
+        <v>276</v>
       </c>
       <c r="B51" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D51" s="0" t="n">
         <v>6</v>
@@ -10986,7 +10578,7 @@
         <v>32</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>406</v>
+        <v>355</v>
       </c>
       <c r="G51" s="0" t="s">
         <v>54</v>
@@ -10997,13 +10589,13 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>326</v>
+        <v>277</v>
       </c>
       <c r="B52" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D52" s="0" t="n">
         <v>6</v>
@@ -11012,10 +10604,10 @@
         <v>32</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>345</v>
+        <v>294</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>390</v>
+        <v>339</v>
       </c>
       <c r="H52" s="0" t="n">
         <v>1</v>
@@ -11023,13 +10615,13 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>440</v>
+        <v>388</v>
       </c>
       <c r="B53" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D53" s="0" t="n">
         <v>6</v>
@@ -11038,10 +10630,10 @@
         <v>32</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>406</v>
+        <v>355</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H53" s="0" t="n">
         <v>1</v>
@@ -11049,13 +10641,13 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>327</v>
+        <v>278</v>
       </c>
       <c r="B54" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D54" s="0" t="n">
         <v>6</v>
@@ -11064,10 +10656,10 @@
         <v>32</v>
       </c>
       <c r="F54" s="0" t="s">
-        <v>278</v>
+        <v>242</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>314</v>
+        <v>269</v>
       </c>
       <c r="H54" s="0" t="n">
         <v>1</v>
@@ -11075,13 +10667,13 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>328</v>
+        <v>279</v>
       </c>
       <c r="B55" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D55" s="0" t="n">
         <v>6</v>
@@ -11101,25 +10693,25 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>330</v>
+        <v>281</v>
       </c>
       <c r="B56" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D56" s="0" t="n">
         <v>6</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>386</v>
+        <v>335</v>
       </c>
       <c r="G56" s="0" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="H56" s="0" t="n">
         <v>67</v>
@@ -11127,13 +10719,13 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>331</v>
+        <v>282</v>
       </c>
       <c r="B57" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D57" s="0" t="n">
         <v>6</v>
@@ -11142,10 +10734,10 @@
         <v>32</v>
       </c>
       <c r="F57" s="0" t="s">
-        <v>424</v>
+        <v>372</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>425</v>
+        <v>373</v>
       </c>
       <c r="H57" s="0" t="n">
         <v>1</v>
@@ -11153,13 +10745,13 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>332</v>
+        <v>283</v>
       </c>
       <c r="B58" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D58" s="0" t="n">
         <v>6</v>
@@ -11179,25 +10771,25 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>338</v>
+        <v>287</v>
       </c>
       <c r="B59" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D59" s="0" t="n">
         <v>6</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F59" s="0" t="s">
         <v>18</v>
       </c>
       <c r="G59" s="0" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="H59" s="0" t="n">
         <v>25</v>
@@ -11205,13 +10797,13 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>339</v>
+        <v>288</v>
       </c>
       <c r="B60" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D60" s="0" t="n">
         <v>6</v>
@@ -11231,13 +10823,13 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>341</v>
+        <v>290</v>
       </c>
       <c r="B61" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D61" s="0" t="n">
         <v>6</v>
@@ -11246,10 +10838,10 @@
         <v>32</v>
       </c>
       <c r="F61" s="0" t="s">
-        <v>424</v>
+        <v>372</v>
       </c>
       <c r="G61" s="0" t="s">
-        <v>425</v>
+        <v>373</v>
       </c>
       <c r="H61" s="0" t="n">
         <v>1</v>
@@ -11257,25 +10849,25 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>342</v>
+        <v>291</v>
       </c>
       <c r="B62" s="4" t="n">
         <v>43012</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D62" s="0" t="n">
         <v>6</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F62" s="0" t="s">
-        <v>386</v>
+        <v>335</v>
       </c>
       <c r="G62" s="0" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="H62" s="0" t="n">
         <v>2</v>

--- a/data/microscopy/microscopy.xlsx
+++ b/data/microscopy/microscopy.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="982" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="GW-May" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1818" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1818" uniqueCount="388">
   <si>
     <t xml:space="preserve">TUBE ID</t>
   </si>
@@ -940,9 +940,6 @@
   </si>
   <si>
     <t xml:space="preserve">GW112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bithynia_spp.</t>
   </si>
   <si>
     <t xml:space="preserve">GW113</t>
@@ -1304,12 +1301,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -1321,20 +1318,20 @@
   </sheetPr>
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A33" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A33" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="23.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="8.52"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.7448979591837"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.1989795918367"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="22.9489795918367"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2510,7 +2507,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -2523,22 +2520,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H55"/>
+  <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G21" activeCellId="0" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="17.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="22.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="8.52"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.4744897959184"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.1989795918367"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.280612244898"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="22.4081632653061"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3919,16 +3916,10 @@
         <v>69</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="1"/>
-    </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B55" s="1"/>
-    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -3943,21 +3934,21 @@
   </sheetPr>
   <dimension ref="A1:H82"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1012" min="8" style="0" width="8.52"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1013" style="0" width="11.52"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.56122448979592"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.7448979591837"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="23.6224489795918"/>
+    <col collapsed="false" hidden="false" max="1012" min="8" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="1013" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6095,7 +6086,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -6110,20 +6101,20 @@
   </sheetPr>
   <dimension ref="A1:H56"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E41" activeCellId="0" sqref="E41"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G13" activeCellId="0" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="22.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="8.52"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.7448979591837"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.1989795918367"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="22.4081632653061"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6432,7 +6423,7 @@
         <v>242</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="H12" s="0" t="n">
         <v>2</v>
@@ -6440,7 +6431,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>43010</v>
@@ -6518,7 +6509,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B16" s="1" t="n">
         <v>43010</v>
@@ -6562,7 +6553,7 @@
         <v>83</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H17" s="0" t="n">
         <v>3</v>
@@ -6648,7 +6639,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B21" s="1" t="n">
         <v>43010</v>
@@ -6900,7 +6891,7 @@
         <v>83</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H30" s="0" t="n">
         <v>1</v>
@@ -7038,7 +7029,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B36" s="1" t="n">
         <v>43010</v>
@@ -7064,7 +7055,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B37" s="1" t="n">
         <v>43010</v>
@@ -7090,7 +7081,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B38" s="1" t="n">
         <v>43010</v>
@@ -7116,7 +7107,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B39" s="1" t="n">
         <v>43010</v>
@@ -7142,7 +7133,7 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B40" s="1" t="n">
         <v>43010</v>
@@ -7168,7 +7159,7 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B41" s="1" t="n">
         <v>43010</v>
@@ -7350,7 +7341,7 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B48" s="1" t="n">
         <v>43010</v>
@@ -7376,7 +7367,7 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B49" s="1" t="n">
         <v>43010</v>
@@ -7402,7 +7393,7 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B50" s="1" t="n">
         <v>43010</v>
@@ -7428,7 +7419,7 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B51" s="1" t="n">
         <v>43010</v>
@@ -7454,7 +7445,7 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B52" s="1" t="n">
         <v>43010</v>
@@ -7480,7 +7471,7 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B53" s="1" t="n">
         <v>43010</v>
@@ -7506,7 +7497,7 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B54" s="1" t="n">
         <v>43010</v>
@@ -7521,10 +7512,10 @@
         <v>82</v>
       </c>
       <c r="F54" s="0" t="s">
+        <v>322</v>
+      </c>
+      <c r="G54" s="0" t="s">
         <v>323</v>
-      </c>
-      <c r="G54" s="0" t="s">
-        <v>324</v>
       </c>
       <c r="H54" s="0" t="n">
         <v>1</v>
@@ -7532,7 +7523,7 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B55" s="1" t="n">
         <v>43010</v>
@@ -7558,7 +7549,7 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B56" s="1" t="n">
         <v>43010</v>
@@ -7585,7 +7576,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -7600,19 +7591,19 @@
   </sheetPr>
   <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="10.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="17.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="22.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="8.52"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.1989795918367"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.280612244898"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="22.4081632653061"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7669,7 +7660,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>43012</v>
@@ -7762,10 +7753,10 @@
         <v>10</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H6" s="0" t="n">
         <v>1</v>
@@ -7869,7 +7860,7 @@
         <v>83</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H10" s="0" t="n">
         <v>1</v>
@@ -7877,7 +7868,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>43012</v>
@@ -7955,7 +7946,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>43012</v>
@@ -7981,7 +7972,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B15" s="1" t="n">
         <v>43012</v>
@@ -7996,10 +7987,10 @@
         <v>103</v>
       </c>
       <c r="F15" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="G15" s="0" t="s">
         <v>332</v>
-      </c>
-      <c r="G15" s="0" t="s">
-        <v>333</v>
       </c>
       <c r="H15" s="0" t="n">
         <v>1</v>
@@ -8007,7 +7998,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B16" s="1" t="n">
         <v>43012</v>
@@ -8048,7 +8039,7 @@
         <v>103</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G17" s="0" t="s">
         <v>189</v>
@@ -8111,7 +8102,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B20" s="1" t="n">
         <v>43012</v>
@@ -8123,13 +8114,13 @@
         <v>3</v>
       </c>
       <c r="E20" s="0" t="s">
+        <v>336</v>
+      </c>
+      <c r="F20" s="0" t="s">
         <v>337</v>
       </c>
-      <c r="F20" s="0" t="s">
-        <v>338</v>
-      </c>
       <c r="G20" s="0" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H20" s="0" t="n">
         <v>1</v>
@@ -8207,7 +8198,7 @@
         <v>294</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H23" s="0" t="n">
         <v>15</v>
@@ -8233,7 +8224,7 @@
         <v>33</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H24" s="0" t="n">
         <v>1</v>
@@ -8241,7 +8232,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B25" s="1" t="n">
         <v>43012</v>
@@ -8293,7 +8284,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B27" s="1" t="n">
         <v>43012</v>
@@ -8319,7 +8310,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B28" s="1" t="n">
         <v>43012</v>
@@ -8345,7 +8336,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B29" s="1" t="n">
         <v>43012</v>
@@ -8360,7 +8351,7 @@
         <v>103</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G29" s="0" t="s">
         <v>189</v>
@@ -8449,7 +8440,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B33" s="1" t="n">
         <v>43012</v>
@@ -8475,7 +8466,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B34" s="1" t="n">
         <v>43012</v>
@@ -8501,7 +8492,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B35" s="1" t="n">
         <v>43012</v>
@@ -8527,7 +8518,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B36" s="1" t="n">
         <v>43012</v>
@@ -8553,7 +8544,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B37" s="1" t="n">
         <v>43012</v>
@@ -8579,7 +8570,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B38" s="1" t="n">
         <v>43012</v>
@@ -8605,7 +8596,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B39" s="1" t="n">
         <v>43012</v>
@@ -8698,7 +8689,7 @@
         <v>103</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G42" s="0" t="s">
         <v>189</v>
@@ -8735,7 +8726,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B44" s="1" t="n">
         <v>43012</v>
@@ -8761,7 +8752,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B45" s="1" t="n">
         <v>43012</v>
@@ -8906,7 +8897,7 @@
         <v>103</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G50" s="0" t="s">
         <v>189</v>
@@ -8969,7 +8960,7 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B53" s="1" t="n">
         <v>43012</v>
@@ -8984,7 +8975,7 @@
         <v>32</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G53" s="0" t="s">
         <v>54</v>
@@ -9047,7 +9038,7 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B56" s="1" t="n">
         <v>43012</v>
@@ -9073,7 +9064,7 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B57" s="1" t="n">
         <v>43012</v>
@@ -9099,7 +9090,7 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B58" s="1" t="n">
         <v>43012</v>
@@ -9125,7 +9116,7 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B59" s="1" t="n">
         <v>43012</v>
@@ -9151,7 +9142,7 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B60" s="1" t="n">
         <v>43012</v>
@@ -9177,7 +9168,7 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B61" s="1" t="n">
         <v>43012</v>
@@ -9203,7 +9194,7 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B62" s="1" t="n">
         <v>43012</v>
@@ -9230,7 +9221,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -9245,20 +9236,20 @@
   </sheetPr>
   <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="8.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="23.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="8.52"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.83163265306122"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.9336734693878"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="22.8112244897959"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9330,10 +9321,10 @@
         <v>103</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H3" s="0" t="n">
         <v>7</v>
@@ -9367,7 +9358,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B5" s="4" t="n">
         <v>43012</v>
@@ -9434,10 +9425,10 @@
         <v>103</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H7" s="0" t="n">
         <v>1</v>
@@ -9471,7 +9462,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B9" s="4" t="n">
         <v>43012</v>
@@ -9486,7 +9477,7 @@
         <v>32</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G9" s="0" t="s">
         <v>54</v>
@@ -9497,7 +9488,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B10" s="4" t="n">
         <v>43012</v>
@@ -9523,7 +9514,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B11" s="4" t="n">
         <v>43012</v>
@@ -9549,7 +9540,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B12" s="4" t="n">
         <v>43012</v>
@@ -9575,7 +9566,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B13" s="4" t="n">
         <v>43012</v>
@@ -9601,25 +9592,25 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
+        <v>370</v>
+      </c>
+      <c r="B14" s="4" t="n">
+        <v>43012</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="0" t="s">
         <v>371</v>
       </c>
-      <c r="B14" s="4" t="n">
-        <v>43012</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>179</v>
-      </c>
-      <c r="D14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" s="0" t="s">
+      <c r="G14" s="0" t="s">
         <v>372</v>
-      </c>
-      <c r="G14" s="0" t="s">
-        <v>373</v>
       </c>
       <c r="H14" s="0" t="n">
         <v>1</v>
@@ -9694,7 +9685,7 @@
         <v>32</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G17" s="0" t="s">
         <v>162</v>
@@ -9775,7 +9766,7 @@
         <v>42</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H20" s="0" t="n">
         <v>2</v>
@@ -9783,7 +9774,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B21" s="4" t="n">
         <v>43012</v>
@@ -9809,7 +9800,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B22" s="4" t="n">
         <v>43012</v>
@@ -9827,7 +9818,7 @@
         <v>42</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H22" s="0" t="n">
         <v>1</v>
@@ -9850,7 +9841,7 @@
         <v>103</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G23" s="0" t="s">
         <v>189</v>
@@ -9954,7 +9945,7 @@
         <v>32</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G27" s="0" t="s">
         <v>162</v>
@@ -10061,7 +10052,7 @@
         <v>33</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H31" s="0" t="n">
         <v>5</v>
@@ -10110,10 +10101,10 @@
         <v>103</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H33" s="0" t="n">
         <v>5</v>
@@ -10136,10 +10127,10 @@
         <v>103</v>
       </c>
       <c r="F34" s="0" t="s">
+        <v>377</v>
+      </c>
+      <c r="G34" s="0" t="s">
         <v>378</v>
-      </c>
-      <c r="G34" s="0" t="s">
-        <v>379</v>
       </c>
       <c r="H34" s="0" t="n">
         <v>1</v>
@@ -10162,7 +10153,7 @@
         <v>32</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G35" s="0" t="s">
         <v>54</v>
@@ -10173,7 +10164,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B36" s="4" t="n">
         <v>43012</v>
@@ -10188,10 +10179,10 @@
         <v>82</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H36" s="0" t="n">
         <v>3</v>
@@ -10199,7 +10190,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B37" s="4" t="n">
         <v>43012</v>
@@ -10214,7 +10205,7 @@
         <v>82</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G37" s="0" t="s">
         <v>245</v>
@@ -10266,7 +10257,7 @@
         <v>103</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G39" s="0" t="s">
         <v>189</v>
@@ -10295,7 +10286,7 @@
         <v>47</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H40" s="0" t="n">
         <v>1</v>
@@ -10407,7 +10398,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B45" s="4" t="n">
         <v>43012</v>
@@ -10433,7 +10424,7 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B46" s="4" t="n">
         <v>43012</v>
@@ -10459,7 +10450,7 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B47" s="4" t="n">
         <v>43012</v>
@@ -10474,7 +10465,7 @@
         <v>32</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G47" s="0" t="s">
         <v>162</v>
@@ -10485,7 +10476,7 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B48" s="4" t="n">
         <v>43012</v>
@@ -10526,10 +10517,10 @@
         <v>82</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H49" s="0" t="n">
         <v>1</v>
@@ -10555,7 +10546,7 @@
         <v>47</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H50" s="0" t="n">
         <v>1</v>
@@ -10578,7 +10569,7 @@
         <v>32</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G51" s="0" t="s">
         <v>54</v>
@@ -10607,7 +10598,7 @@
         <v>294</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H52" s="0" t="n">
         <v>1</v>
@@ -10615,7 +10606,7 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B53" s="4" t="n">
         <v>43012</v>
@@ -10630,7 +10621,7 @@
         <v>32</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G53" s="0" t="s">
         <v>162</v>
@@ -10708,7 +10699,7 @@
         <v>103</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G56" s="0" t="s">
         <v>189</v>
@@ -10734,10 +10725,10 @@
         <v>32</v>
       </c>
       <c r="F57" s="0" t="s">
+        <v>371</v>
+      </c>
+      <c r="G57" s="0" t="s">
         <v>372</v>
-      </c>
-      <c r="G57" s="0" t="s">
-        <v>373</v>
       </c>
       <c r="H57" s="0" t="n">
         <v>1</v>
@@ -10838,10 +10829,10 @@
         <v>32</v>
       </c>
       <c r="F61" s="0" t="s">
+        <v>371</v>
+      </c>
+      <c r="G61" s="0" t="s">
         <v>372</v>
-      </c>
-      <c r="G61" s="0" t="s">
-        <v>373</v>
       </c>
       <c r="H61" s="0" t="n">
         <v>1</v>
@@ -10864,7 +10855,7 @@
         <v>103</v>
       </c>
       <c r="F62" s="0" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G62" s="0" t="s">
         <v>189</v>
@@ -10876,7 +10867,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
